--- a/activities.xlsx
+++ b/activities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eb76e5660c890129/Personal/Projects/Design/PECS/work assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1515" documentId="13_ncr:40009_{E3EB266C-7612-416D-8781-7A2BED99FA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CF2C53A-DC89-4129-9F41-316CA7CF5CAB}"/>
+  <xr:revisionPtr revIDLastSave="1666" documentId="13_ncr:40009_{E3EB266C-7612-416D-8781-7A2BED99FA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A81FD29F-6D4B-4147-BB70-F7DDA5126A5F}"/>
   <bookViews>
-    <workbookView xWindow="8775" yWindow="1425" windowWidth="32970" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21570" yWindow="0" windowWidth="33570" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Work" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6010" uniqueCount="1204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6084" uniqueCount="1227">
   <si>
     <t>name</t>
   </si>
@@ -3765,6 +3765,77 @@
   </si>
   <si>
     <t>Thievery</t>
+  </si>
+  <si>
+    <t>False Faith</t>
+  </si>
+  <si>
+    <t>Droskar knows you may need to disguise yourself in societies that oppose your faith. After spending 1 hour in prayer to Droskar, you can cast spells using the religious symbol of a different deity as your divine focus, and you can address verbal prayers to that deity. Droskar intercepts your prayers and answers them without the named god knowing.
+This ability applies to the religious symbol of only one god at a time - making a different religious symbol work in this fashion requires another hour of prayer and causes the old one to cease functioning. You can always use a religious symbol of Droskar without affecting this ability.</t>
+  </si>
+  <si>
+    <t>Channel Smite</t>
+  </si>
+  <si>
+    <t>Expend a harm or heal spell.</t>
+  </si>
+  <si>
+    <t>You siphon the destructive energies of positive or negative energy through a melee attack and into your foe. Make a melee Strike and add the spell's damage to the Strike's damage. This is negative damage if you expended a harm spell or positive damage if you expended a heal spell. The spell is expended with no effect if your Strike fails or hits a creature that isn't damaged by that energy type (such as if you hit a non-undead creature with a heal spell).</t>
+  </si>
+  <si>
+    <t>Command Undead</t>
+  </si>
+  <si>
+    <t>Command Undead (Caster)</t>
+  </si>
+  <si>
+    <t>Necrotic Infusion</t>
+  </si>
+  <si>
+    <t>Necrotic Infusion (Caster)</t>
+  </si>
+  <si>
+    <t>You can expend a harm or heal spell to channel smite in your spell list.</t>
+  </si>
+  <si>
+    <t>You can expend the triggering spell as a counterspell in your spell list.</t>
+  </si>
+  <si>
+    <t>Cast Down</t>
+  </si>
+  <si>
+    <t>Cast Down (Caster)</t>
+  </si>
+  <si>
+    <t>Divine Weapon</t>
+  </si>
+  <si>
+    <t>You finish Casting a Spell using one of your divine spell slots on your turn.</t>
+  </si>
+  <si>
+    <t>The sheer force of your faith can bring a foe crashing down. If the next action you use is to cast harm or heal to damage one creature, the target is knocked prone if it takes any damage from the spell. If the target critically fails its save against the spell, it also takes a -10-foot status penalty to its Speed for 1 minute.</t>
+  </si>
+  <si>
+    <t>You grasp the animating force within an undead creature and bend it to your will. If the next action you use is to cast harm targeting one undead creature, you transform the effects of that harm spell. Instead of harm's normal effects, the target becomes controlled by you if its level is equal to or lower than your level - 3. It can attempt a Will saving throw to resist being controlled by you. If the target is already under someone else's command, the controlling creature also rolls a saving throw, and the undead uses the better result.</t>
+  </si>
+  <si>
+    <t>You siphon residual spell energy into a weapon you're wielding. Until the end of your turn, the weapon deals an additional 1d4 force damage. You can instead deal an additional 1d6 damage of an alignment type that matches one of your deity's alignment components. As usual for aligned damage, this can damage only creatures of the opposite alignment.</t>
+  </si>
+  <si>
+    <t>Using this action applies the effect independently of the harm spell. Cast a harm spell afterwards to properly expend the spell slot.</t>
+  </si>
+  <si>
+    <t>Using this action applies the effect independently of the harm or heal spell. Cast a harm or heal spell afterwards to properly expend the spell slot.</t>
+  </si>
+  <si>
+    <t>Align Armament</t>
+  </si>
+  <si>
+    <t>Align Armament (Originator)</t>
+  </si>
+  <si>
+    <t>You bring a weapon into metaphysical concordance with your deity's beliefs. This action has the trait corresponding to the chosen alignment component.
+When you use this action, you touch a weapon. For 1 round, that weapon deals an additional 1d6 damage of the chosen type to creatures of the opposed alignment. For example, if you chose good, the weapon would deal an extra 1d6 good damage to evil creatures. If you Align an Armament again, any previously aligned armament loses its additional damage.</t>
   </si>
 </sst>
 </file>
@@ -4307,7 +4378,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="45">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4431,6 +4502,76 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4950,23 +5091,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:LS145"/>
+  <dimension ref="A1:LZ145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="LJ105" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="LW14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="LZ47" sqref="LZ47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="331" width="27.42578125" style="1" customWidth="1"/>
-    <col min="332" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="338" width="27.42578125" style="1" customWidth="1"/>
+    <col min="339" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:331" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:338" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5960,8 +6101,29 @@
       <c r="LS1" t="s">
         <v>990</v>
       </c>
+      <c r="LT1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="LU1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="LV1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="LW1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="LX1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="LY1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="LZ1" t="s">
+        <v>1224</v>
+      </c>
     </row>
-    <row r="2" spans="1:331" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:338" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -6943,8 +7105,29 @@
       <c r="LR2" s="1" t="s">
         <v>127</v>
       </c>
+      <c r="LT2" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="LU2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="LV2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="LW2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="LX2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="LY2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="LZ2" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="3" spans="1:331" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:338" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -7069,7 +7252,7 @@
         <v>1008</v>
       </c>
       <c r="GX3" s="1" t="s">
-        <v>978</v>
+        <v>1214</v>
       </c>
       <c r="HB3" s="1" t="s">
         <v>1009</v>
@@ -7123,7 +7306,7 @@
         <v>1018</v>
       </c>
       <c r="LO3" s="1" t="s">
-        <v>977</v>
+        <v>1214</v>
       </c>
       <c r="LP3" s="1" t="s">
         <v>981</v>
@@ -7131,8 +7314,20 @@
       <c r="LR3" s="1" t="s">
         <v>987</v>
       </c>
+      <c r="LU3" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="LV3" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="LW3" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="LX3" s="1" t="s">
+        <v>1223</v>
+      </c>
     </row>
-    <row r="4" spans="1:331" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:338" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -8081,8 +8276,26 @@
       <c r="LR4" s="2" t="s">
         <v>188</v>
       </c>
+      <c r="LU4" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="LV4" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="LW4" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="LX4" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="LY4" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="LZ4" s="2" t="s">
+        <v>321</v>
+      </c>
     </row>
-    <row r="5" spans="1:331" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:338" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -8746,8 +8959,23 @@
       <c r="LR5" s="2" t="s">
         <v>317</v>
       </c>
+      <c r="LU5" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="LV5" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="LW5" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="LX5" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="LZ5" s="2" t="s">
+        <v>213</v>
+      </c>
     </row>
-    <row r="6" spans="1:331" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:338" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -9090,8 +9318,23 @@
       <c r="LJ6" s="2" t="s">
         <v>147</v>
       </c>
+      <c r="LU6" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="LV6" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="LW6" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="LX6" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="LZ6" s="2" t="s">
+        <v>146</v>
+      </c>
     </row>
-    <row r="7" spans="1:331" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:338" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -9330,7 +9573,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="8" spans="1:331" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:338" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -9476,7 +9719,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:331" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:338" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>34</v>
       </c>
@@ -9502,7 +9745,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="10" spans="1:331" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:338" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>37</v>
       </c>
@@ -9516,7 +9759,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="11" spans="1:331" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:338" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -9815,7 +10058,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="12" spans="1:331" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:338" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -10038,8 +10281,11 @@
       <c r="LR12" s="1" t="s">
         <v>985</v>
       </c>
+      <c r="LY12" s="1" t="s">
+        <v>1218</v>
+      </c>
     </row>
-    <row r="13" spans="1:331" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:338" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -10190,13 +10436,16 @@
       <c r="LQ13" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="LT13" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:331" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:338" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="15" spans="1:331" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:338" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>48</v>
       </c>
@@ -10207,15 +10456,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:331" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:338" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
       <c r="BM16" s="1" t="s">
         <v>284</v>
       </c>
+      <c r="LU16" s="1" t="s">
+        <v>1207</v>
+      </c>
     </row>
-    <row r="17" spans="1:331" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:338" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -10325,8 +10577,14 @@
       <c r="LR17" s="1" t="s">
         <v>720</v>
       </c>
+      <c r="LY17" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="LZ17" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
-    <row r="18" spans="1:331" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:338" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -10447,8 +10705,14 @@
       <c r="LR18" s="1">
         <v>100</v>
       </c>
+      <c r="LY18" s="1">
+        <v>5</v>
+      </c>
+      <c r="LZ18" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="19" spans="1:331" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:338" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -10459,7 +10723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:331" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:338" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -10509,7 +10773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:331" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:338" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1019</v>
       </c>
@@ -10519,8 +10783,11 @@
       <c r="IL21" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="LW21" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="22" spans="1:331" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:338" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>1017</v>
       </c>
@@ -11514,8 +11781,29 @@
       <c r="LS22" s="1" t="s">
         <v>1000</v>
       </c>
+      <c r="LT22" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="LU22" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="LV22" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="LW22" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="LX22" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="LY22" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="LZ22" s="1" t="s">
+        <v>1002</v>
+      </c>
     </row>
-    <row r="23" spans="1:331" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:338" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>1033</v>
       </c>
@@ -11547,7 +11835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:331" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:338" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>1189</v>
       </c>
@@ -11639,7 +11927,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="25" spans="1:331" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:338" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>2</v>
       </c>
@@ -12633,8 +12921,29 @@
       <c r="LS25" s="1" t="s">
         <v>991</v>
       </c>
+      <c r="LT25" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="LU25" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="LV25" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="LW25" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="LX25" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="LY25" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="LZ25" s="1" t="s">
+        <v>1226</v>
+      </c>
     </row>
-    <row r="26" spans="1:331" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:338" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
@@ -12651,7 +12960,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="27" spans="1:331" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:338" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>14</v>
       </c>
@@ -12698,7 +13007,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="28" spans="1:331" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:338" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>15</v>
       </c>
@@ -12754,7 +13063,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="29" spans="1:331" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:338" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>16</v>
       </c>
@@ -12816,7 +13125,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="30" spans="1:331" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:338" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>17</v>
       </c>
@@ -12863,7 +13172,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="31" spans="1:331" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:338" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>1007</v>
       </c>
@@ -12877,7 +13186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:331" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:338" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>25</v>
       </c>
@@ -12888,7 +13197,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="33" spans="1:331" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:338" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>22</v>
       </c>
@@ -12899,12 +13208,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:331" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:338" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="35" spans="1:331" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:338" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>998</v>
       </c>
@@ -12912,12 +13221,12 @@
         <v>996</v>
       </c>
     </row>
-    <row r="36" spans="1:331" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:338" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="37" spans="1:331" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:338" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>7</v>
       </c>
@@ -13230,8 +13539,23 @@
       <c r="LS37" s="4">
         <v>5</v>
       </c>
+      <c r="LV37" s="4">
+        <v>-5</v>
+      </c>
+      <c r="LW37" s="4">
+        <v>10</v>
+      </c>
+      <c r="LX37" s="4">
+        <v>-5</v>
+      </c>
+      <c r="LY37" s="4">
+        <v>5</v>
+      </c>
+      <c r="LZ37" s="4">
+        <v>10</v>
+      </c>
     </row>
-    <row r="38" spans="1:331" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:338" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>997</v>
       </c>
@@ -13239,7 +13563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:331" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:338" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>8</v>
       </c>
@@ -13573,8 +13897,26 @@
       <c r="LS39" s="4" t="s">
         <v>992</v>
       </c>
+      <c r="LT39" s="4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="LV39" s="4" t="s">
+        <v>1210</v>
+      </c>
+      <c r="LW39" s="4" t="s">
+        <v>1212</v>
+      </c>
+      <c r="LX39" s="4" t="s">
+        <v>1216</v>
+      </c>
+      <c r="LY39" s="4" t="s">
+        <v>1217</v>
+      </c>
+      <c r="LZ39" s="4" t="s">
+        <v>1225</v>
+      </c>
     </row>
-    <row r="40" spans="1:331" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:338" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>9</v>
       </c>
@@ -13905,8 +14247,26 @@
       <c r="LS40" s="4" t="s">
         <v>993</v>
       </c>
+      <c r="LT40" s="4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="LV40" s="4" t="s">
+        <v>1209</v>
+      </c>
+      <c r="LW40" s="4" t="s">
+        <v>1211</v>
+      </c>
+      <c r="LX40" s="4" t="s">
+        <v>1215</v>
+      </c>
+      <c r="LY40" s="4" t="s">
+        <v>1217</v>
+      </c>
+      <c r="LZ40" s="4" t="s">
+        <v>1224</v>
+      </c>
     </row>
-    <row r="41" spans="1:331" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:338" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>1015</v>
       </c>
@@ -13976,8 +14336,20 @@
       <c r="KT41" s="4" t="s">
         <v>1016</v>
       </c>
+      <c r="LV41" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="LW41" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="LX41" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="LZ41" s="4" t="s">
+        <v>1016</v>
+      </c>
     </row>
-    <row r="42" spans="1:331" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:338" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>994</v>
       </c>
@@ -13985,7 +14357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:331" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:338" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>29</v>
       </c>
@@ -13993,22 +14365,22 @@
         <v>191</v>
       </c>
     </row>
-    <row r="44" spans="1:331" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:338" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="45" spans="1:331" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:338" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="46" spans="1:331" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:338" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="47" spans="1:331" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:338" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>1023</v>
       </c>
@@ -14021,8 +14393,14 @@
       <c r="IW47" s="4" t="s">
         <v>1030</v>
       </c>
+      <c r="LW47" s="4" t="s">
+        <v>1212</v>
+      </c>
+      <c r="LZ47" s="4" t="s">
+        <v>1225</v>
+      </c>
     </row>
-    <row r="48" spans="1:331" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:338" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>26</v>
       </c>
@@ -14044,8 +14422,14 @@
       <c r="IL48" s="4">
         <v>5</v>
       </c>
+      <c r="LW48" s="4">
+        <v>10</v>
+      </c>
+      <c r="LZ48" s="4">
+        <v>10</v>
+      </c>
     </row>
-    <row r="49" spans="1:314" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:338" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>27</v>
       </c>
@@ -14085,8 +14469,14 @@
       <c r="KG49" s="4" t="s">
         <v>852</v>
       </c>
+      <c r="LW49" s="4" t="s">
+        <v>1211</v>
+      </c>
+      <c r="LZ49" s="4" t="s">
+        <v>1224</v>
+      </c>
     </row>
-    <row r="50" spans="1:314" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:338" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>28</v>
       </c>
@@ -14126,8 +14516,14 @@
       <c r="KG50" s="4" t="s">
         <v>852</v>
       </c>
+      <c r="LW50" s="4" t="s">
+        <v>1211</v>
+      </c>
+      <c r="LZ50" s="4" t="s">
+        <v>1224</v>
+      </c>
     </row>
-    <row r="51" spans="1:314" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:338" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>1021</v>
       </c>
@@ -14162,7 +14558,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="52" spans="1:314" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:338" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>47</v>
       </c>
@@ -14170,7 +14566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:314" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:338" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>33</v>
       </c>
@@ -14181,17 +14577,17 @@
         <v>935</v>
       </c>
     </row>
-    <row r="54" spans="1:314" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:338" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="55" spans="1:314" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:338" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="56" spans="1:314" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:338" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>30</v>
       </c>
@@ -14199,7 +14595,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="57" spans="1:314" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:338" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>31</v>
       </c>
@@ -14210,7 +14606,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="58" spans="1:314" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:338" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>32</v>
       </c>
@@ -14221,7 +14617,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="59" spans="1:314" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:338" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>1020</v>
       </c>
@@ -14229,7 +14625,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="60" spans="1:314" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:338" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>23</v>
       </c>
@@ -14258,7 +14654,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="61" spans="1:314" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:338" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>24</v>
       </c>
@@ -14287,7 +14683,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="62" spans="1:314" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:338" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>41</v>
       </c>
@@ -14304,7 +14700,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="63" spans="1:314" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:338" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>40</v>
       </c>
@@ -14321,7 +14717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:314" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:338" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>39</v>
       </c>
@@ -15104,64 +15500,85 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A62:JS70">
     <sortCondition ref="A62:A70"/>
   </sortState>
-  <conditionalFormatting sqref="LF1:LI1 A1:LD1 LP1 LS1:XFD1">
-    <cfRule type="duplicateValues" dxfId="18" priority="27"/>
+  <conditionalFormatting sqref="LF1:LI1 A1:LD1 LP1 LS1 MA1:XFD1">
+    <cfRule type="duplicateValues" dxfId="44" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="LE1">
-    <cfRule type="duplicateValues" dxfId="17" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="LN1">
-    <cfRule type="duplicateValues" dxfId="16" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="LO1">
-    <cfRule type="duplicateValues" dxfId="15" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="expression" dxfId="14" priority="23">
+    <cfRule type="expression" dxfId="40" priority="30">
       <formula>(COUNTA(21:21)=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:A120">
-    <cfRule type="expression" dxfId="13" priority="46">
+    <cfRule type="expression" dxfId="39" priority="53">
       <formula>(COUNTA(71:71)=1)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="12" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="expression" dxfId="11" priority="19">
+    <cfRule type="expression" dxfId="37" priority="26">
       <formula>(COUNTA(1:1)=1)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="10" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:A125">
-    <cfRule type="expression" dxfId="9" priority="17">
+    <cfRule type="expression" dxfId="35" priority="24">
       <formula>(COUNTA(124:124)=1)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="8" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129:A130">
-    <cfRule type="expression" dxfId="7" priority="15">
+    <cfRule type="expression" dxfId="33" priority="22">
       <formula>(COUNTA(129:129)=1)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="6" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A134:A135">
-    <cfRule type="expression" dxfId="5" priority="13">
+    <cfRule type="expression" dxfId="31" priority="20">
       <formula>(COUNTA(134:134)=1)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="4" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139:A140">
-    <cfRule type="expression" dxfId="3" priority="11">
+    <cfRule type="expression" dxfId="29" priority="18">
       <formula>(COUNTA(139:139)=1)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="2" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A144:A145">
-    <cfRule type="expression" dxfId="1" priority="9">
+    <cfRule type="expression" dxfId="27" priority="16">
       <formula>(COUNTA(144:144)=1)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="LT1">
+    <cfRule type="duplicateValues" dxfId="25" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="LU1">
+    <cfRule type="duplicateValues" dxfId="24" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="LV1">
+    <cfRule type="duplicateValues" dxfId="23" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="LW1">
+    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="LX1">
+    <cfRule type="duplicateValues" dxfId="21" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="LY1">
+    <cfRule type="duplicateValues" dxfId="20" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="LZ1">
+    <cfRule type="duplicateValues" dxfId="19" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -70396,63 +70813,63 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A318:A321 A1:A316 A328 A331">
-    <cfRule type="duplicateValues" dxfId="37" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A317">
-    <cfRule type="duplicateValues" dxfId="36" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A326">
-    <cfRule type="duplicateValues" dxfId="35" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A327">
-    <cfRule type="duplicateValues" dxfId="34" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1">
-    <cfRule type="expression" dxfId="33" priority="13">
+    <cfRule type="expression" dxfId="14" priority="13">
       <formula>(COUNTA(1:1)=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS1:DP1">
-    <cfRule type="expression" dxfId="32" priority="18">
+    <cfRule type="expression" dxfId="13" priority="18">
       <formula>(COUNTA(1:1)=1)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="31" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:EO1">
-    <cfRule type="expression" dxfId="30" priority="11">
+    <cfRule type="expression" dxfId="11" priority="11">
       <formula>(COUNTA(1:1)=1)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="29" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="DT1:DU1">
-    <cfRule type="expression" dxfId="28" priority="9">
+    <cfRule type="expression" dxfId="9" priority="9">
       <formula>(COUNTA(1:1)=1)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="27" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="DY1:DZ1">
-    <cfRule type="expression" dxfId="26" priority="7">
+    <cfRule type="expression" dxfId="7" priority="7">
       <formula>(COUNTA(1:1)=1)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="25" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="ED1:EE1">
-    <cfRule type="expression" dxfId="24" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>(COUNTA(1:1)=1)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="23" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="EI1:EJ1">
-    <cfRule type="expression" dxfId="22" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>(COUNTA(1:1)=1)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="21" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="EN1:EO1">
-    <cfRule type="expression" dxfId="20" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>(COUNTA(1:1)=1)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="19" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/activities.xlsx
+++ b/activities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eb76e5660c890129/Personal/Projects/Design/PECS/work assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1666" documentId="13_ncr:40009_{E3EB266C-7612-416D-8781-7A2BED99FA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A81FD29F-6D4B-4147-BB70-F7DDA5126A5F}"/>
+  <xr:revisionPtr revIDLastSave="1941" documentId="13_ncr:40009_{E3EB266C-7612-416D-8781-7A2BED99FA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0AA81A4A-6D70-4B7A-BFC5-4E02C4FF7956}"/>
   <bookViews>
-    <workbookView xWindow="21570" yWindow="0" windowWidth="33570" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4290" yWindow="630" windowWidth="33570" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Work" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6084" uniqueCount="1227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6244" uniqueCount="1293">
   <si>
     <t>name</t>
   </si>
@@ -3836,6 +3836,207 @@
   <si>
     <t>You bring a weapon into metaphysical concordance with your deity's beliefs. This action has the trait corresponding to the chosen alignment component.
 When you use this action, you touch a weapon. For 1 round, that weapon deals an additional 1d6 damage of the chosen type to creatures of the opposed alignment. For example, if you chose good, the weapon would deal an extra 1d6 good damage to evil creatures. If you Align an Armament again, any previously aligned armament loses its additional damage.</t>
+  </si>
+  <si>
+    <t>Heroic Recovery</t>
+  </si>
+  <si>
+    <t>Using this action grants the effect to your ally independently of the heal spell. Cast a heal spell afterwards to properly expend the spell slot.</t>
+  </si>
+  <si>
+    <t>The restorative power of your healing invigorates the recipient. If the next action you use is to cast heal targeting a single living creature and the target regains Hit Points from the spell, it also gains three bonuses until the end of its next turn: a +5-foot status bonus to its Speed, a +1 status bonus to attack rolls, and a +1 status bonus to damage rolls.</t>
+  </si>
+  <si>
+    <t>Heroic Recovery (Originator)</t>
+  </si>
+  <si>
+    <t>Replenishment of War</t>
+  </si>
+  <si>
+    <t>Favored Weapon</t>
+  </si>
+  <si>
+    <t>Striking out against your enemies draws praise and protection from your deity. When you damage a creature with a Strike using your deity's favored weapon, you gain a number of temporary Hit Points equal to half your level, or equal to your level if the Strike was a critical hit. These temporary Hit Points last until the start of your next turn.</t>
+  </si>
+  <si>
+    <t>Defensive Recovery</t>
+  </si>
+  <si>
+    <t>Your faith provides temporary protection in addition to healing. If the next action you use is to cast harm or heal on a single target and the target regains Hit Points from the spell, it also gains a +2 status bonus to AC and saving throws for 1 round.</t>
+  </si>
+  <si>
+    <t>Defensive Recovery (Originator)</t>
+  </si>
+  <si>
+    <t>Replenishment of War (Originator)</t>
+  </si>
+  <si>
+    <t>Has_Feat(Creature.type, 'Shared Replenishment') ? 1 : 0</t>
+  </si>
+  <si>
+    <t>!Has_Feat(Creature.type, 'Shared Replenishment') ? 1 : 0</t>
+  </si>
+  <si>
+    <t>You have a banishment spell prepared.</t>
+  </si>
+  <si>
+    <t>You critically hit a creature that is not on its home plane.</t>
+  </si>
+  <si>
+    <t>The force of your blow sends your victim back to its home plane. You expend a banishment spell you have prepared, affecting the creature you critically hit without needing to cast the spell. The creature can attempt to resist the spell as normal.</t>
+  </si>
+  <si>
+    <t>Swift Banishment</t>
+  </si>
+  <si>
+    <t>Banishment (Caster)</t>
+  </si>
+  <si>
+    <t>Dismiss Eternal Bane</t>
+  </si>
+  <si>
+    <t>Eternal Bane Dismissed</t>
+  </si>
+  <si>
+    <t>Until you have the Shared Replenishment feat, activating Replenishment of War will only affect yourself regardless of the selected target.</t>
+  </si>
+  <si>
+    <t>Dismiss Eternal Blessing</t>
+  </si>
+  <si>
+    <t>Eternal Blessing</t>
+  </si>
+  <si>
+    <t>Bless</t>
+  </si>
+  <si>
+    <t>You're continuously surrounded by a bless spell. You can use this activity to grant the effect of the spell to your allies when they enter its radius.</t>
+  </si>
+  <si>
+    <t>You're continuously surrounded by a bane spell. You can use this activity to Dismiss the spell; it will return automatically after 1 minute.</t>
+  </si>
+  <si>
+    <t>You're continuously surrounded by a bless spell. You can use this activity to Dismiss the spell; it will return automatically after 1 minute.</t>
+  </si>
+  <si>
+    <t>Resurrectionist</t>
+  </si>
+  <si>
+    <t>You can cause a creature you bring back from the brink of death to thrive and continue healing. After restoring Hit Points to a dying creature or bringing a dead creature back to life and restoring Hit Points to it, you grant that creature fast healing 5 for 1 minute. This fast healing ends if the creature is knocked unconscious.</t>
+  </si>
+  <si>
+    <t>Resurrectionist (Originator)</t>
+  </si>
+  <si>
+    <t>Echoing Channel</t>
+  </si>
+  <si>
+    <t>When you pull forth positive or negative energy, you also create a smaller pocket of that energy. If the next action you use is to cast a 2-action harm or heal to heal or damage a single creature, choose one additional creature adjacent to either you or the target. Target that creature with a 1-action version of the same spell. This spell is the same level as the 2-action harm or heal you cast and doesn’t cost another spell slot.</t>
+  </si>
+  <si>
+    <t>In play, you can choose one additional creature to apply the effect. There is no change to the spell you cast.</t>
+  </si>
+  <si>
+    <t>three times a day</t>
+  </si>
+  <si>
+    <t>Dance of Intercesion</t>
+  </si>
+  <si>
+    <t>You either performed in or stood witness to the dance used to invoke the Celestial Dragon and can harness a sliver of their power. You Stride in a dance up to half your Speed, attempting a DC 35 Performance check. You can perform this dance up to three times per day. The second time you do so in the same day, use the degree of success one worse than your actual roll on the Performance check. The third time in a day, use the degree of success two lower than your actual roll.</t>
+  </si>
+  <si>
+    <t>You perform the movements of the Dance of Intercession so gracefully that you evoke a glimmer of the memory of the Celestial Dragon's awesome power. You cast the 3-action version of either 9th-level harm or heal at any point during your Stride. This does not use any spell slots.</t>
+  </si>
+  <si>
+    <t>As critical success, but the spell is 7th level instead of 9th as you stumble through the movements.</t>
+  </si>
+  <si>
+    <t>As critical success, but the spell is 5th level instead of 9th as you stumble through the movements.</t>
+  </si>
+  <si>
+    <t>You fail to remember the steps of the dance. You gain no additional effect beyond Striding half your Speed, and you can't attempt the Dance of Intercession again until your next daily preparations.</t>
+  </si>
+  <si>
+    <t>Heal</t>
+  </si>
+  <si>
+    <t>showSpells/1/level</t>
+  </si>
+  <si>
+    <t>showSpells/1/name</t>
+  </si>
+  <si>
+    <t>showSpells/2/level</t>
+  </si>
+  <si>
+    <t>showSpells/2/name</t>
+  </si>
+  <si>
+    <t>showSpells/3/level</t>
+  </si>
+  <si>
+    <t>showSpells/3/name</t>
+  </si>
+  <si>
+    <t>Harm</t>
+  </si>
+  <si>
+    <t>showSpells/4/level</t>
+  </si>
+  <si>
+    <t>showSpells/4/name</t>
+  </si>
+  <si>
+    <t>showSpells/5/level</t>
+  </si>
+  <si>
+    <t>showSpells/5/name</t>
+  </si>
+  <si>
+    <t>You have a heal spell prepared and you aren't flat-footed to the source of the damage.</t>
+  </si>
+  <si>
+    <t>Any ally within 30 feet that you can heal with your heal spell would take damage from an attack or effect from a source you can observe.</t>
+  </si>
+  <si>
+    <t>You can manipulate the same energies that the aeon orbs use to sustain life. You cast heal on the triggering target. Instead of its normal effects, the heal spell reduces the triggering damage by an amount equal to the Hit Points a 1-action heal spell of that level would have recovered. As usual, if this reduces the damage to 0, it might also remove additional effects of the triggering attack, such as injury poisons.</t>
+  </si>
+  <si>
+    <t>Cast a prepared heal spell as indicated.</t>
+  </si>
+  <si>
+    <t>You can expend a banishment spell for swift banishment in your spell list. Alternatively, you can just cast the spell to the same effect and treat it as though it took no actions and had no traits.
+If you have Improved Swift Banishment, you can expend any prepared spell of 5th level or higher in your spell list.</t>
+  </si>
+  <si>
+    <t>Metamagic Channel</t>
+  </si>
+  <si>
+    <t>Deep understanding of divine revelations into the nature of vital essence allows you to freely manipulate the effects of your positive or negative energy. Use 1 metamagic action that you can perform that normally takes 1 action and can be applied to the harm or heal spell. If you use it in this way, its effects apply only to a harm or heal spell.</t>
+  </si>
+  <si>
+    <t>Inventive Offensive</t>
+  </si>
+  <si>
+    <t>Vibrant Display</t>
+  </si>
+  <si>
+    <t>You can jury-rig your weapons to perform in unexpected ways. When you use this ability, add one of the following weapon traits to a melee weapon you wield: deadly d6, disarm, nonlethal, shove, trip, versatile B, versatile P, or versatile S. You cannot add a trait that the weapon already has. The weapon retains this trait until you a successfully hit and deal damage with the weapon. The weapon retains this trait only while you wield it, and you can have only one weapon modified in this way at any time.
+If you have expert proficiency in Crafting, you can use this feat as a 2-action activity. If you have legendary proficiency in Crafting, you can apply two weapon traits from the list when using this feat.</t>
+  </si>
+  <si>
+    <t>Gnome</t>
+  </si>
+  <si>
+    <t>Once every 10 minutes, when you use the Feint action, you can compare your Deception check result to the Perception DCs of all adjacent creatures rather than just one creature within melee reach. It's possible to get a different degree of success for each target.
+These changes are imprecise and usually short-lived, so while they allow you to periodically change your appearance in unpredictable ways, they are of little use in providing camouflage or aiding a disguise.</t>
+  </si>
+  <si>
+    <t>once every 10 minutes</t>
+  </si>
+  <si>
+    <t>To apply an additional weapon trait if you have legendary proficiency in Crafting, use this ability a second time.</t>
   </si>
 </sst>
 </file>
@@ -4319,7 +4520,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="19" applyAlignment="1"/>
@@ -4333,6 +4534,9 @@
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="24"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="23"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="24" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4378,7 +4582,27 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="45">
+  <dxfs count="59">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4576,6 +4800,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -4626,9 +4857,122 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5091,23 +5435,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:LZ145"/>
+  <dimension ref="A1:MN155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="LW14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="ML2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="LZ47" sqref="LZ47"/>
+      <selection pane="bottomRight" activeCell="MN4" sqref="MN4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="338" width="27.42578125" style="1" customWidth="1"/>
-    <col min="339" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="352" width="27.42578125" style="1" customWidth="1"/>
+    <col min="353" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:338" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:352" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6122,8 +6466,50 @@
       <c r="LZ1" t="s">
         <v>1224</v>
       </c>
+      <c r="MA1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="MB1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="MC1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="MD1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="ME1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="MF1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="MG1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="MH1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="MI1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="MJ1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="MK1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="ML1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="MM1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="MN1" t="s">
+        <v>1287</v>
+      </c>
     </row>
-    <row r="2" spans="1:338" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:352" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -7126,8 +7512,38 @@
       <c r="LZ2" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="MA2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="MC2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="MD2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="ME2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="MG2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="MI2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="MJ2" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="MK2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="ML2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="MM2" s="1" t="s">
+        <v>198</v>
+      </c>
     </row>
-    <row r="3" spans="1:338" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:352" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -7326,8 +7742,29 @@
       <c r="LX3" s="1" t="s">
         <v>1223</v>
       </c>
+      <c r="MA3" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="MB3" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="MC3" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="MD3" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="MI3" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="MK3" s="1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="MM3" s="1" t="s">
+        <v>1292</v>
+      </c>
     </row>
-    <row r="4" spans="1:338" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:352" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -8294,8 +8731,41 @@
       <c r="LZ4" s="2" t="s">
         <v>321</v>
       </c>
+      <c r="MA4" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="MB4" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="MC4" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="MD4" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="ME4" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="MG4" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="MI4" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="MJ4" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="MK4" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="ML4" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="MM4" s="2" t="s">
+        <v>1289</v>
+      </c>
     </row>
-    <row r="5" spans="1:338" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:352" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -8974,8 +9444,26 @@
       <c r="LZ5" s="2" t="s">
         <v>213</v>
       </c>
+      <c r="MA5" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="MC5" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="MI5" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="MJ5" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="MK5" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="ML5" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
-    <row r="6" spans="1:338" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:352" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -9333,8 +9821,17 @@
       <c r="LZ6" s="2" t="s">
         <v>146</v>
       </c>
+      <c r="MA6" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="MC6" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="MI6" s="2" t="s">
+        <v>316</v>
+      </c>
     </row>
-    <row r="7" spans="1:338" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:352" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -9573,7 +10070,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="8" spans="1:338" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:352" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -9719,7 +10216,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:338" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:352" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>34</v>
       </c>
@@ -9745,7 +10242,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="10" spans="1:338" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:352" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>37</v>
       </c>
@@ -9759,7 +10256,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="11" spans="1:338" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:352" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -10057,8 +10554,14 @@
       <c r="LO11" s="1" t="s">
         <v>976</v>
       </c>
+      <c r="MD11" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="MK11" s="1" t="s">
+        <v>1279</v>
+      </c>
     </row>
-    <row r="12" spans="1:338" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:352" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -10284,8 +10787,14 @@
       <c r="LY12" s="1" t="s">
         <v>1218</v>
       </c>
+      <c r="MD12" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="MK12" s="1" t="s">
+        <v>1280</v>
+      </c>
     </row>
-    <row r="13" spans="1:338" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:352" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -10440,12 +10949,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:338" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:352" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="15" spans="1:338" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:352" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>48</v>
       </c>
@@ -10455,8 +10964,11 @@
       <c r="JM15" s="1">
         <v>1</v>
       </c>
+      <c r="MJ15" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="16" spans="1:338" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:352" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -10467,7 +10979,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="17" spans="1:338" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:352" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -10583,8 +11095,14 @@
       <c r="LZ17" s="1" t="s">
         <v>123</v>
       </c>
+      <c r="MJ17" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="MN17" s="1" t="s">
+        <v>1291</v>
+      </c>
     </row>
-    <row r="18" spans="1:338" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:352" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -10711,8 +11229,14 @@
       <c r="LZ18" s="1">
         <v>5</v>
       </c>
+      <c r="MJ18" s="1">
+        <v>144000</v>
+      </c>
+      <c r="MN18" s="1">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="19" spans="1:338" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:352" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -10723,7 +11247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:338" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:352" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -10773,7 +11297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:338" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:352" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1019</v>
       </c>
@@ -10786,8 +11310,14 @@
       <c r="LW21" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="MA21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="MB21" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="22" spans="1:338" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:352" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>1017</v>
       </c>
@@ -11802,8 +12332,50 @@
       <c r="LZ22" s="1" t="s">
         <v>1002</v>
       </c>
+      <c r="MA22" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="MB22" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="MC22" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="MD22" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="ME22" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="MF22" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="MG22" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="MH22" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="MI22" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="MJ22" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="MK22" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="ML22" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="MM22" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="MN22" s="1" t="s">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="23" spans="1:338" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:352" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>1033</v>
       </c>
@@ -11835,7 +12407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:338" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:352" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>1189</v>
       </c>
@@ -11926,8 +12498,11 @@
       <c r="IZ24" s="1" t="s">
         <v>1195</v>
       </c>
+      <c r="MB24" s="1" t="s">
+        <v>1232</v>
+      </c>
     </row>
-    <row r="25" spans="1:338" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:352" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>2</v>
       </c>
@@ -12942,8 +13517,50 @@
       <c r="LZ25" s="1" t="s">
         <v>1226</v>
       </c>
+      <c r="MA25" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="MB25" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="MC25" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="MD25" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="ME25" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="MF25" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="MG25" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="MH25" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="MI25" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="MJ25" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="MK25" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="ML25" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="MM25" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="MN25" s="13" t="s">
+        <v>1290</v>
+      </c>
     </row>
-    <row r="26" spans="1:338" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:352" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
@@ -12960,7 +13577,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="27" spans="1:338" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:352" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>14</v>
       </c>
@@ -13006,8 +13623,14 @@
       <c r="IS27" s="3" t="s">
         <v>764</v>
       </c>
+      <c r="MJ27" s="3" t="s">
+        <v>1263</v>
+      </c>
+      <c r="MK27" s="3" t="s">
+        <v>1263</v>
+      </c>
     </row>
-    <row r="28" spans="1:338" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:352" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>15</v>
       </c>
@@ -13062,8 +13685,14 @@
       <c r="IS28" s="3" t="s">
         <v>765</v>
       </c>
+      <c r="MJ28" s="3" t="s">
+        <v>1264</v>
+      </c>
+      <c r="MK28" s="3" t="s">
+        <v>1264</v>
+      </c>
     </row>
-    <row r="29" spans="1:338" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:352" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>16</v>
       </c>
@@ -13124,8 +13753,14 @@
       <c r="HT29" s="3" t="s">
         <v>684</v>
       </c>
+      <c r="MJ29" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="MK29" s="3" t="s">
+        <v>1265</v>
+      </c>
     </row>
-    <row r="30" spans="1:338" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:352" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>17</v>
       </c>
@@ -13171,8 +13806,14 @@
       <c r="IS30" s="3" t="s">
         <v>766</v>
       </c>
+      <c r="MJ30" s="3" t="s">
+        <v>1266</v>
+      </c>
+      <c r="MK30" s="3" t="s">
+        <v>1266</v>
+      </c>
     </row>
-    <row r="31" spans="1:338" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:352" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>1007</v>
       </c>
@@ -13185,8 +13826,11 @@
       <c r="IQ31" s="9">
         <v>2</v>
       </c>
+      <c r="MF31" s="9">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="32" spans="1:338" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:352" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>25</v>
       </c>
@@ -13196,8 +13840,11 @@
       <c r="AZ32" s="7" t="s">
         <v>232</v>
       </c>
+      <c r="MB32" s="7" t="s">
+        <v>1239</v>
+      </c>
     </row>
-    <row r="33" spans="1:338" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:351" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>22</v>
       </c>
@@ -13208,12 +13855,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:338" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:351" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="35" spans="1:338" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:351" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>998</v>
       </c>
@@ -13221,12 +13868,12 @@
         <v>996</v>
       </c>
     </row>
-    <row r="36" spans="1:338" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:351" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="37" spans="1:338" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:351" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>7</v>
       </c>
@@ -13554,8 +14201,35 @@
       <c r="LZ37" s="4">
         <v>10</v>
       </c>
+      <c r="MA37" s="4">
+        <v>10</v>
+      </c>
+      <c r="MB37" s="4">
+        <v>15</v>
+      </c>
+      <c r="MC37" s="4">
+        <v>10</v>
+      </c>
+      <c r="MD37" s="4">
+        <v>0</v>
+      </c>
+      <c r="ME37" s="4">
+        <v>100</v>
+      </c>
+      <c r="MF37" s="4">
+        <v>-1</v>
+      </c>
+      <c r="MG37" s="4">
+        <v>100</v>
+      </c>
+      <c r="MH37" s="4">
+        <v>100</v>
+      </c>
+      <c r="MM37" s="4">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="38" spans="1:338" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:351" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>997</v>
       </c>
@@ -13563,7 +14237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:338" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:351" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>8</v>
       </c>
@@ -13915,8 +14589,35 @@
       <c r="LZ39" s="4" t="s">
         <v>1225</v>
       </c>
+      <c r="MA39" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="MB39" s="4" t="s">
+        <v>1231</v>
+      </c>
+      <c r="MC39" s="4" t="s">
+        <v>1236</v>
+      </c>
+      <c r="MD39" s="4" t="s">
+        <v>1244</v>
+      </c>
+      <c r="ME39" s="4" t="s">
+        <v>1246</v>
+      </c>
+      <c r="MF39" s="4" t="s">
+        <v>1250</v>
+      </c>
+      <c r="MG39" s="4" t="s">
+        <v>1246</v>
+      </c>
+      <c r="MH39" s="4" t="s">
+        <v>1256</v>
+      </c>
+      <c r="MM39" s="4" t="s">
+        <v>1286</v>
+      </c>
     </row>
-    <row r="40" spans="1:338" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:351" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>9</v>
       </c>
@@ -14265,8 +14966,35 @@
       <c r="LZ40" s="4" t="s">
         <v>1224</v>
       </c>
+      <c r="MA40" s="4" t="s">
+        <v>1227</v>
+      </c>
+      <c r="MB40" s="4" t="s">
+        <v>1231</v>
+      </c>
+      <c r="MC40" s="4" t="s">
+        <v>1234</v>
+      </c>
+      <c r="MD40" s="4" t="s">
+        <v>1243</v>
+      </c>
+      <c r="ME40" s="4" t="s">
+        <v>1245</v>
+      </c>
+      <c r="MF40" s="4" t="s">
+        <v>1249</v>
+      </c>
+      <c r="MG40" s="4" t="s">
+        <v>1245</v>
+      </c>
+      <c r="MH40" s="4" t="s">
+        <v>1254</v>
+      </c>
+      <c r="MM40" s="4" t="s">
+        <v>1286</v>
+      </c>
     </row>
-    <row r="41" spans="1:338" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:351" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>1015</v>
       </c>
@@ -14348,8 +15076,23 @@
       <c r="LZ41" s="4" t="s">
         <v>1016</v>
       </c>
+      <c r="MA41" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="MB41" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="MC41" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="MD41" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="MH41" s="4" t="s">
+        <v>1016</v>
+      </c>
     </row>
-    <row r="42" spans="1:338" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:351" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>994</v>
       </c>
@@ -14357,30 +15100,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:338" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:351" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>29</v>
       </c>
       <c r="AQ43" s="7" t="s">
         <v>191</v>
       </c>
+      <c r="MB43" s="7" t="s">
+        <v>1238</v>
+      </c>
     </row>
-    <row r="44" spans="1:338" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:351" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="45" spans="1:338" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:351" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="46" spans="1:338" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:351" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="47" spans="1:338" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:351" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>1023</v>
       </c>
@@ -14399,8 +15145,11 @@
       <c r="LZ47" s="4" t="s">
         <v>1225</v>
       </c>
+      <c r="MC47" s="4" t="s">
+        <v>1236</v>
+      </c>
     </row>
-    <row r="48" spans="1:338" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:351" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>26</v>
       </c>
@@ -14428,8 +15177,20 @@
       <c r="LZ48" s="4">
         <v>10</v>
       </c>
+      <c r="MA48" s="4">
+        <v>10</v>
+      </c>
+      <c r="MB48" s="4">
+        <v>15</v>
+      </c>
+      <c r="MC48" s="4">
+        <v>10</v>
+      </c>
+      <c r="MH48" s="4">
+        <v>100</v>
+      </c>
     </row>
-    <row r="49" spans="1:338" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:346" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>27</v>
       </c>
@@ -14475,8 +15236,20 @@
       <c r="LZ49" s="4" t="s">
         <v>1224</v>
       </c>
+      <c r="MA49" s="4" t="s">
+        <v>1227</v>
+      </c>
+      <c r="MB49" s="4" t="s">
+        <v>1237</v>
+      </c>
+      <c r="MC49" s="4" t="s">
+        <v>1234</v>
+      </c>
+      <c r="MH49" s="4" t="s">
+        <v>1254</v>
+      </c>
     </row>
-    <row r="50" spans="1:338" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:346" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>28</v>
       </c>
@@ -14522,8 +15295,20 @@
       <c r="LZ50" s="4" t="s">
         <v>1224</v>
       </c>
+      <c r="MA50" s="4" t="s">
+        <v>1227</v>
+      </c>
+      <c r="MB50" s="4" t="s">
+        <v>1231</v>
+      </c>
+      <c r="MC50" s="4" t="s">
+        <v>1234</v>
+      </c>
+      <c r="MH50" s="4" t="s">
+        <v>1254</v>
+      </c>
     </row>
-    <row r="51" spans="1:338" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:346" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>1021</v>
       </c>
@@ -14557,8 +15342,26 @@
       <c r="KG51" s="4" t="s">
         <v>1017</v>
       </c>
+      <c r="LW51" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="LZ51" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="MA51" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="MB51" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="MC51" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="MH51" s="4" t="s">
+        <v>1017</v>
+      </c>
     </row>
-    <row r="52" spans="1:338" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:346" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>47</v>
       </c>
@@ -14566,7 +15369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:338" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:346" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>33</v>
       </c>
@@ -14576,26 +15379,32 @@
       <c r="KG53" s="7" t="s">
         <v>935</v>
       </c>
+      <c r="MB53" s="7" t="s">
+        <v>1238</v>
+      </c>
     </row>
-    <row r="54" spans="1:338" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:346" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="55" spans="1:338" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:346" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="56" spans="1:338" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:346" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>30</v>
       </c>
       <c r="AQ56" s="4">
         <v>500</v>
       </c>
+      <c r="MB56" s="4">
+        <v>15</v>
+      </c>
     </row>
-    <row r="57" spans="1:338" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:346" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>31</v>
       </c>
@@ -14605,8 +15414,11 @@
       <c r="KG57" s="4" t="s">
         <v>936</v>
       </c>
+      <c r="MB57" s="4" t="s">
+        <v>1231</v>
+      </c>
     </row>
-    <row r="58" spans="1:338" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:346" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>32</v>
       </c>
@@ -14616,16 +15428,22 @@
       <c r="KG58" s="4" t="s">
         <v>852</v>
       </c>
+      <c r="MB58" s="4" t="s">
+        <v>1231</v>
+      </c>
     </row>
-    <row r="59" spans="1:338" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:346" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>1020</v>
       </c>
       <c r="KG59" s="4" t="s">
         <v>1016</v>
       </c>
+      <c r="MB59" s="4" t="s">
+        <v>1017</v>
+      </c>
     </row>
-    <row r="60" spans="1:338" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:346" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>23</v>
       </c>
@@ -14654,7 +15472,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="61" spans="1:338" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:346" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>24</v>
       </c>
@@ -14683,7 +15501,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="62" spans="1:338" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:346" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>41</v>
       </c>
@@ -14700,7 +15518,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="63" spans="1:338" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:346" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>40</v>
       </c>
@@ -14717,7 +15535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:338" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:346" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>39</v>
       </c>
@@ -14734,7 +15552,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="65" spans="1:324" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:349" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>44</v>
       </c>
@@ -14742,7 +15560,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="66" spans="1:324" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:349" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>43</v>
       </c>
@@ -14750,7 +15568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:324" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:349" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>42</v>
       </c>
@@ -14758,7 +15576,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="68" spans="1:324" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:349" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>49</v>
       </c>
@@ -14766,7 +15584,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="69" spans="1:324" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:349" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>46</v>
       </c>
@@ -14785,8 +15603,14 @@
       <c r="LL69" s="1">
         <v>10</v>
       </c>
+      <c r="MJ69" s="1">
+        <v>9</v>
+      </c>
+      <c r="MK69" s="1">
+        <v>9</v>
+      </c>
     </row>
-    <row r="70" spans="1:324" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:349" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>45</v>
       </c>
@@ -14805,130 +15629,148 @@
       <c r="LL70" s="1" t="s">
         <v>968</v>
       </c>
+      <c r="MJ70" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="MK70" s="1" t="s">
+        <v>1274</v>
+      </c>
     </row>
-    <row r="71" spans="1:324" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="10" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AO71" s="12">
-        <v>1</v>
-      </c>
-      <c r="KB71" s="12">
-        <v>6</v>
+    <row r="71" spans="1:349" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="MJ71" s="1">
+        <v>9</v>
+      </c>
+      <c r="MK71" s="1">
+        <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:324" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="11" t="s">
-        <v>1047</v>
-      </c>
-      <c r="AO72" s="9" t="s">
-        <v>1096</v>
-      </c>
-      <c r="KB72" s="9" t="s">
-        <v>1102</v>
+    <row r="72" spans="1:349" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="MJ72" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="MK72" s="1" t="s">
+        <v>1267</v>
       </c>
     </row>
-    <row r="73" spans="1:324" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="11" t="s">
-        <v>1048</v>
-      </c>
-      <c r="AO73" s="9" t="s">
-        <v>1097</v>
-      </c>
-      <c r="KB73" s="9" t="s">
-        <v>1097</v>
+    <row r="73" spans="1:349" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="MJ73" s="1">
+        <v>7</v>
+      </c>
+      <c r="MK73" s="1">
+        <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:324" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="11" t="s">
-        <v>1049</v>
-      </c>
-      <c r="KB74" s="9" t="s">
-        <v>1099</v>
+    <row r="74" spans="1:349" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="MJ74" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="MK74" s="1" t="s">
+        <v>1274</v>
       </c>
     </row>
-    <row r="75" spans="1:324" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="11" t="s">
-        <v>1050</v>
-      </c>
-      <c r="KB75" s="9" t="s">
-        <v>1167</v>
+    <row r="75" spans="1:349" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="MJ75" s="1">
+        <v>7</v>
+      </c>
+      <c r="MK75" s="1">
+        <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:324" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="10" t="s">
-        <v>1051</v>
-      </c>
-      <c r="AO76" s="12">
-        <v>3</v>
-      </c>
-      <c r="KB76" s="12">
-        <v>7</v>
+    <row r="76" spans="1:349" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="MJ76" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="MK76" s="1" t="s">
+        <v>1267</v>
       </c>
     </row>
-    <row r="77" spans="1:324" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="11" t="s">
-        <v>1052</v>
-      </c>
-      <c r="AO77" s="9" t="s">
-        <v>1098</v>
-      </c>
-      <c r="KB77" s="9" t="s">
-        <v>1103</v>
+    <row r="77" spans="1:349" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="MJ77" s="1">
+        <v>5</v>
+      </c>
+      <c r="MK77" s="1">
+        <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:324" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="11" t="s">
-        <v>1053</v>
-      </c>
-      <c r="AO78" s="9" t="s">
-        <v>1097</v>
-      </c>
-      <c r="KB78" s="9" t="s">
-        <v>1097</v>
+    <row r="78" spans="1:349" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="MJ78" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="MK78" s="1" t="s">
+        <v>1274</v>
       </c>
     </row>
-    <row r="79" spans="1:324" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="11" t="s">
-        <v>1054</v>
-      </c>
-      <c r="KB79" s="9" t="s">
-        <v>1099</v>
+    <row r="79" spans="1:349" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="MJ79" s="1">
+        <v>5</v>
+      </c>
+      <c r="MK79" s="1">
+        <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:324" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="11" t="s">
-        <v>1055</v>
-      </c>
-      <c r="KB80" s="9" t="s">
-        <v>1167</v>
+    <row r="80" spans="1:349" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="MJ80" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="MK80" s="1" t="s">
+        <v>1267</v>
       </c>
     </row>
     <row r="81" spans="1:288" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
-        <v>1056</v>
+        <v>1046</v>
       </c>
       <c r="AO81" s="12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="KB81" s="12">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>1057</v>
+        <v>1047</v>
       </c>
       <c r="AO82" s="9" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="KB82" s="9" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="83" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
-        <v>1058</v>
+        <v>1048</v>
       </c>
       <c r="AO83" s="9" t="s">
         <v>1097</v>
@@ -14939,15 +15781,15 @@
     </row>
     <row r="84" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
-        <v>1059</v>
+        <v>1049</v>
       </c>
       <c r="KB84" s="9" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="85" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
-        <v>1060</v>
+        <v>1050</v>
       </c>
       <c r="KB85" s="9" t="s">
         <v>1167</v>
@@ -14955,29 +15797,29 @@
     </row>
     <row r="86" spans="1:288" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
-        <v>1061</v>
+        <v>1051</v>
       </c>
       <c r="AO86" s="12">
+        <v>3</v>
+      </c>
+      <c r="KB86" s="12">
         <v>7</v>
-      </c>
-      <c r="KB86" s="12">
-        <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
-        <v>1062</v>
+        <v>1052</v>
       </c>
       <c r="AO87" s="9" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="KB87" s="9" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="88" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>1063</v>
+        <v>1053</v>
       </c>
       <c r="AO88" s="9" t="s">
         <v>1097</v>
@@ -14988,15 +15830,15 @@
     </row>
     <row r="89" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>1064</v>
+        <v>1054</v>
       </c>
       <c r="KB89" s="9" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="90" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>1065</v>
+        <v>1055</v>
       </c>
       <c r="KB90" s="9" t="s">
         <v>1167</v>
@@ -15004,29 +15846,29 @@
     </row>
     <row r="91" spans="1:288" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
-        <v>1066</v>
+        <v>1056</v>
       </c>
       <c r="AO91" s="12">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="KB91" s="12">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
-        <v>1067</v>
+        <v>1057</v>
       </c>
       <c r="AO92" s="9" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="KB92" s="9" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="93" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
-        <v>1068</v>
+        <v>1058</v>
       </c>
       <c r="AO93" s="9" t="s">
         <v>1097</v>
@@ -15037,15 +15879,15 @@
     </row>
     <row r="94" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="KB94" s="9" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="95" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
-        <v>1070</v>
+        <v>1060</v>
       </c>
       <c r="KB95" s="9" t="s">
         <v>1167</v>
@@ -15053,29 +15895,29 @@
     </row>
     <row r="96" spans="1:288" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
-        <v>1071</v>
+        <v>1061</v>
       </c>
       <c r="AO96" s="12">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="KB96" s="12">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>1072</v>
+        <v>1062</v>
       </c>
       <c r="AO97" s="9" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="KB97" s="9" t="s">
-        <v>1168</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="98" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>1073</v>
+        <v>1063</v>
       </c>
       <c r="AO98" s="9" t="s">
         <v>1097</v>
@@ -15086,15 +15928,15 @@
     </row>
     <row r="99" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>1074</v>
+        <v>1064</v>
       </c>
       <c r="KB99" s="9" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="100" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
-        <v>1075</v>
+        <v>1065</v>
       </c>
       <c r="KB100" s="9" t="s">
         <v>1167</v>
@@ -15102,29 +15944,29 @@
     </row>
     <row r="101" spans="1:288" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="10" t="s">
-        <v>1076</v>
+        <v>1066</v>
       </c>
       <c r="AO101" s="12">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="KB101" s="12">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
-        <v>1077</v>
+        <v>1067</v>
       </c>
       <c r="AO102" s="9" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="KB102" s="9" t="s">
-        <v>1169</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="103" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
-        <v>1078</v>
+        <v>1068</v>
       </c>
       <c r="AO103" s="9" t="s">
         <v>1097</v>
@@ -15135,15 +15977,15 @@
     </row>
     <row r="104" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
-        <v>1079</v>
+        <v>1069</v>
       </c>
       <c r="KB104" s="9" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="105" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
-        <v>1080</v>
+        <v>1070</v>
       </c>
       <c r="KB105" s="9" t="s">
         <v>1167</v>
@@ -15151,29 +15993,29 @@
     </row>
     <row r="106" spans="1:288" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
-        <v>1081</v>
+        <v>1071</v>
       </c>
       <c r="AO106" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="KB106" s="12">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="107" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
-        <v>1082</v>
+        <v>1072</v>
       </c>
       <c r="AO107" s="9" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="KB107" s="9" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="108" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
-        <v>1083</v>
+        <v>1073</v>
       </c>
       <c r="AO108" s="9" t="s">
         <v>1097</v>
@@ -15184,15 +16026,15 @@
     </row>
     <row r="109" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
-        <v>1084</v>
+        <v>1074</v>
       </c>
       <c r="KB109" s="9" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="110" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
-        <v>1085</v>
+        <v>1075</v>
       </c>
       <c r="KB110" s="9" t="s">
         <v>1167</v>
@@ -15200,29 +16042,29 @@
     </row>
     <row r="111" spans="1:288" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
-        <v>1086</v>
+        <v>1076</v>
       </c>
       <c r="AO111" s="12">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="KB111" s="12">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="AO112" s="9" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="KB112" s="9" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="113" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
-        <v>1088</v>
+        <v>1078</v>
       </c>
       <c r="AO113" s="9" t="s">
         <v>1097</v>
@@ -15233,15 +16075,15 @@
     </row>
     <row r="114" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="11" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="KB114" s="9" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="115" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="KB115" s="9" t="s">
         <v>1167</v>
@@ -15249,29 +16091,29 @@
     </row>
     <row r="116" spans="1:288" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
-        <v>1091</v>
+        <v>1081</v>
       </c>
       <c r="AO116" s="12">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="KB116" s="12">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="117" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
-        <v>1092</v>
+        <v>1082</v>
       </c>
       <c r="AO117" s="9" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="KB117" s="9" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="118" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
-        <v>1093</v>
+        <v>1083</v>
       </c>
       <c r="AO118" s="9" t="s">
         <v>1097</v>
@@ -15282,15 +16124,15 @@
     </row>
     <row r="119" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
-        <v>1094</v>
+        <v>1084</v>
       </c>
       <c r="KB119" s="9" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="120" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
-        <v>1095</v>
+        <v>1085</v>
       </c>
       <c r="KB120" s="9" t="s">
         <v>1167</v>
@@ -15298,23 +16140,32 @@
     </row>
     <row r="121" spans="1:288" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
-        <v>1141</v>
+        <v>1086</v>
+      </c>
+      <c r="AO121" s="12">
+        <v>17</v>
       </c>
       <c r="KB121" s="12">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="122" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
-        <v>1142</v>
+        <v>1087</v>
+      </c>
+      <c r="AO122" s="9" t="s">
+        <v>1105</v>
       </c>
       <c r="KB122" s="9" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="123" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
-        <v>1143</v>
+        <v>1088</v>
+      </c>
+      <c r="AO123" s="9" t="s">
+        <v>1097</v>
       </c>
       <c r="KB123" s="9" t="s">
         <v>1097</v>
@@ -15322,15 +16173,15 @@
     </row>
     <row r="124" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
-        <v>1156</v>
+        <v>1089</v>
       </c>
       <c r="KB124" s="9" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="125" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
-        <v>1157</v>
+        <v>1090</v>
       </c>
       <c r="KB125" s="9" t="s">
         <v>1167</v>
@@ -15338,23 +16189,32 @@
     </row>
     <row r="126" spans="1:288" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="10" t="s">
-        <v>1144</v>
+        <v>1091</v>
+      </c>
+      <c r="AO126" s="12">
+        <v>19</v>
       </c>
       <c r="KB126" s="12">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="127" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
-        <v>1145</v>
+        <v>1092</v>
+      </c>
+      <c r="AO127" s="9" t="s">
+        <v>1106</v>
       </c>
       <c r="KB127" s="9" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="128" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
-        <v>1146</v>
+        <v>1093</v>
+      </c>
+      <c r="AO128" s="9" t="s">
+        <v>1097</v>
       </c>
       <c r="KB128" s="9" t="s">
         <v>1097</v>
@@ -15362,15 +16222,15 @@
     </row>
     <row r="129" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
-        <v>1158</v>
+        <v>1094</v>
       </c>
       <c r="KB129" s="9" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="130" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
-        <v>1159</v>
+        <v>1095</v>
       </c>
       <c r="KB130" s="9" t="s">
         <v>1167</v>
@@ -15378,23 +16238,23 @@
     </row>
     <row r="131" spans="1:288" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="10" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
       <c r="KB131" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="132" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
       <c r="KB132" s="9" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="133" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="KB133" s="9" t="s">
         <v>1097</v>
@@ -15402,15 +16262,15 @@
     </row>
     <row r="134" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="11" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="KB134" s="9" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="135" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="11" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="KB135" s="9" t="s">
         <v>1167</v>
@@ -15418,23 +16278,23 @@
     </row>
     <row r="136" spans="1:288" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="10" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="KB136" s="12">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="137" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="11" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="KB137" s="9" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="138" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
       <c r="KB138" s="9" t="s">
         <v>1097</v>
@@ -15442,15 +16302,15 @@
     </row>
     <row r="139" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="11" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="KB139" s="9" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="140" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="11" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="KB140" s="9" t="s">
         <v>1167</v>
@@ -15458,23 +16318,23 @@
     </row>
     <row r="141" spans="1:288" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="10" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
       <c r="KB141" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="142" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
       <c r="KB142" s="9" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="143" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="11" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
       <c r="KB143" s="9" t="s">
         <v>1097</v>
@@ -15482,17 +16342,97 @@
     </row>
     <row r="144" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="11" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="KB144" s="9" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="145" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="11" t="s">
+        <v>1161</v>
+      </c>
+      <c r="KB145" s="9" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="146" spans="1:288" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="10" t="s">
+        <v>1150</v>
+      </c>
+      <c r="KB146" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="147" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="11" t="s">
+        <v>1151</v>
+      </c>
+      <c r="KB147" s="9" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="148" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="11" t="s">
+        <v>1152</v>
+      </c>
+      <c r="KB148" s="9" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="149" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="11" t="s">
+        <v>1162</v>
+      </c>
+      <c r="KB149" s="9" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="150" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="11" t="s">
+        <v>1163</v>
+      </c>
+      <c r="KB150" s="9" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="151" spans="1:288" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="10" t="s">
+        <v>1153</v>
+      </c>
+      <c r="KB151" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="152" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="11" t="s">
+        <v>1154</v>
+      </c>
+      <c r="KB152" s="9" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="153" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="11" t="s">
+        <v>1155</v>
+      </c>
+      <c r="KB153" s="9" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="154" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="11" t="s">
+        <v>1164</v>
+      </c>
+      <c r="KB154" s="9" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="155" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="11" t="s">
         <v>1165</v>
       </c>
-      <c r="KB145" s="9" t="s">
+      <c r="KB155" s="9" t="s">
         <v>1167</v>
       </c>
     </row>
@@ -15500,85 +16440,127 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A62:JS70">
     <sortCondition ref="A62:A70"/>
   </sortState>
-  <conditionalFormatting sqref="LF1:LI1 A1:LD1 LP1 LS1 MA1:XFD1">
-    <cfRule type="duplicateValues" dxfId="44" priority="34"/>
+  <conditionalFormatting sqref="LF1:LI1 A1:LD1 LP1 LS1 MO1:XFD1">
+    <cfRule type="duplicateValues" dxfId="58" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="LE1">
-    <cfRule type="duplicateValues" dxfId="43" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="LN1">
-    <cfRule type="duplicateValues" dxfId="42" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="LO1">
-    <cfRule type="duplicateValues" dxfId="41" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="expression" dxfId="40" priority="30">
+    <cfRule type="expression" dxfId="54" priority="45">
       <formula>(COUNTA(21:21)=1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A71:A120">
-    <cfRule type="expression" dxfId="39" priority="53">
-      <formula>(COUNTA(71:71)=1)</formula>
+  <conditionalFormatting sqref="A81:A130">
+    <cfRule type="expression" dxfId="53" priority="68">
+      <formula>(COUNTA(81:81)=1)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="38" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="69"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A134:A135">
+    <cfRule type="expression" dxfId="51" priority="39">
+      <formula>(COUNTA(134:134)=1)</formula>
+    </cfRule>
+    <cfRule type="duplicateValues" dxfId="50" priority="40"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A139:A140">
+    <cfRule type="expression" dxfId="49" priority="37">
+      <formula>(COUNTA(139:139)=1)</formula>
+    </cfRule>
+    <cfRule type="duplicateValues" dxfId="48" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A144:A145">
+    <cfRule type="expression" dxfId="47" priority="35">
+      <formula>(COUNTA(144:144)=1)</formula>
+    </cfRule>
+    <cfRule type="duplicateValues" dxfId="46" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A149:A150">
+    <cfRule type="expression" dxfId="45" priority="33">
+      <formula>(COUNTA(149:149)=1)</formula>
+    </cfRule>
+    <cfRule type="duplicateValues" dxfId="44" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A154:A155">
+    <cfRule type="expression" dxfId="43" priority="31">
+      <formula>(COUNTA(154:154)=1)</formula>
+    </cfRule>
+    <cfRule type="duplicateValues" dxfId="42" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="LT1">
+    <cfRule type="duplicateValues" dxfId="41" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="LU1">
+    <cfRule type="duplicateValues" dxfId="40" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="LV1">
+    <cfRule type="duplicateValues" dxfId="39" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="LW1">
+    <cfRule type="duplicateValues" dxfId="38" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="LX1">
+    <cfRule type="duplicateValues" dxfId="37" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="LY1">
+    <cfRule type="duplicateValues" dxfId="36" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="LZ1">
+    <cfRule type="duplicateValues" dxfId="35" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="MA1">
+    <cfRule type="duplicateValues" dxfId="34" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="MB1">
+    <cfRule type="duplicateValues" dxfId="33" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="MC1">
+    <cfRule type="duplicateValues" dxfId="32" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="MD1">
+    <cfRule type="duplicateValues" dxfId="31" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="ME1">
+    <cfRule type="duplicateValues" dxfId="30" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="MF1">
+    <cfRule type="duplicateValues" dxfId="29" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="MG1">
+    <cfRule type="duplicateValues" dxfId="28" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="MH1">
+    <cfRule type="duplicateValues" dxfId="27" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="MI1">
+    <cfRule type="duplicateValues" dxfId="26" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="MJ1">
+    <cfRule type="duplicateValues" dxfId="25" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="expression" dxfId="37" priority="26">
+    <cfRule type="expression" dxfId="24" priority="76">
       <formula>(COUNTA(1:1)=1)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="36" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="77"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A124:A125">
-    <cfRule type="expression" dxfId="35" priority="24">
-      <formula>(COUNTA(124:124)=1)</formula>
-    </cfRule>
-    <cfRule type="duplicateValues" dxfId="34" priority="25"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A129:A130">
-    <cfRule type="expression" dxfId="33" priority="22">
-      <formula>(COUNTA(129:129)=1)</formula>
-    </cfRule>
-    <cfRule type="duplicateValues" dxfId="32" priority="23"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A134:A135">
-    <cfRule type="expression" dxfId="31" priority="20">
-      <formula>(COUNTA(134:134)=1)</formula>
-    </cfRule>
-    <cfRule type="duplicateValues" dxfId="30" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A139:A140">
-    <cfRule type="expression" dxfId="29" priority="18">
-      <formula>(COUNTA(139:139)=1)</formula>
-    </cfRule>
-    <cfRule type="duplicateValues" dxfId="28" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A144:A145">
-    <cfRule type="expression" dxfId="27" priority="16">
-      <formula>(COUNTA(144:144)=1)</formula>
-    </cfRule>
-    <cfRule type="duplicateValues" dxfId="26" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="LT1">
-    <cfRule type="duplicateValues" dxfId="25" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="LU1">
-    <cfRule type="duplicateValues" dxfId="24" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="LV1">
-    <cfRule type="duplicateValues" dxfId="23" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="LW1">
+  <conditionalFormatting sqref="MK1">
     <cfRule type="duplicateValues" dxfId="22" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="LX1">
+  <conditionalFormatting sqref="ML1">
     <cfRule type="duplicateValues" dxfId="21" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="LY1">
-    <cfRule type="duplicateValues" dxfId="20" priority="2"/>
+  <conditionalFormatting sqref="MM1">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="LZ1">
-    <cfRule type="duplicateValues" dxfId="19" priority="1"/>
+  <conditionalFormatting sqref="MN1">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -70813,63 +71795,63 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A318:A321 A1:A316 A328 A331">
-    <cfRule type="duplicateValues" dxfId="18" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A317">
-    <cfRule type="duplicateValues" dxfId="17" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A326">
-    <cfRule type="duplicateValues" dxfId="16" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A327">
-    <cfRule type="duplicateValues" dxfId="15" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1">
-    <cfRule type="expression" dxfId="14" priority="13">
+    <cfRule type="expression" dxfId="16" priority="13">
       <formula>(COUNTA(1:1)=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS1:DP1">
-    <cfRule type="expression" dxfId="13" priority="18">
+    <cfRule type="expression" dxfId="15" priority="18">
       <formula>(COUNTA(1:1)=1)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="12" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:EO1">
-    <cfRule type="expression" dxfId="11" priority="11">
+    <cfRule type="expression" dxfId="13" priority="11">
       <formula>(COUNTA(1:1)=1)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="10" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="DT1:DU1">
-    <cfRule type="expression" dxfId="9" priority="9">
+    <cfRule type="expression" dxfId="11" priority="9">
       <formula>(COUNTA(1:1)=1)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="DY1:DZ1">
-    <cfRule type="expression" dxfId="7" priority="7">
+    <cfRule type="expression" dxfId="9" priority="7">
       <formula>(COUNTA(1:1)=1)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="ED1:EE1">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>(COUNTA(1:1)=1)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="EI1:EJ1">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>(COUNTA(1:1)=1)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="EN1:EO1">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>(COUNTA(1:1)=1)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/activities.xlsx
+++ b/activities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eb76e5660c890129/Personal/Projects/Design/PECS/work assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2000" documentId="13_ncr:40009_{E3EB266C-7612-416D-8781-7A2BED99FA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03D3ABFB-1554-44EB-AA3B-4B9764865E94}"/>
+  <xr:revisionPtr revIDLastSave="2058" documentId="13_ncr:40009_{E3EB266C-7612-416D-8781-7A2BED99FA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1C92AB1-474C-4A3F-8FC7-65FA4034CDCE}"/>
   <bookViews>
-    <workbookView xWindow="41175" yWindow="3060" windowWidth="35625" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5370" yWindow="5370" windowWidth="57600" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Work" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3614" uniqueCount="1307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3519" uniqueCount="1314">
   <si>
     <t>name</t>
   </si>
@@ -3789,9 +3789,6 @@
     <t>Necrotic Infusion (Caster)</t>
   </si>
   <si>
-    <t>You can expend a harm or heal spell to channel smite in your spell list.</t>
-  </si>
-  <si>
     <t>You can expend the triggering spell as a counterspell in your spell list.</t>
   </si>
   <si>
@@ -3841,9 +3838,6 @@
     <t>The restorative power of your healing invigorates the recipient. If the next action you use is to cast heal targeting a single living creature and the target regains Hit Points from the spell, it also gains three bonuses until the end of its next turn: a +5-foot status bonus to its Speed, a +1 status bonus to attack rolls, and a +1 status bonus to damage rolls.</t>
   </si>
   <si>
-    <t>Heroic Recovery (Originator)</t>
-  </si>
-  <si>
     <t>Replenishment of War</t>
   </si>
   <si>
@@ -3859,18 +3853,9 @@
     <t>Your faith provides temporary protection in addition to healing. If the next action you use is to cast harm or heal on a single target and the target regains Hit Points from the spell, it also gains a +2 status bonus to AC and saving throws for 1 round.</t>
   </si>
   <si>
-    <t>Defensive Recovery (Originator)</t>
-  </si>
-  <si>
     <t>Replenishment of War (Originator)</t>
   </si>
   <si>
-    <t>Has_Feat(Creature.type, 'Shared Replenishment') ? 1 : 0</t>
-  </si>
-  <si>
-    <t>!Has_Feat(Creature.type, 'Shared Replenishment') ? 1 : 0</t>
-  </si>
-  <si>
     <t>You have a banishment spell prepared.</t>
   </si>
   <si>
@@ -3892,9 +3877,6 @@
     <t>Eternal Bane Dismissed</t>
   </si>
   <si>
-    <t>Until you have the Shared Replenishment feat, activating Replenishment of War will only affect yourself regardless of the selected target.</t>
-  </si>
-  <si>
     <t>Dismiss Eternal Blessing</t>
   </si>
   <si>
@@ -3925,16 +3907,10 @@
     <t>Echoing Channel</t>
   </si>
   <si>
-    <t>When you pull forth positive or negative energy, you also create a smaller pocket of that energy. If the next action you use is to cast a 2-action harm or heal to heal or damage a single creature, choose one additional creature adjacent to either you or the target. Target that creature with a 1-action version of the same spell. This spell is the same level as the 2-action harm or heal you cast and doesn’t cost another spell slot.</t>
-  </si>
-  <si>
     <t>In play, you can choose one additional creature to apply the effect. There is no change to the spell you cast.</t>
   </si>
   <si>
     <t>three times a day</t>
-  </si>
-  <si>
-    <t>Dance of Intercesion</t>
   </si>
   <si>
     <t>You either performed in or stood witness to the dance used to invoke the Celestial Dragon and can harness a sliver of their power. You Stride in a dance up to half your Speed, attempting a DC 35 Performance check. You can perform this dance up to three times per day. The second time you do so in the same day, use the degree of success one worse than your actual roll on the Performance check. The third time in a day, use the degree of success two lower than your actual roll.</t>
@@ -4079,6 +4055,57 @@
   </si>
   <si>
     <t>Shared Replenishment</t>
+  </si>
+  <si>
+    <t>Until you have the Shared Replenishment feat, you should only target yourself with Replenishment of War.</t>
+  </si>
+  <si>
+    <t>Draconic Barrage Energy Missile</t>
+  </si>
+  <si>
+    <t>You have shaped energy into &lt;var&gt;var1&lt;/var&gt;. The specific dragon is random; roll 1d6 on the table below for each dragon evoked to determine which type of dragon you create. While the spell persists, you can command one of your dragons to spit a missile of energy at a creature within 60 feet by using a single action, which has the concentrate trait. This is a ranged Strike that uses your spell attack bonus and deals |dice=var2 + spellMod| &lt;var&gt;var2&lt;/var&gt; damage plus your spellcasting ability modifier, with the damage type depending on the dragon. A dragon's breath Strike uses and contributes to your multiple attack penalty. Once a dragon has used its breath Strike, it winks out of existence; when you have no dragons remaining, the spell ends.
+&lt;strong&gt;1&lt;/strong&gt; Copper or black dragon, Acid breath
+&lt;strong&gt;2&lt;/strong&gt; Silver or white dragon, Cold breath
+&lt;strong&gt;3&lt;/strong&gt; Bronze or blue dragon, Electricity breath
+&lt;strong&gt;4&lt;/strong&gt; Brass, gold, or red dragon, Fire breath
+&lt;strong&gt;5&lt;/strong&gt; Green Dragon, Poison breath
+&lt;strong&gt;6&lt;/strong&gt; Your choice of dragon, breath type as the dragon</t>
+  </si>
+  <si>
+    <t>one incorporeal tiny dragon (or serpentine creature) that flits around you.</t>
+  </si>
+  <si>
+    <t>two incorporeal tiny dragons (or serpentine creatures) that flit around you.</t>
+  </si>
+  <si>
+    <t>three incorporeal tiny dragons (or serpentine creatures) that flit around you.</t>
+  </si>
+  <si>
+    <t>four incorporeal tiny dragons (or serpentine creatures) that flit around you.</t>
+  </si>
+  <si>
+    <t>five incorporeal tiny dragons (or serpentine creatures) that flit around you.</t>
+  </si>
+  <si>
+    <t>six incorporeal tiny dragons (or serpentine creatures) that flit around you.</t>
+  </si>
+  <si>
+    <t>seven incorporeal tiny dragons (or serpentine creatures) that flit around you.</t>
+  </si>
+  <si>
+    <t>eight incorporeal tiny dragons (or serpentine creatures) that flit around you.</t>
+  </si>
+  <si>
+    <t>nine incorporeal tiny dragons (or serpentine creatures) that flit around you.</t>
+  </si>
+  <si>
+    <t>ten incorporeal tiny dragons (or serpentine creatures) that flit around you.</t>
+  </si>
+  <si>
+    <t>Vibrant Thorns: Positive Spell Cast</t>
+  </si>
+  <si>
+    <t>Anytime you cast a positive spell, the damage from Vibrant Thorns increases to |dice=var2 P| &lt;var&gt;var2&lt;/var&gt; until the start of your next turn.</t>
   </si>
 </sst>
 </file>
@@ -4562,7 +4589,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="19" applyAlignment="1"/>
@@ -4576,9 +4603,6 @@
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="24"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="23"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="24" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4624,57 +4648,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="53">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="40">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4688,167 +4662,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor theme="9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4965,9 +4786,70 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5417,23 +5299,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:MN158"/>
+  <dimension ref="A1:MP158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="LX14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="MH113" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="MB33" sqref="MB33"/>
+      <selection pane="bottomRight" activeCell="MP131" sqref="MP131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="352" width="27.42578125" style="1" customWidth="1"/>
-    <col min="353" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="354" width="27.42578125" style="1" customWidth="1"/>
+    <col min="355" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:352" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:354" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6440,58 +6322,64 @@
         <v>1209</v>
       </c>
       <c r="LX1" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="LY1" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="LZ1" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="MA1" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="MB1" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="MC1" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="MD1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="ME1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="MF1" t="s">
         <v>1241</v>
       </c>
-      <c r="ME1" t="s">
-        <v>1243</v>
-      </c>
-      <c r="MF1" t="s">
-        <v>1247</v>
-      </c>
       <c r="MG1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="MH1" t="s">
         <v>1246</v>
       </c>
-      <c r="MH1" t="s">
-        <v>1252</v>
-      </c>
       <c r="MI1" t="s">
-        <v>1255</v>
+        <v>1249</v>
       </c>
       <c r="MJ1" t="s">
-        <v>1291</v>
+        <v>1283</v>
       </c>
       <c r="MK1" t="s">
-        <v>1292</v>
+        <v>1284</v>
       </c>
       <c r="ML1" t="s">
-        <v>1282</v>
+        <v>1274</v>
       </c>
       <c r="MM1" t="s">
-        <v>1284</v>
+        <v>1276</v>
       </c>
       <c r="MN1" t="s">
-        <v>1285</v>
+        <v>1277</v>
+      </c>
+      <c r="MO1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="MP1" t="s">
+        <v>1312</v>
       </c>
     </row>
-    <row r="2" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:354" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -7524,8 +7412,11 @@
       <c r="MM2" s="1" t="s">
         <v>198</v>
       </c>
+      <c r="MO2" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="3" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:354" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -7650,7 +7541,7 @@
         <v>1006</v>
       </c>
       <c r="GX3" s="1" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="HB3" s="1" t="s">
         <v>1007</v>
@@ -7704,7 +7595,7 @@
         <v>1016</v>
       </c>
       <c r="LO3" s="1" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="LP3" s="1" t="s">
         <v>979</v>
@@ -7713,40 +7604,40 @@
         <v>985</v>
       </c>
       <c r="LU3" s="1" t="s">
-        <v>1293</v>
+        <v>1285</v>
       </c>
       <c r="LV3" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="LW3" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="LX3" s="1" t="s">
         <v>1220</v>
       </c>
-      <c r="LW3" s="1" t="s">
+      <c r="MA3" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="MB3" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="MC3" s="1" t="s">
         <v>1220</v>
       </c>
-      <c r="LX3" s="1" t="s">
-        <v>1221</v>
-      </c>
-      <c r="MA3" s="1" t="s">
-        <v>1226</v>
-      </c>
-      <c r="MB3" s="1" t="s">
-        <v>1245</v>
-      </c>
-      <c r="MC3" s="1" t="s">
-        <v>1221</v>
-      </c>
       <c r="MD3" s="1" t="s">
-        <v>1281</v>
+        <v>1273</v>
       </c>
       <c r="MI3" s="1" t="s">
-        <v>1257</v>
+        <v>1250</v>
       </c>
       <c r="MK3" s="1" t="s">
-        <v>1280</v>
+        <v>1272</v>
       </c>
       <c r="MM3" s="1" t="s">
-        <v>1290</v>
+        <v>1282</v>
       </c>
     </row>
-    <row r="4" spans="1:352" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:354" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -8744,10 +8635,13 @@
         <v>321</v>
       </c>
       <c r="MM4" s="2" t="s">
-        <v>1287</v>
+        <v>1279</v>
+      </c>
+      <c r="MO4" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:352" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:354" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -9444,8 +9338,11 @@
       <c r="ML5" s="2" t="s">
         <v>144</v>
       </c>
+      <c r="MO5" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
-    <row r="6" spans="1:352" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:354" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -9813,7 +9710,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="7" spans="1:352" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:354" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -10052,7 +9949,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="8" spans="1:352" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:354" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -10198,7 +10095,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:352" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:354" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>34</v>
       </c>
@@ -10224,7 +10121,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="10" spans="1:352" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:354" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>37</v>
       </c>
@@ -10238,7 +10135,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="11" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:354" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -10537,13 +10434,13 @@
         <v>976</v>
       </c>
       <c r="MD11" s="1" t="s">
-        <v>1238</v>
+        <v>1233</v>
       </c>
       <c r="MK11" s="1" t="s">
-        <v>1277</v>
+        <v>1269</v>
       </c>
     </row>
-    <row r="12" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:354" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -10767,16 +10664,16 @@
         <v>983</v>
       </c>
       <c r="LY12" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="MD12" s="1" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
       <c r="MK12" s="1" t="s">
-        <v>1278</v>
+        <v>1270</v>
       </c>
     </row>
-    <row r="13" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:354" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -10931,12 +10828,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:354" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="15" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:354" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>48</v>
       </c>
@@ -10950,7 +10847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:354" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -10961,7 +10858,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="17" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:354" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -11078,13 +10975,13 @@
         <v>123</v>
       </c>
       <c r="MJ17" s="1" t="s">
-        <v>1258</v>
+        <v>1251</v>
       </c>
       <c r="MN17" s="1" t="s">
-        <v>1289</v>
+        <v>1281</v>
       </c>
     </row>
-    <row r="18" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:354" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -11218,7 +11115,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:354" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -11229,7 +11126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:354" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -11279,7 +11176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:354" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1017</v>
       </c>
@@ -11299,7 +11196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:354" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>1015</v>
       </c>
@@ -12356,8 +12253,14 @@
       <c r="MN22" s="1" t="s">
         <v>998</v>
       </c>
+      <c r="MO22" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="MP22" s="1" t="s">
+        <v>998</v>
+      </c>
     </row>
-    <row r="23" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:354" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>1031</v>
       </c>
@@ -12389,7 +12292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:354" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>1187</v>
       </c>
@@ -12481,10 +12384,10 @@
         <v>1193</v>
       </c>
       <c r="MB24" s="1" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
-    <row r="25" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:354" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>2</v>
       </c>
@@ -13485,64 +13388,70 @@
         <v>1206</v>
       </c>
       <c r="LV25" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="LW25" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="LX25" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="LY25" s="1" t="s">
         <v>1218</v>
       </c>
-      <c r="LW25" s="1" t="s">
-        <v>1302</v>
-      </c>
-      <c r="LX25" s="1" t="s">
-        <v>1217</v>
-      </c>
-      <c r="LY25" s="1" t="s">
-        <v>1219</v>
-      </c>
       <c r="LZ25" s="1" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="MA25" s="1" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="MB25" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="MC25" s="1" t="s">
         <v>1231</v>
       </c>
-      <c r="MC25" s="1" t="s">
-        <v>1233</v>
-      </c>
       <c r="MD25" s="1" t="s">
-        <v>1240</v>
+        <v>1235</v>
       </c>
       <c r="ME25" s="1" t="s">
-        <v>1250</v>
+        <v>1244</v>
       </c>
       <c r="MF25" s="1" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
       <c r="MG25" s="1" t="s">
-        <v>1251</v>
+        <v>1245</v>
       </c>
       <c r="MH25" s="1" t="s">
-        <v>1253</v>
+        <v>1247</v>
       </c>
       <c r="MI25" s="1" t="s">
-        <v>1298</v>
+        <v>1290</v>
       </c>
       <c r="MJ25" s="1" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
       <c r="MK25" s="1" t="s">
-        <v>1279</v>
+        <v>1271</v>
       </c>
       <c r="ML25" s="1" t="s">
-        <v>1283</v>
+        <v>1275</v>
       </c>
       <c r="MM25" s="1" t="s">
-        <v>1286</v>
-      </c>
-      <c r="MN25" s="13" t="s">
-        <v>1288</v>
+        <v>1278</v>
+      </c>
+      <c r="MN25" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="MO25" s="1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="MP25" s="1" t="s">
+        <v>1313</v>
       </c>
     </row>
-    <row r="26" spans="1:352" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:354" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
@@ -13559,7 +13468,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="27" spans="1:352" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:354" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>14</v>
       </c>
@@ -13606,13 +13515,13 @@
         <v>764</v>
       </c>
       <c r="LV27" s="3" t="s">
-        <v>1299</v>
+        <v>1291</v>
       </c>
       <c r="MJ27" s="3" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
     </row>
-    <row r="28" spans="1:352" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:354" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>15</v>
       </c>
@@ -13671,10 +13580,10 @@
         <v>227</v>
       </c>
       <c r="MJ28" s="3" t="s">
-        <v>1262</v>
+        <v>1254</v>
       </c>
     </row>
-    <row r="29" spans="1:352" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:354" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>16</v>
       </c>
@@ -13736,13 +13645,13 @@
         <v>684</v>
       </c>
       <c r="LV29" s="3" t="s">
-        <v>1300</v>
+        <v>1292</v>
       </c>
       <c r="MJ29" s="3" t="s">
-        <v>1263</v>
+        <v>1255</v>
       </c>
     </row>
-    <row r="30" spans="1:352" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:354" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>17</v>
       </c>
@@ -13789,13 +13698,13 @@
         <v>766</v>
       </c>
       <c r="LV30" s="3" t="s">
-        <v>1301</v>
+        <v>1293</v>
       </c>
       <c r="MJ30" s="3" t="s">
-        <v>1264</v>
+        <v>1256</v>
       </c>
     </row>
-    <row r="31" spans="1:352" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>1005</v>
       </c>
@@ -13815,23 +13724,23 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:352" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>1304</v>
+        <v>1296</v>
       </c>
       <c r="MB32" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:351" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>1305</v>
+        <v>1297</v>
       </c>
       <c r="MB33" s="9" t="s">
-        <v>1306</v>
+        <v>1298</v>
       </c>
     </row>
-    <row r="34" spans="1:351" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:354" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>25</v>
       </c>
@@ -13842,7 +13751,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="35" spans="1:351" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:354" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>22</v>
       </c>
@@ -13853,12 +13762,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:351" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:354" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="37" spans="1:351" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:354" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>996</v>
       </c>
@@ -13866,12 +13775,12 @@
         <v>994</v>
       </c>
     </row>
-    <row r="38" spans="1:351" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:354" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="39" spans="1:351" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:354" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>7</v>
       </c>
@@ -14229,8 +14138,14 @@
       <c r="MM39" s="4">
         <v>-1</v>
       </c>
+      <c r="MO39" s="4">
+        <v>0</v>
+      </c>
+      <c r="MP39" s="4">
+        <v>10</v>
+      </c>
     </row>
-    <row r="40" spans="1:351" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:354" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>995</v>
       </c>
@@ -14238,7 +14153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:351" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:354" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>8</v>
       </c>
@@ -14582,46 +14497,52 @@
         <v>1210</v>
       </c>
       <c r="LX41" s="4" t="s">
+        <v>1213</v>
+      </c>
+      <c r="LY41" s="4" t="s">
         <v>1214</v>
       </c>
-      <c r="LY41" s="4" t="s">
-        <v>1215</v>
-      </c>
       <c r="LZ41" s="4" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="MA41" s="4" t="s">
-        <v>1294</v>
+        <v>1286</v>
       </c>
       <c r="MB41" s="4" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="MC41" s="4" t="s">
-        <v>1295</v>
+        <v>1287</v>
       </c>
       <c r="MD41" s="4" t="s">
+        <v>1237</v>
+      </c>
+      <c r="ME41" s="4" t="s">
+        <v>1239</v>
+      </c>
+      <c r="MF41" s="4" t="s">
         <v>1242</v>
       </c>
-      <c r="ME41" s="4" t="s">
-        <v>1244</v>
-      </c>
-      <c r="MF41" s="4" t="s">
+      <c r="MG41" s="4" t="s">
+        <v>1289</v>
+      </c>
+      <c r="MH41" s="4" t="s">
         <v>1248</v>
       </c>
-      <c r="MG41" s="4" t="s">
-        <v>1297</v>
-      </c>
-      <c r="MH41" s="4" t="s">
-        <v>1254</v>
-      </c>
       <c r="MJ41" s="4" t="s">
-        <v>1291</v>
+        <v>1283</v>
       </c>
       <c r="MM41" s="4" t="s">
-        <v>1284</v>
+        <v>1276</v>
+      </c>
+      <c r="MO41" s="4" t="s">
+        <v>1300</v>
+      </c>
+      <c r="MP41" s="4" t="s">
+        <v>1312</v>
       </c>
     </row>
-    <row r="42" spans="1:351" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:354" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>9</v>
       </c>
@@ -14962,46 +14883,52 @@
         <v>1209</v>
       </c>
       <c r="LX42" s="4" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="LY42" s="4" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="LZ42" s="4" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="MA42" s="4" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="MB42" s="4" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="MC42" s="4" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="MD42" s="4" t="s">
+        <v>1236</v>
+      </c>
+      <c r="ME42" s="4" t="s">
+        <v>1238</v>
+      </c>
+      <c r="MF42" s="4" t="s">
         <v>1241</v>
       </c>
-      <c r="ME42" s="4" t="s">
-        <v>1243</v>
-      </c>
-      <c r="MF42" s="4" t="s">
-        <v>1247</v>
-      </c>
       <c r="MG42" s="4" t="s">
+        <v>1240</v>
+      </c>
+      <c r="MH42" s="4" t="s">
         <v>1246</v>
       </c>
-      <c r="MH42" s="4" t="s">
-        <v>1252</v>
-      </c>
       <c r="MJ42" s="4" t="s">
-        <v>1291</v>
+        <v>1283</v>
       </c>
       <c r="MM42" s="4" t="s">
-        <v>1284</v>
+        <v>1276</v>
+      </c>
+      <c r="MO42" s="4" t="s">
+        <v>1300</v>
+      </c>
+      <c r="MP42" s="4" t="s">
+        <v>1312</v>
       </c>
     </row>
-    <row r="43" spans="1:351" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:354" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>1013</v>
       </c>
@@ -15099,7 +15026,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="44" spans="1:351" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:354" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>992</v>
       </c>
@@ -15107,7 +15034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:351" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:354" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>29</v>
       </c>
@@ -15115,17 +15042,17 @@
         <v>191</v>
       </c>
     </row>
-    <row r="46" spans="1:351" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:354" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="47" spans="1:351" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:354" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="48" spans="1:351" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:354" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>1020</v>
       </c>
@@ -15147,13 +15074,13 @@
         <v>1210</v>
       </c>
       <c r="LZ49" s="4" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="MB49" s="4" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="MC49" s="4" t="s">
-        <v>1295</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="50" spans="1:346" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -15241,19 +15168,19 @@
         <v>1209</v>
       </c>
       <c r="LZ51" s="4" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="MA51" s="4" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="MB51" s="4" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="MC51" s="4" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="MH51" s="4" t="s">
-        <v>1252</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="52" spans="1:346" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -15300,19 +15227,19 @@
         <v>1209</v>
       </c>
       <c r="LZ52" s="4" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="MA52" s="4" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="MB52" s="4" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="MC52" s="4" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="MH52" s="4" t="s">
-        <v>1252</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="53" spans="1:346" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -15399,7 +15326,7 @@
     </row>
     <row r="58" spans="1:346" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>1303</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="59" spans="1:346" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -15627,15 +15554,15 @@
         <v>968</v>
       </c>
       <c r="MD73" s="1" t="s">
-        <v>1296</v>
+        <v>1288</v>
       </c>
       <c r="MJ73" s="1" t="s">
-        <v>1272</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="74" spans="1:348" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>1266</v>
+        <v>1258</v>
       </c>
       <c r="MJ74" s="1">
         <v>9</v>
@@ -15643,15 +15570,15 @@
     </row>
     <row r="75" spans="1:348" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>1267</v>
+        <v>1259</v>
       </c>
       <c r="MJ75" s="1" t="s">
-        <v>1265</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="76" spans="1:348" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>1268</v>
+        <v>1260</v>
       </c>
       <c r="MJ76" s="1">
         <v>7</v>
@@ -15659,15 +15586,15 @@
     </row>
     <row r="77" spans="1:348" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>1269</v>
+        <v>1261</v>
       </c>
       <c r="MJ77" s="1" t="s">
-        <v>1272</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="78" spans="1:348" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>1270</v>
+        <v>1262</v>
       </c>
       <c r="MJ78" s="1">
         <v>7</v>
@@ -15675,45 +15602,45 @@
     </row>
     <row r="79" spans="1:348" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>1271</v>
+        <v>1263</v>
       </c>
       <c r="MJ79" s="1" t="s">
-        <v>1265</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="80" spans="1:348" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>1273</v>
+        <v>1265</v>
       </c>
       <c r="MJ80" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:348" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:354" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>1274</v>
+        <v>1266</v>
       </c>
       <c r="MJ81" s="1" t="s">
-        <v>1272</v>
+        <v>1264</v>
       </c>
     </row>
-    <row r="82" spans="1:348" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:354" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>1275</v>
+        <v>1267</v>
       </c>
       <c r="MJ82" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:348" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:354" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>1276</v>
+        <v>1268</v>
       </c>
       <c r="MJ83" s="1" t="s">
-        <v>1265</v>
+        <v>1257</v>
       </c>
     </row>
-    <row r="84" spans="1:348" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:354" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
         <v>1044</v>
       </c>
@@ -15723,8 +15650,14 @@
       <c r="KB84" s="12">
         <v>6</v>
       </c>
+      <c r="MO84" s="10">
+        <v>1</v>
+      </c>
+      <c r="MP84" s="12">
+        <v>1</v>
+      </c>
     </row>
-    <row r="85" spans="1:348" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
         <v>1045</v>
       </c>
@@ -15734,8 +15667,14 @@
       <c r="KB85" s="9" t="s">
         <v>1100</v>
       </c>
+      <c r="MO85" s="11" t="s">
+        <v>1302</v>
+      </c>
+      <c r="MP85" s="9" t="s">
+        <v>1094</v>
+      </c>
     </row>
-    <row r="86" spans="1:348" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
         <v>1046</v>
       </c>
@@ -15745,24 +15684,36 @@
       <c r="KB86" s="9" t="s">
         <v>1095</v>
       </c>
+      <c r="MO86" s="11" t="s">
+        <v>1095</v>
+      </c>
+      <c r="MP86" s="9" t="s">
+        <v>1165</v>
+      </c>
     </row>
-    <row r="87" spans="1:348" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
         <v>1047</v>
       </c>
       <c r="KB87" s="9" t="s">
         <v>1097</v>
       </c>
+      <c r="MO87" s="11" t="s">
+        <v>1094</v>
+      </c>
     </row>
-    <row r="88" spans="1:348" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
         <v>1048</v>
       </c>
       <c r="KB88" s="9" t="s">
         <v>1165</v>
       </c>
+      <c r="MO88" s="11" t="s">
+        <v>1165</v>
+      </c>
     </row>
-    <row r="89" spans="1:348" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:354" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
         <v>1049</v>
       </c>
@@ -15772,8 +15723,14 @@
       <c r="KB89" s="12">
         <v>7</v>
       </c>
+      <c r="MO89" s="10">
+        <v>2</v>
+      </c>
+      <c r="MP89" s="12">
+        <v>2</v>
+      </c>
     </row>
-    <row r="90" spans="1:348" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
         <v>1050</v>
       </c>
@@ -15783,8 +15740,14 @@
       <c r="KB90" s="9" t="s">
         <v>1101</v>
       </c>
+      <c r="MO90" s="11" t="s">
+        <v>1303</v>
+      </c>
+      <c r="MP90" s="9" t="s">
+        <v>1096</v>
+      </c>
     </row>
-    <row r="91" spans="1:348" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
         <v>1051</v>
       </c>
@@ -15794,24 +15757,36 @@
       <c r="KB91" s="9" t="s">
         <v>1095</v>
       </c>
+      <c r="MO91" s="11" t="s">
+        <v>1095</v>
+      </c>
+      <c r="MP91" s="9" t="s">
+        <v>1165</v>
+      </c>
     </row>
-    <row r="92" spans="1:348" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
         <v>1052</v>
       </c>
       <c r="KB92" s="9" t="s">
         <v>1097</v>
       </c>
+      <c r="MO92" s="11" t="s">
+        <v>1096</v>
+      </c>
     </row>
-    <row r="93" spans="1:348" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
         <v>1053</v>
       </c>
       <c r="KB93" s="9" t="s">
         <v>1165</v>
       </c>
+      <c r="MO93" s="11" t="s">
+        <v>1165</v>
+      </c>
     </row>
-    <row r="94" spans="1:348" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:354" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
         <v>1054</v>
       </c>
@@ -15821,8 +15796,14 @@
       <c r="KB94" s="12">
         <v>8</v>
       </c>
+      <c r="MO94" s="10">
+        <v>3</v>
+      </c>
+      <c r="MP94" s="12">
+        <v>3</v>
+      </c>
     </row>
-    <row r="95" spans="1:348" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
         <v>1055</v>
       </c>
@@ -15832,8 +15813,14 @@
       <c r="KB95" s="9" t="s">
         <v>1102</v>
       </c>
+      <c r="MO95" s="11" t="s">
+        <v>1304</v>
+      </c>
+      <c r="MP95" s="9" t="s">
+        <v>1097</v>
+      </c>
     </row>
-    <row r="96" spans="1:348" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
         <v>1056</v>
       </c>
@@ -15843,24 +15830,36 @@
       <c r="KB96" s="9" t="s">
         <v>1095</v>
       </c>
+      <c r="MO96" s="11" t="s">
+        <v>1095</v>
+      </c>
+      <c r="MP96" s="9" t="s">
+        <v>1165</v>
+      </c>
     </row>
-    <row r="97" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
         <v>1057</v>
       </c>
       <c r="KB97" s="9" t="s">
         <v>1098</v>
       </c>
+      <c r="MO97" s="11" t="s">
+        <v>1097</v>
+      </c>
     </row>
-    <row r="98" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
         <v>1058</v>
       </c>
       <c r="KB98" s="9" t="s">
         <v>1165</v>
       </c>
+      <c r="MO98" s="11" t="s">
+        <v>1165</v>
+      </c>
     </row>
-    <row r="99" spans="1:288" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:354" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
         <v>1059</v>
       </c>
@@ -15870,8 +15869,14 @@
       <c r="KB99" s="12">
         <v>9</v>
       </c>
+      <c r="MO99" s="10">
+        <v>4</v>
+      </c>
+      <c r="MP99" s="12">
+        <v>4</v>
+      </c>
     </row>
-    <row r="100" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
         <v>1060</v>
       </c>
@@ -15881,8 +15886,14 @@
       <c r="KB100" s="9" t="s">
         <v>1103</v>
       </c>
+      <c r="MO100" s="11" t="s">
+        <v>1305</v>
+      </c>
+      <c r="MP100" s="9" t="s">
+        <v>1098</v>
+      </c>
     </row>
-    <row r="101" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
         <v>1061</v>
       </c>
@@ -15892,24 +15903,36 @@
       <c r="KB101" s="9" t="s">
         <v>1095</v>
       </c>
+      <c r="MO101" s="11" t="s">
+        <v>1095</v>
+      </c>
+      <c r="MP101" s="9" t="s">
+        <v>1165</v>
+      </c>
     </row>
-    <row r="102" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
         <v>1062</v>
       </c>
       <c r="KB102" s="9" t="s">
         <v>1098</v>
       </c>
+      <c r="MO102" s="11" t="s">
+        <v>1098</v>
+      </c>
     </row>
-    <row r="103" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
         <v>1063</v>
       </c>
       <c r="KB103" s="9" t="s">
         <v>1165</v>
       </c>
+      <c r="MO103" s="11" t="s">
+        <v>1165</v>
+      </c>
     </row>
-    <row r="104" spans="1:288" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:354" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
         <v>1064</v>
       </c>
@@ -15919,8 +15942,14 @@
       <c r="KB104" s="12">
         <v>10</v>
       </c>
+      <c r="MO104" s="10">
+        <v>5</v>
+      </c>
+      <c r="MP104" s="12">
+        <v>5</v>
+      </c>
     </row>
-    <row r="105" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
         <v>1065</v>
       </c>
@@ -15930,8 +15959,14 @@
       <c r="KB105" s="9" t="s">
         <v>1104</v>
       </c>
+      <c r="MO105" s="11" t="s">
+        <v>1306</v>
+      </c>
+      <c r="MP105" s="9" t="s">
+        <v>1099</v>
+      </c>
     </row>
-    <row r="106" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
         <v>1066</v>
       </c>
@@ -15941,24 +15976,36 @@
       <c r="KB106" s="9" t="s">
         <v>1095</v>
       </c>
+      <c r="MO106" s="11" t="s">
+        <v>1095</v>
+      </c>
+      <c r="MP106" s="9" t="s">
+        <v>1165</v>
+      </c>
     </row>
-    <row r="107" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
         <v>1067</v>
       </c>
       <c r="KB107" s="9" t="s">
         <v>1099</v>
       </c>
+      <c r="MO107" s="11" t="s">
+        <v>1099</v>
+      </c>
     </row>
-    <row r="108" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
         <v>1068</v>
       </c>
       <c r="KB108" s="9" t="s">
         <v>1165</v>
       </c>
+      <c r="MO108" s="11" t="s">
+        <v>1165</v>
+      </c>
     </row>
-    <row r="109" spans="1:288" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:354" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
         <v>1069</v>
       </c>
@@ -15968,8 +16015,14 @@
       <c r="KB109" s="12">
         <v>11</v>
       </c>
+      <c r="MO109" s="10">
+        <v>6</v>
+      </c>
+      <c r="MP109" s="12">
+        <v>6</v>
+      </c>
     </row>
-    <row r="110" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
         <v>1070</v>
       </c>
@@ -15979,8 +16032,14 @@
       <c r="KB110" s="9" t="s">
         <v>1166</v>
       </c>
+      <c r="MO110" s="11" t="s">
+        <v>1307</v>
+      </c>
+      <c r="MP110" s="9" t="s">
+        <v>1100</v>
+      </c>
     </row>
-    <row r="111" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
         <v>1071</v>
       </c>
@@ -15990,24 +16049,36 @@
       <c r="KB111" s="9" t="s">
         <v>1095</v>
       </c>
+      <c r="MO111" s="11" t="s">
+        <v>1095</v>
+      </c>
+      <c r="MP111" s="9" t="s">
+        <v>1165</v>
+      </c>
     </row>
-    <row r="112" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
         <v>1072</v>
       </c>
       <c r="KB112" s="9" t="s">
         <v>1099</v>
       </c>
+      <c r="MO112" s="11" t="s">
+        <v>1100</v>
+      </c>
     </row>
-    <row r="113" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
         <v>1073</v>
       </c>
       <c r="KB113" s="9" t="s">
         <v>1165</v>
       </c>
+      <c r="MO113" s="11" t="s">
+        <v>1165</v>
+      </c>
     </row>
-    <row r="114" spans="1:288" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:354" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
         <v>1074</v>
       </c>
@@ -16017,8 +16088,14 @@
       <c r="KB114" s="12">
         <v>12</v>
       </c>
+      <c r="MO114" s="10">
+        <v>7</v>
+      </c>
+      <c r="MP114" s="12">
+        <v>7</v>
+      </c>
     </row>
-    <row r="115" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
         <v>1075</v>
       </c>
@@ -16028,8 +16105,14 @@
       <c r="KB115" s="9" t="s">
         <v>1167</v>
       </c>
+      <c r="MO115" s="11" t="s">
+        <v>1308</v>
+      </c>
+      <c r="MP115" s="9" t="s">
+        <v>1101</v>
+      </c>
     </row>
-    <row r="116" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
         <v>1076</v>
       </c>
@@ -16039,24 +16122,36 @@
       <c r="KB116" s="9" t="s">
         <v>1095</v>
       </c>
+      <c r="MO116" s="11" t="s">
+        <v>1095</v>
+      </c>
+      <c r="MP116" s="9" t="s">
+        <v>1165</v>
+      </c>
     </row>
-    <row r="117" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
         <v>1077</v>
       </c>
       <c r="KB117" s="9" t="s">
         <v>1100</v>
       </c>
+      <c r="MO117" s="11" t="s">
+        <v>1101</v>
+      </c>
     </row>
-    <row r="118" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
         <v>1078</v>
       </c>
       <c r="KB118" s="9" t="s">
         <v>1165</v>
       </c>
+      <c r="MO118" s="11" t="s">
+        <v>1165</v>
+      </c>
     </row>
-    <row r="119" spans="1:288" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:354" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
         <v>1079</v>
       </c>
@@ -16066,8 +16161,14 @@
       <c r="KB119" s="12">
         <v>13</v>
       </c>
+      <c r="MO119" s="10">
+        <v>8</v>
+      </c>
+      <c r="MP119" s="12">
+        <v>8</v>
+      </c>
     </row>
-    <row r="120" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
         <v>1080</v>
       </c>
@@ -16077,8 +16178,14 @@
       <c r="KB120" s="9" t="s">
         <v>1168</v>
       </c>
+      <c r="MO120" s="11" t="s">
+        <v>1309</v>
+      </c>
+      <c r="MP120" s="9" t="s">
+        <v>1102</v>
+      </c>
     </row>
-    <row r="121" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
         <v>1081</v>
       </c>
@@ -16088,24 +16195,36 @@
       <c r="KB121" s="9" t="s">
         <v>1095</v>
       </c>
+      <c r="MO121" s="11" t="s">
+        <v>1095</v>
+      </c>
+      <c r="MP121" s="9" t="s">
+        <v>1165</v>
+      </c>
     </row>
-    <row r="122" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
         <v>1082</v>
       </c>
       <c r="KB122" s="9" t="s">
         <v>1100</v>
       </c>
+      <c r="MO122" s="11" t="s">
+        <v>1102</v>
+      </c>
     </row>
-    <row r="123" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
         <v>1083</v>
       </c>
       <c r="KB123" s="9" t="s">
         <v>1165</v>
       </c>
+      <c r="MO123" s="11" t="s">
+        <v>1165</v>
+      </c>
     </row>
-    <row r="124" spans="1:288" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:354" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="10" t="s">
         <v>1084</v>
       </c>
@@ -16115,8 +16234,14 @@
       <c r="KB124" s="12">
         <v>14</v>
       </c>
+      <c r="MO124" s="10">
+        <v>9</v>
+      </c>
+      <c r="MP124" s="12">
+        <v>9</v>
+      </c>
     </row>
-    <row r="125" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
         <v>1085</v>
       </c>
@@ -16126,8 +16251,14 @@
       <c r="KB125" s="9" t="s">
         <v>1169</v>
       </c>
+      <c r="MO125" s="11" t="s">
+        <v>1310</v>
+      </c>
+      <c r="MP125" s="9" t="s">
+        <v>1103</v>
+      </c>
     </row>
-    <row r="126" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
         <v>1086</v>
       </c>
@@ -16137,24 +16268,36 @@
       <c r="KB126" s="9" t="s">
         <v>1095</v>
       </c>
+      <c r="MO126" s="11" t="s">
+        <v>1095</v>
+      </c>
+      <c r="MP126" s="9" t="s">
+        <v>1165</v>
+      </c>
     </row>
-    <row r="127" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
         <v>1087</v>
       </c>
       <c r="KB127" s="9" t="s">
         <v>1101</v>
       </c>
+      <c r="MO127" s="11" t="s">
+        <v>1103</v>
+      </c>
     </row>
-    <row r="128" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
         <v>1088</v>
       </c>
       <c r="KB128" s="9" t="s">
         <v>1165</v>
       </c>
+      <c r="MO128" s="11" t="s">
+        <v>1165</v>
+      </c>
     </row>
-    <row r="129" spans="1:288" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:354" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="10" t="s">
         <v>1089</v>
       </c>
@@ -16164,8 +16307,14 @@
       <c r="KB129" s="12">
         <v>15</v>
       </c>
+      <c r="MO129" s="10">
+        <v>10</v>
+      </c>
+      <c r="MP129" s="12">
+        <v>10</v>
+      </c>
     </row>
-    <row r="130" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
         <v>1090</v>
       </c>
@@ -16175,8 +16324,14 @@
       <c r="KB130" s="9" t="s">
         <v>1170</v>
       </c>
+      <c r="MO130" s="11" t="s">
+        <v>1311</v>
+      </c>
+      <c r="MP130" s="9" t="s">
+        <v>1104</v>
+      </c>
     </row>
-    <row r="131" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
         <v>1091</v>
       </c>
@@ -16186,24 +16341,36 @@
       <c r="KB131" s="9" t="s">
         <v>1095</v>
       </c>
+      <c r="MO131" s="11" t="s">
+        <v>1095</v>
+      </c>
+      <c r="MP131" s="9" t="s">
+        <v>1165</v>
+      </c>
     </row>
-    <row r="132" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
         <v>1092</v>
       </c>
       <c r="KB132" s="9" t="s">
         <v>1101</v>
       </c>
+      <c r="MO132" s="11" t="s">
+        <v>1104</v>
+      </c>
     </row>
-    <row r="133" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
         <v>1093</v>
       </c>
       <c r="KB133" s="9" t="s">
         <v>1165</v>
       </c>
+      <c r="MO133" s="11" t="s">
+        <v>1165</v>
+      </c>
     </row>
-    <row r="134" spans="1:288" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:354" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="10" t="s">
         <v>1139</v>
       </c>
@@ -16211,7 +16378,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="135" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="11" t="s">
         <v>1140</v>
       </c>
@@ -16219,7 +16386,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="136" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="11" t="s">
         <v>1141</v>
       </c>
@@ -16227,7 +16394,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="137" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="11" t="s">
         <v>1154</v>
       </c>
@@ -16235,7 +16402,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="138" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
         <v>1155</v>
       </c>
@@ -16243,7 +16410,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="139" spans="1:288" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:354" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="10" t="s">
         <v>1142</v>
       </c>
@@ -16251,7 +16418,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="140" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="11" t="s">
         <v>1143</v>
       </c>
@@ -16259,7 +16426,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="141" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="11" t="s">
         <v>1144</v>
       </c>
@@ -16267,7 +16434,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="142" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
         <v>1156</v>
       </c>
@@ -16275,7 +16442,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="143" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="11" t="s">
         <v>1157</v>
       </c>
@@ -16283,7 +16450,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="144" spans="1:288" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:354" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="10" t="s">
         <v>1145</v>
       </c>
@@ -16407,55 +16574,67 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A65:JS73">
     <sortCondition ref="A65:A73"/>
   </sortState>
-  <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="duplicateValues" dxfId="52" priority="49"/>
+  <conditionalFormatting sqref="A1:MN1 MQ1:XFD1">
+    <cfRule type="duplicateValues" dxfId="39" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="expression" dxfId="51" priority="45">
+    <cfRule type="expression" dxfId="38" priority="50">
       <formula>(COUNTA(21:21)=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84:A133">
-    <cfRule type="expression" dxfId="50" priority="68">
+    <cfRule type="expression" dxfId="37" priority="73">
       <formula>(COUNTA(84:84)=1)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="49" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:A138">
-    <cfRule type="expression" dxfId="48" priority="39">
+    <cfRule type="expression" dxfId="35" priority="44">
       <formula>(COUNTA(137:137)=1)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="47" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A142:A143">
-    <cfRule type="expression" dxfId="46" priority="37">
+    <cfRule type="expression" dxfId="33" priority="42">
       <formula>(COUNTA(142:142)=1)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="45" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A147:A148">
-    <cfRule type="expression" dxfId="44" priority="35">
+    <cfRule type="expression" dxfId="31" priority="40">
       <formula>(COUNTA(147:147)=1)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="43" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A152:A153">
-    <cfRule type="expression" dxfId="42" priority="33">
+    <cfRule type="expression" dxfId="29" priority="38">
       <formula>(COUNTA(152:152)=1)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="41" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A157:A158">
-    <cfRule type="expression" dxfId="40" priority="31">
+    <cfRule type="expression" dxfId="27" priority="36">
       <formula>(COUNTA(157:157)=1)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="39" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="expression" dxfId="38" priority="76">
+    <cfRule type="expression" dxfId="25" priority="81">
       <formula>(COUNTA(1:1)=1)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="37" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="82"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="MO1">
+    <cfRule type="duplicateValues" dxfId="23" priority="2"/>
+    <cfRule type="expression" dxfId="22" priority="3">
+      <formula>NOT(ISERROR(FIND("(Caster)",MO1)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="4">
+      <formula>ISBLANK(MO2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="MP1">
+    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16464,10 +16643,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:EY22"/>
+  <dimension ref="A1:FB3"/>
   <sheetViews>
-    <sheetView topLeftCell="EY1" workbookViewId="0">
-      <selection activeCell="EY1" sqref="EY1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16475,8 +16654,8 @@
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:158" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -16536,7 +16715,7 @@
       <c r="T1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" t="s">
         <v>1017</v>
       </c>
       <c r="V1" s="1" t="s">
@@ -16569,425 +16748,437 @@
       <c r="AE1" s="9" t="s">
         <v>1005</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AF1" s="9" t="s">
+        <v>1296</v>
+      </c>
+      <c r="AG1" s="9" t="s">
+        <v>1297</v>
+      </c>
+      <c r="AH1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>926</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>996</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>938</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AN1" s="4" t="s">
         <v>995</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>1013</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AR1" s="4" t="s">
         <v>992</v>
       </c>
-      <c r="AQ1" s="7" t="s">
+      <c r="AS1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AT1" s="4" t="s">
         <v>927</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AU1" s="4" t="s">
         <v>940</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="AV1" s="4" t="s">
         <v>1020</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="AW1" s="4" t="s">
         <v>1021</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="AX1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="AY1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AX1" s="4" t="s">
+      <c r="AZ1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AY1" s="4" t="s">
+      <c r="BA1" s="4" t="s">
         <v>1019</v>
       </c>
-      <c r="AZ1" s="4" t="s">
+      <c r="BB1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="BA1" s="7" t="s">
+      <c r="BC1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="BB1" s="4" t="s">
+      <c r="BD1" s="4" t="s">
         <v>928</v>
       </c>
-      <c r="BC1" s="4" t="s">
+      <c r="BE1" s="4" t="s">
         <v>939</v>
       </c>
-      <c r="BD1" s="4" t="s">
+      <c r="BF1" s="4" t="s">
+        <v>1295</v>
+      </c>
+      <c r="BG1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="BE1" s="4" t="s">
+      <c r="BH1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="BF1" s="4" t="s">
+      <c r="BI1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="BG1" s="4" t="s">
+      <c r="BJ1" s="4" t="s">
         <v>1018</v>
       </c>
-      <c r="BH1" s="5" t="s">
+      <c r="BK1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="BI1" s="5" t="s">
+      <c r="BL1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="BJ1" s="8" t="s">
+      <c r="BM1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="BK1" s="6" t="s">
+      <c r="BN1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="BL1" s="6" t="s">
+      <c r="BO1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="BM1" s="8" t="s">
+      <c r="BP1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="BN1" s="6" t="s">
+      <c r="BQ1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="BO1" s="6" t="s">
+      <c r="BR1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="CC1" s="1" t="s">
         <v>1266</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>1267</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>1268</v>
       </c>
-      <c r="BV1" s="1" t="s">
-        <v>1269</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>1270</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>1271</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>1273</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>1274</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>1275</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>1276</v>
-      </c>
-      <c r="CC1" s="12" t="s">
+      <c r="CF1" s="10" t="s">
         <v>1044</v>
       </c>
-      <c r="CD1" s="9" t="s">
+      <c r="CG1" s="11" t="s">
         <v>1045</v>
       </c>
-      <c r="CE1" s="9" t="s">
+      <c r="CH1" s="11" t="s">
         <v>1046</v>
       </c>
-      <c r="CF1" s="9" t="s">
+      <c r="CI1" s="11" t="s">
         <v>1047</v>
       </c>
-      <c r="CG1" s="9" t="s">
+      <c r="CJ1" s="11" t="s">
         <v>1048</v>
       </c>
-      <c r="CH1" s="12" t="s">
+      <c r="CK1" s="10" t="s">
         <v>1049</v>
       </c>
-      <c r="CI1" s="9" t="s">
+      <c r="CL1" s="11" t="s">
         <v>1050</v>
       </c>
-      <c r="CJ1" s="9" t="s">
+      <c r="CM1" s="11" t="s">
         <v>1051</v>
       </c>
-      <c r="CK1" s="9" t="s">
+      <c r="CN1" s="11" t="s">
         <v>1052</v>
       </c>
-      <c r="CL1" s="9" t="s">
+      <c r="CO1" s="11" t="s">
         <v>1053</v>
       </c>
-      <c r="CM1" s="12" t="s">
+      <c r="CP1" s="10" t="s">
         <v>1054</v>
       </c>
-      <c r="CN1" s="9" t="s">
+      <c r="CQ1" s="11" t="s">
         <v>1055</v>
       </c>
-      <c r="CO1" s="9" t="s">
+      <c r="CR1" s="11" t="s">
         <v>1056</v>
       </c>
-      <c r="CP1" s="9" t="s">
+      <c r="CS1" s="11" t="s">
         <v>1057</v>
       </c>
-      <c r="CQ1" s="9" t="s">
+      <c r="CT1" s="11" t="s">
         <v>1058</v>
       </c>
-      <c r="CR1" s="12" t="s">
+      <c r="CU1" s="10" t="s">
         <v>1059</v>
       </c>
-      <c r="CS1" s="9" t="s">
+      <c r="CV1" s="11" t="s">
         <v>1060</v>
       </c>
-      <c r="CT1" s="9" t="s">
+      <c r="CW1" s="11" t="s">
         <v>1061</v>
       </c>
-      <c r="CU1" s="9" t="s">
+      <c r="CX1" s="11" t="s">
         <v>1062</v>
       </c>
-      <c r="CV1" s="9" t="s">
+      <c r="CY1" s="11" t="s">
         <v>1063</v>
       </c>
-      <c r="CW1" s="12" t="s">
+      <c r="CZ1" s="10" t="s">
         <v>1064</v>
       </c>
-      <c r="CX1" s="9" t="s">
+      <c r="DA1" s="11" t="s">
         <v>1065</v>
       </c>
-      <c r="CY1" s="9" t="s">
+      <c r="DB1" s="11" t="s">
         <v>1066</v>
       </c>
-      <c r="CZ1" s="9" t="s">
+      <c r="DC1" s="11" t="s">
         <v>1067</v>
       </c>
-      <c r="DA1" s="9" t="s">
+      <c r="DD1" s="11" t="s">
         <v>1068</v>
       </c>
-      <c r="DB1" s="12" t="s">
+      <c r="DE1" s="10" t="s">
         <v>1069</v>
       </c>
-      <c r="DC1" s="9" t="s">
+      <c r="DF1" s="11" t="s">
         <v>1070</v>
       </c>
-      <c r="DD1" s="9" t="s">
+      <c r="DG1" s="11" t="s">
         <v>1071</v>
       </c>
-      <c r="DE1" s="9" t="s">
+      <c r="DH1" s="11" t="s">
         <v>1072</v>
       </c>
-      <c r="DF1" s="9" t="s">
+      <c r="DI1" s="11" t="s">
         <v>1073</v>
       </c>
-      <c r="DG1" s="12" t="s">
+      <c r="DJ1" s="10" t="s">
         <v>1074</v>
       </c>
-      <c r="DH1" s="9" t="s">
+      <c r="DK1" s="11" t="s">
         <v>1075</v>
       </c>
-      <c r="DI1" s="9" t="s">
+      <c r="DL1" s="11" t="s">
         <v>1076</v>
       </c>
-      <c r="DJ1" s="9" t="s">
+      <c r="DM1" s="11" t="s">
         <v>1077</v>
       </c>
-      <c r="DK1" s="9" t="s">
+      <c r="DN1" s="11" t="s">
         <v>1078</v>
       </c>
-      <c r="DL1" s="12" t="s">
+      <c r="DO1" s="10" t="s">
         <v>1079</v>
       </c>
-      <c r="DM1" s="9" t="s">
+      <c r="DP1" s="11" t="s">
         <v>1080</v>
       </c>
-      <c r="DN1" s="9" t="s">
+      <c r="DQ1" s="11" t="s">
         <v>1081</v>
       </c>
-      <c r="DO1" s="9" t="s">
+      <c r="DR1" s="11" t="s">
         <v>1082</v>
       </c>
-      <c r="DP1" s="9" t="s">
+      <c r="DS1" s="11" t="s">
         <v>1083</v>
       </c>
-      <c r="DQ1" s="12" t="s">
+      <c r="DT1" s="10" t="s">
         <v>1084</v>
       </c>
-      <c r="DR1" s="9" t="s">
+      <c r="DU1" s="11" t="s">
         <v>1085</v>
       </c>
-      <c r="DS1" s="9" t="s">
+      <c r="DV1" s="11" t="s">
         <v>1086</v>
       </c>
-      <c r="DT1" s="9" t="s">
+      <c r="DW1" s="11" t="s">
         <v>1087</v>
       </c>
-      <c r="DU1" s="9" t="s">
+      <c r="DX1" s="11" t="s">
         <v>1088</v>
       </c>
-      <c r="DV1" s="12" t="s">
+      <c r="DY1" s="10" t="s">
         <v>1089</v>
       </c>
-      <c r="DW1" s="9" t="s">
+      <c r="DZ1" s="11" t="s">
         <v>1090</v>
       </c>
-      <c r="DX1" s="9" t="s">
+      <c r="EA1" s="11" t="s">
         <v>1091</v>
       </c>
-      <c r="DY1" s="9" t="s">
+      <c r="EB1" s="11" t="s">
         <v>1092</v>
       </c>
-      <c r="DZ1" s="9" t="s">
+      <c r="EC1" s="11" t="s">
         <v>1093</v>
       </c>
-      <c r="EA1" s="12" t="s">
+      <c r="ED1" s="10" t="s">
         <v>1139</v>
       </c>
-      <c r="EB1" s="9" t="s">
+      <c r="EE1" s="11" t="s">
         <v>1140</v>
       </c>
-      <c r="EC1" s="9" t="s">
+      <c r="EF1" s="11" t="s">
         <v>1141</v>
       </c>
-      <c r="ED1" s="9" t="s">
+      <c r="EG1" s="11" t="s">
         <v>1154</v>
       </c>
-      <c r="EE1" s="9" t="s">
+      <c r="EH1" s="11" t="s">
         <v>1155</v>
       </c>
-      <c r="EF1" s="12" t="s">
+      <c r="EI1" s="10" t="s">
         <v>1142</v>
       </c>
-      <c r="EG1" s="9" t="s">
+      <c r="EJ1" s="11" t="s">
         <v>1143</v>
       </c>
-      <c r="EH1" s="9" t="s">
+      <c r="EK1" s="11" t="s">
         <v>1144</v>
       </c>
-      <c r="EI1" s="9" t="s">
+      <c r="EL1" s="11" t="s">
         <v>1156</v>
       </c>
-      <c r="EJ1" s="9" t="s">
+      <c r="EM1" s="11" t="s">
         <v>1157</v>
       </c>
-      <c r="EK1" s="12" t="s">
+      <c r="EN1" s="10" t="s">
         <v>1145</v>
       </c>
-      <c r="EL1" s="9" t="s">
+      <c r="EO1" s="11" t="s">
         <v>1146</v>
       </c>
-      <c r="EM1" s="9" t="s">
+      <c r="EP1" s="11" t="s">
         <v>1147</v>
       </c>
-      <c r="EN1" s="9" t="s">
+      <c r="EQ1" s="11" t="s">
         <v>1158</v>
       </c>
-      <c r="EO1" s="9" t="s">
+      <c r="ER1" s="11" t="s">
         <v>1159</v>
       </c>
-      <c r="EP1" s="12" t="s">
+      <c r="ES1" s="10" t="s">
         <v>1148</v>
       </c>
-      <c r="EQ1" s="9" t="s">
+      <c r="ET1" s="11" t="s">
         <v>1149</v>
       </c>
-      <c r="ER1" s="9" t="s">
+      <c r="EU1" s="11" t="s">
         <v>1150</v>
       </c>
-      <c r="ES1" s="9" t="s">
+      <c r="EV1" s="11" t="s">
         <v>1160</v>
       </c>
-      <c r="ET1" s="9" t="s">
+      <c r="EW1" s="11" t="s">
         <v>1161</v>
       </c>
-      <c r="EU1" s="12" t="s">
+      <c r="EX1" s="10" t="s">
         <v>1151</v>
       </c>
-      <c r="EV1" s="9" t="s">
+      <c r="EY1" s="11" t="s">
         <v>1152</v>
       </c>
-      <c r="EW1" s="9" t="s">
+      <c r="EZ1" s="11" t="s">
         <v>1153</v>
       </c>
-      <c r="EX1" s="9" t="s">
+      <c r="FA1" s="11" t="s">
         <v>1162</v>
       </c>
-      <c r="EY1" s="9" t="s">
+      <c r="FB1" s="11" t="s">
         <v>1163</v>
       </c>
     </row>
-    <row r="2" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1202</v>
+    <row r="2" spans="1:158" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1300</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="M2" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="V2" s="1" t="s">
         <v>998</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>1203</v>
+        <v>1301</v>
       </c>
       <c r="AA2" s="3"/>
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
       <c r="AD2" s="3"/>
       <c r="AE2" s="9"/>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="4"/>
-      <c r="AH2" s="4"/>
+      <c r="AF2" s="9"/>
+      <c r="AG2" s="9"/>
+      <c r="AH2" s="7"/>
       <c r="AI2" s="4"/>
       <c r="AJ2" s="4"/>
       <c r="AK2" s="4"/>
       <c r="AL2" s="4"/>
-      <c r="AM2" s="4" t="s">
-        <v>1202</v>
-      </c>
-      <c r="AN2" s="4" t="s">
-        <v>1202</v>
-      </c>
-      <c r="AO2" s="4"/>
-      <c r="AP2" s="4"/>
-      <c r="AQ2" s="7"/>
+      <c r="AM2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="4"/>
+      <c r="AO2" s="4" t="s">
+        <v>1300</v>
+      </c>
+      <c r="AP2" s="4" t="s">
+        <v>1300</v>
+      </c>
+      <c r="AQ2" s="4"/>
       <c r="AR2" s="4"/>
-      <c r="AS2" s="4"/>
+      <c r="AS2" s="7"/>
       <c r="AT2" s="4"/>
       <c r="AU2" s="4"/>
       <c r="AV2" s="4"/>
@@ -16995,148 +17186,242 @@
       <c r="AX2" s="4"/>
       <c r="AY2" s="4"/>
       <c r="AZ2" s="4"/>
-      <c r="BA2" s="7"/>
+      <c r="BA2" s="4"/>
       <c r="BB2" s="4"/>
-      <c r="BC2" s="4"/>
+      <c r="BC2" s="7"/>
       <c r="BD2" s="4"/>
       <c r="BE2" s="4"/>
       <c r="BF2" s="4"/>
       <c r="BG2" s="4"/>
-      <c r="BH2" s="5"/>
-      <c r="BI2" s="5"/>
-      <c r="BJ2" s="8"/>
-      <c r="BK2" s="6"/>
-      <c r="BL2" s="6"/>
+      <c r="BH2" s="4"/>
+      <c r="BI2" s="4"/>
+      <c r="BJ2" s="4"/>
+      <c r="BK2" s="5"/>
+      <c r="BL2" s="5"/>
       <c r="BM2" s="8"/>
       <c r="BN2" s="6"/>
       <c r="BO2" s="6"/>
-      <c r="CC2" s="12"/>
-      <c r="CD2" s="9"/>
-      <c r="CE2" s="9"/>
-      <c r="CF2" s="9"/>
-      <c r="CG2" s="9"/>
-      <c r="CH2" s="12"/>
-      <c r="CI2" s="9"/>
-      <c r="CJ2" s="9"/>
-      <c r="CK2" s="9"/>
-      <c r="CL2" s="9"/>
-      <c r="CM2" s="12"/>
-      <c r="CN2" s="9"/>
-      <c r="CO2" s="9"/>
-      <c r="CP2" s="9"/>
-      <c r="CQ2" s="9"/>
-      <c r="CR2" s="12"/>
-      <c r="CS2" s="9"/>
-      <c r="CT2" s="9"/>
-      <c r="CU2" s="9"/>
-      <c r="CV2" s="9"/>
-      <c r="CW2" s="12"/>
-      <c r="CX2" s="9"/>
-      <c r="CY2" s="9"/>
-      <c r="CZ2" s="9"/>
-      <c r="DA2" s="9"/>
-      <c r="DB2" s="12"/>
-      <c r="DC2" s="9"/>
-      <c r="DD2" s="9"/>
-      <c r="DE2" s="9"/>
-      <c r="DF2" s="9"/>
-      <c r="DG2" s="12"/>
-      <c r="DH2" s="9"/>
-      <c r="DI2" s="9"/>
-      <c r="DJ2" s="9"/>
-      <c r="DK2" s="9"/>
-      <c r="DL2" s="12"/>
-      <c r="DM2" s="9"/>
-      <c r="DN2" s="9"/>
-      <c r="DO2" s="9"/>
-      <c r="DP2" s="9"/>
-      <c r="DQ2" s="12"/>
-      <c r="DR2" s="9"/>
-      <c r="DS2" s="9"/>
-      <c r="DT2" s="9"/>
-      <c r="DU2" s="9"/>
-      <c r="DV2" s="12"/>
-      <c r="DW2" s="9"/>
-      <c r="DX2" s="9"/>
-      <c r="DY2" s="9"/>
-      <c r="DZ2" s="9"/>
-      <c r="EA2" s="12"/>
-      <c r="EB2" s="9"/>
-      <c r="EC2" s="9"/>
-      <c r="ED2" s="9"/>
+      <c r="BP2" s="8"/>
+      <c r="BQ2" s="6"/>
+      <c r="BR2" s="6"/>
+      <c r="CF2" s="10">
+        <v>1</v>
+      </c>
+      <c r="CG2" s="11" t="s">
+        <v>1302</v>
+      </c>
+      <c r="CH2" s="11" t="s">
+        <v>1095</v>
+      </c>
+      <c r="CI2" s="11" t="s">
+        <v>1094</v>
+      </c>
+      <c r="CJ2" s="11" t="s">
+        <v>1165</v>
+      </c>
+      <c r="CK2" s="10">
+        <v>2</v>
+      </c>
+      <c r="CL2" s="11" t="s">
+        <v>1303</v>
+      </c>
+      <c r="CM2" s="11" t="s">
+        <v>1095</v>
+      </c>
+      <c r="CN2" s="11" t="s">
+        <v>1096</v>
+      </c>
+      <c r="CO2" s="11" t="s">
+        <v>1165</v>
+      </c>
+      <c r="CP2" s="10">
+        <v>3</v>
+      </c>
+      <c r="CQ2" s="11" t="s">
+        <v>1304</v>
+      </c>
+      <c r="CR2" s="11" t="s">
+        <v>1095</v>
+      </c>
+      <c r="CS2" s="11" t="s">
+        <v>1097</v>
+      </c>
+      <c r="CT2" s="11" t="s">
+        <v>1165</v>
+      </c>
+      <c r="CU2" s="10">
+        <v>4</v>
+      </c>
+      <c r="CV2" s="11" t="s">
+        <v>1305</v>
+      </c>
+      <c r="CW2" s="11" t="s">
+        <v>1095</v>
+      </c>
+      <c r="CX2" s="11" t="s">
+        <v>1098</v>
+      </c>
+      <c r="CY2" s="11" t="s">
+        <v>1165</v>
+      </c>
+      <c r="CZ2" s="10">
+        <v>5</v>
+      </c>
+      <c r="DA2" s="11" t="s">
+        <v>1306</v>
+      </c>
+      <c r="DB2" s="11" t="s">
+        <v>1095</v>
+      </c>
+      <c r="DC2" s="11" t="s">
+        <v>1099</v>
+      </c>
+      <c r="DD2" s="11" t="s">
+        <v>1165</v>
+      </c>
+      <c r="DE2" s="10">
+        <v>6</v>
+      </c>
+      <c r="DF2" s="11" t="s">
+        <v>1307</v>
+      </c>
+      <c r="DG2" s="11" t="s">
+        <v>1095</v>
+      </c>
+      <c r="DH2" s="11" t="s">
+        <v>1100</v>
+      </c>
+      <c r="DI2" s="11" t="s">
+        <v>1165</v>
+      </c>
+      <c r="DJ2" s="10">
+        <v>7</v>
+      </c>
+      <c r="DK2" s="11" t="s">
+        <v>1308</v>
+      </c>
+      <c r="DL2" s="11" t="s">
+        <v>1095</v>
+      </c>
+      <c r="DM2" s="11" t="s">
+        <v>1101</v>
+      </c>
+      <c r="DN2" s="11" t="s">
+        <v>1165</v>
+      </c>
+      <c r="DO2" s="10">
+        <v>8</v>
+      </c>
+      <c r="DP2" s="11" t="s">
+        <v>1309</v>
+      </c>
+      <c r="DQ2" s="11" t="s">
+        <v>1095</v>
+      </c>
+      <c r="DR2" s="11" t="s">
+        <v>1102</v>
+      </c>
+      <c r="DS2" s="11" t="s">
+        <v>1165</v>
+      </c>
+      <c r="DT2" s="10">
+        <v>9</v>
+      </c>
+      <c r="DU2" s="11" t="s">
+        <v>1310</v>
+      </c>
+      <c r="DV2" s="11" t="s">
+        <v>1095</v>
+      </c>
+      <c r="DW2" s="11" t="s">
+        <v>1103</v>
+      </c>
+      <c r="DX2" s="11" t="s">
+        <v>1165</v>
+      </c>
+      <c r="DY2" s="10">
+        <v>10</v>
+      </c>
+      <c r="DZ2" s="11" t="s">
+        <v>1311</v>
+      </c>
+      <c r="EA2" s="11" t="s">
+        <v>1095</v>
+      </c>
+      <c r="EB2" s="11" t="s">
+        <v>1104</v>
+      </c>
+      <c r="EC2" s="11" t="s">
+        <v>1165</v>
+      </c>
+      <c r="ED2" s="12"/>
       <c r="EE2" s="9"/>
-      <c r="EF2" s="12"/>
+      <c r="EF2" s="9"/>
       <c r="EG2" s="9"/>
       <c r="EH2" s="9"/>
-      <c r="EI2" s="9"/>
+      <c r="EI2" s="12"/>
       <c r="EJ2" s="9"/>
-      <c r="EK2" s="12"/>
+      <c r="EK2" s="9"/>
       <c r="EL2" s="9"/>
       <c r="EM2" s="9"/>
-      <c r="EN2" s="9"/>
+      <c r="EN2" s="12"/>
       <c r="EO2" s="9"/>
-      <c r="EP2" s="12"/>
+      <c r="EP2" s="9"/>
       <c r="EQ2" s="9"/>
       <c r="ER2" s="9"/>
-      <c r="ES2" s="9"/>
+      <c r="ES2" s="12"/>
       <c r="ET2" s="9"/>
-      <c r="EU2" s="12"/>
+      <c r="EU2" s="9"/>
       <c r="EV2" s="9"/>
       <c r="EW2" s="9"/>
-      <c r="EX2" s="9"/>
+      <c r="EX2" s="12"/>
       <c r="EY2" s="9"/>
+      <c r="EZ2" s="9"/>
+      <c r="FA2" s="9"/>
+      <c r="FB2" s="9"/>
     </row>
-    <row r="3" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1204</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1211</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>898</v>
-      </c>
+    <row r="3" spans="1:158" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="P3" s="1" t="s">
-        <v>1205</v>
-      </c>
       <c r="V3" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>1206</v>
+        <v>1313</v>
       </c>
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
       <c r="AD3" s="3"/>
       <c r="AE3" s="9"/>
-      <c r="AF3" s="7"/>
-      <c r="AG3" s="4"/>
-      <c r="AH3" s="4"/>
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="7"/>
       <c r="AI3" s="4"/>
       <c r="AJ3" s="4"/>
       <c r="AK3" s="4"/>
       <c r="AL3" s="4"/>
-      <c r="AM3" s="4"/>
+      <c r="AM3" s="4">
+        <v>10</v>
+      </c>
       <c r="AN3" s="4"/>
-      <c r="AO3" s="4"/>
-      <c r="AP3" s="4"/>
-      <c r="AQ3" s="7"/>
+      <c r="AO3" s="4" t="s">
+        <v>1312</v>
+      </c>
+      <c r="AP3" s="4" t="s">
+        <v>1312</v>
+      </c>
+      <c r="AQ3" s="4"/>
       <c r="AR3" s="4"/>
-      <c r="AS3" s="4"/>
+      <c r="AS3" s="7"/>
       <c r="AT3" s="4"/>
       <c r="AU3" s="4"/>
       <c r="AV3" s="4"/>
@@ -17144,3211 +17429,162 @@
       <c r="AX3" s="4"/>
       <c r="AY3" s="4"/>
       <c r="AZ3" s="4"/>
-      <c r="BA3" s="7"/>
+      <c r="BA3" s="4"/>
       <c r="BB3" s="4"/>
-      <c r="BC3" s="4"/>
+      <c r="BC3" s="7"/>
       <c r="BD3" s="4"/>
       <c r="BE3" s="4"/>
       <c r="BF3" s="4"/>
       <c r="BG3" s="4"/>
-      <c r="BH3" s="5"/>
-      <c r="BI3" s="5"/>
-      <c r="BJ3" s="8"/>
-      <c r="BK3" s="6"/>
-      <c r="BL3" s="6"/>
+      <c r="BH3" s="4"/>
+      <c r="BI3" s="4"/>
+      <c r="BJ3" s="4"/>
+      <c r="BK3" s="5"/>
+      <c r="BL3" s="5"/>
       <c r="BM3" s="8"/>
       <c r="BN3" s="6"/>
       <c r="BO3" s="6"/>
-      <c r="CC3" s="12"/>
-      <c r="CD3" s="9"/>
-      <c r="CE3" s="9"/>
-      <c r="CF3" s="9"/>
+      <c r="BP3" s="8"/>
+      <c r="BQ3" s="6"/>
+      <c r="BR3" s="6"/>
+      <c r="CF3" s="12"/>
       <c r="CG3" s="9"/>
-      <c r="CH3" s="12"/>
+      <c r="CH3" s="9"/>
       <c r="CI3" s="9"/>
       <c r="CJ3" s="9"/>
-      <c r="CK3" s="9"/>
+      <c r="CK3" s="12"/>
       <c r="CL3" s="9"/>
-      <c r="CM3" s="12"/>
+      <c r="CM3" s="9"/>
       <c r="CN3" s="9"/>
       <c r="CO3" s="9"/>
-      <c r="CP3" s="9"/>
+      <c r="CP3" s="12"/>
       <c r="CQ3" s="9"/>
-      <c r="CR3" s="12"/>
+      <c r="CR3" s="9"/>
       <c r="CS3" s="9"/>
       <c r="CT3" s="9"/>
-      <c r="CU3" s="9"/>
+      <c r="CU3" s="12"/>
       <c r="CV3" s="9"/>
-      <c r="CW3" s="12"/>
+      <c r="CW3" s="9"/>
       <c r="CX3" s="9"/>
       <c r="CY3" s="9"/>
-      <c r="CZ3" s="9"/>
+      <c r="CZ3" s="12"/>
       <c r="DA3" s="9"/>
-      <c r="DB3" s="12"/>
+      <c r="DB3" s="9"/>
       <c r="DC3" s="9"/>
       <c r="DD3" s="9"/>
-      <c r="DE3" s="9"/>
+      <c r="DE3" s="12"/>
       <c r="DF3" s="9"/>
-      <c r="DG3" s="12"/>
+      <c r="DG3" s="9"/>
       <c r="DH3" s="9"/>
       <c r="DI3" s="9"/>
-      <c r="DJ3" s="9"/>
+      <c r="DJ3" s="12"/>
       <c r="DK3" s="9"/>
-      <c r="DL3" s="12"/>
+      <c r="DL3" s="9"/>
       <c r="DM3" s="9"/>
       <c r="DN3" s="9"/>
-      <c r="DO3" s="9"/>
+      <c r="DO3" s="12"/>
       <c r="DP3" s="9"/>
-      <c r="DQ3" s="12"/>
+      <c r="DQ3" s="9"/>
       <c r="DR3" s="9"/>
       <c r="DS3" s="9"/>
-      <c r="DT3" s="9"/>
+      <c r="DT3" s="12"/>
       <c r="DU3" s="9"/>
-      <c r="DV3" s="12"/>
+      <c r="DV3" s="9"/>
       <c r="DW3" s="9"/>
       <c r="DX3" s="9"/>
-      <c r="DY3" s="9"/>
+      <c r="DY3" s="12"/>
       <c r="DZ3" s="9"/>
-      <c r="EA3" s="12"/>
+      <c r="EA3" s="9"/>
       <c r="EB3" s="9"/>
       <c r="EC3" s="9"/>
-      <c r="ED3" s="9"/>
+      <c r="ED3" s="12"/>
       <c r="EE3" s="9"/>
-      <c r="EF3" s="12"/>
+      <c r="EF3" s="9"/>
       <c r="EG3" s="9"/>
       <c r="EH3" s="9"/>
-      <c r="EI3" s="9"/>
+      <c r="EI3" s="12"/>
       <c r="EJ3" s="9"/>
-      <c r="EK3" s="12"/>
+      <c r="EK3" s="9"/>
       <c r="EL3" s="9"/>
       <c r="EM3" s="9"/>
-      <c r="EN3" s="9"/>
+      <c r="EN3" s="12"/>
       <c r="EO3" s="9"/>
-      <c r="EP3" s="12"/>
+      <c r="EP3" s="9"/>
       <c r="EQ3" s="9"/>
       <c r="ER3" s="9"/>
-      <c r="ES3" s="9"/>
+      <c r="ES3" s="12"/>
       <c r="ET3" s="9"/>
-      <c r="EU3" s="12"/>
+      <c r="EU3" s="9"/>
       <c r="EV3" s="9"/>
       <c r="EW3" s="9"/>
-      <c r="EX3" s="9"/>
+      <c r="EX3" s="12"/>
       <c r="EY3" s="9"/>
-    </row>
-    <row r="4" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>1207</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>1220</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="V4" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>1218</v>
-      </c>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="9"/>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="4"/>
-      <c r="AJ4" s="4"/>
-      <c r="AK4" s="4">
-        <v>-5</v>
-      </c>
-      <c r="AL4" s="4"/>
-      <c r="AM4" s="4" t="s">
-        <v>1208</v>
-      </c>
-      <c r="AN4" s="4" t="s">
-        <v>1207</v>
-      </c>
-      <c r="AO4" s="4" t="s">
-        <v>1014</v>
-      </c>
-      <c r="AP4" s="4"/>
-      <c r="AQ4" s="7"/>
-      <c r="AR4" s="4"/>
-      <c r="AS4" s="4"/>
-      <c r="AT4" s="4"/>
-      <c r="AU4" s="4"/>
-      <c r="AV4" s="4"/>
-      <c r="AW4" s="4"/>
-      <c r="AX4" s="4"/>
-      <c r="AY4" s="4"/>
-      <c r="AZ4" s="4"/>
-      <c r="BA4" s="7"/>
-      <c r="BB4" s="4"/>
-      <c r="BC4" s="4"/>
-      <c r="BD4" s="4"/>
-      <c r="BE4" s="4"/>
-      <c r="BF4" s="4"/>
-      <c r="BG4" s="4"/>
-      <c r="BH4" s="5"/>
-      <c r="BI4" s="5"/>
-      <c r="BJ4" s="8"/>
-      <c r="BK4" s="6"/>
-      <c r="BL4" s="6"/>
-      <c r="BM4" s="8"/>
-      <c r="BN4" s="6"/>
-      <c r="BO4" s="6"/>
-      <c r="CC4" s="12"/>
-      <c r="CD4" s="9"/>
-      <c r="CE4" s="9"/>
-      <c r="CF4" s="9"/>
-      <c r="CG4" s="9"/>
-      <c r="CH4" s="12"/>
-      <c r="CI4" s="9"/>
-      <c r="CJ4" s="9"/>
-      <c r="CK4" s="9"/>
-      <c r="CL4" s="9"/>
-      <c r="CM4" s="12"/>
-      <c r="CN4" s="9"/>
-      <c r="CO4" s="9"/>
-      <c r="CP4" s="9"/>
-      <c r="CQ4" s="9"/>
-      <c r="CR4" s="12"/>
-      <c r="CS4" s="9"/>
-      <c r="CT4" s="9"/>
-      <c r="CU4" s="9"/>
-      <c r="CV4" s="9"/>
-      <c r="CW4" s="12"/>
-      <c r="CX4" s="9"/>
-      <c r="CY4" s="9"/>
-      <c r="CZ4" s="9"/>
-      <c r="DA4" s="9"/>
-      <c r="DB4" s="12"/>
-      <c r="DC4" s="9"/>
-      <c r="DD4" s="9"/>
-      <c r="DE4" s="9"/>
-      <c r="DF4" s="9"/>
-      <c r="DG4" s="12"/>
-      <c r="DH4" s="9"/>
-      <c r="DI4" s="9"/>
-      <c r="DJ4" s="9"/>
-      <c r="DK4" s="9"/>
-      <c r="DL4" s="12"/>
-      <c r="DM4" s="9"/>
-      <c r="DN4" s="9"/>
-      <c r="DO4" s="9"/>
-      <c r="DP4" s="9"/>
-      <c r="DQ4" s="12"/>
-      <c r="DR4" s="9"/>
-      <c r="DS4" s="9"/>
-      <c r="DT4" s="9"/>
-      <c r="DU4" s="9"/>
-      <c r="DV4" s="12"/>
-      <c r="DW4" s="9"/>
-      <c r="DX4" s="9"/>
-      <c r="DY4" s="9"/>
-      <c r="DZ4" s="9"/>
-      <c r="EA4" s="12"/>
-      <c r="EB4" s="9"/>
-      <c r="EC4" s="9"/>
-      <c r="ED4" s="9"/>
-      <c r="EE4" s="9"/>
-      <c r="EF4" s="12"/>
-      <c r="EG4" s="9"/>
-      <c r="EH4" s="9"/>
-      <c r="EI4" s="9"/>
-      <c r="EJ4" s="9"/>
-      <c r="EK4" s="12"/>
-      <c r="EL4" s="9"/>
-      <c r="EM4" s="9"/>
-      <c r="EN4" s="9"/>
-      <c r="EO4" s="9"/>
-      <c r="EP4" s="12"/>
-      <c r="EQ4" s="9"/>
-      <c r="ER4" s="9"/>
-      <c r="ES4" s="9"/>
-      <c r="ET4" s="9"/>
-      <c r="EU4" s="12"/>
-      <c r="EV4" s="9"/>
-      <c r="EW4" s="9"/>
-      <c r="EX4" s="9"/>
-      <c r="EY4" s="9"/>
-    </row>
-    <row r="5" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>1209</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>1220</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="U5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>1000</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>1218</v>
-      </c>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="9"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="4"/>
-      <c r="AH5" s="4"/>
-      <c r="AI5" s="4"/>
-      <c r="AJ5" s="4"/>
-      <c r="AK5" s="4">
-        <v>10</v>
-      </c>
-      <c r="AL5" s="4"/>
-      <c r="AM5" s="4" t="s">
-        <v>1210</v>
-      </c>
-      <c r="AN5" s="4" t="s">
-        <v>1209</v>
-      </c>
-      <c r="AO5" s="4" t="s">
-        <v>1014</v>
-      </c>
-      <c r="AP5" s="4"/>
-      <c r="AQ5" s="7"/>
-      <c r="AR5" s="4"/>
-      <c r="AS5" s="4"/>
-      <c r="AT5" s="4"/>
-      <c r="AU5" s="4" t="s">
-        <v>1210</v>
-      </c>
-      <c r="AV5" s="4">
-        <v>10</v>
-      </c>
-      <c r="AW5" s="4" t="s">
-        <v>1209</v>
-      </c>
-      <c r="AX5" s="4" t="s">
-        <v>1209</v>
-      </c>
-      <c r="AY5" s="4" t="s">
-        <v>1015</v>
-      </c>
-      <c r="AZ5" s="4"/>
-      <c r="BA5" s="7"/>
-      <c r="BB5" s="4"/>
-      <c r="BC5" s="4"/>
-      <c r="BD5" s="4"/>
-      <c r="BE5" s="4"/>
-      <c r="BF5" s="4"/>
-      <c r="BG5" s="4"/>
-      <c r="BH5" s="5"/>
-      <c r="BI5" s="5"/>
-      <c r="BJ5" s="8"/>
-      <c r="BK5" s="6"/>
-      <c r="BL5" s="6"/>
-      <c r="BM5" s="8"/>
-      <c r="BN5" s="6"/>
-      <c r="BO5" s="6"/>
-      <c r="CC5" s="12"/>
-      <c r="CD5" s="9"/>
-      <c r="CE5" s="9"/>
-      <c r="CF5" s="9"/>
-      <c r="CG5" s="9"/>
-      <c r="CH5" s="12"/>
-      <c r="CI5" s="9"/>
-      <c r="CJ5" s="9"/>
-      <c r="CK5" s="9"/>
-      <c r="CL5" s="9"/>
-      <c r="CM5" s="12"/>
-      <c r="CN5" s="9"/>
-      <c r="CO5" s="9"/>
-      <c r="CP5" s="9"/>
-      <c r="CQ5" s="9"/>
-      <c r="CR5" s="12"/>
-      <c r="CS5" s="9"/>
-      <c r="CT5" s="9"/>
-      <c r="CU5" s="9"/>
-      <c r="CV5" s="9"/>
-      <c r="CW5" s="12"/>
-      <c r="CX5" s="9"/>
-      <c r="CY5" s="9"/>
-      <c r="CZ5" s="9"/>
-      <c r="DA5" s="9"/>
-      <c r="DB5" s="12"/>
-      <c r="DC5" s="9"/>
-      <c r="DD5" s="9"/>
-      <c r="DE5" s="9"/>
-      <c r="DF5" s="9"/>
-      <c r="DG5" s="12"/>
-      <c r="DH5" s="9"/>
-      <c r="DI5" s="9"/>
-      <c r="DJ5" s="9"/>
-      <c r="DK5" s="9"/>
-      <c r="DL5" s="12"/>
-      <c r="DM5" s="9"/>
-      <c r="DN5" s="9"/>
-      <c r="DO5" s="9"/>
-      <c r="DP5" s="9"/>
-      <c r="DQ5" s="12"/>
-      <c r="DR5" s="9"/>
-      <c r="DS5" s="9"/>
-      <c r="DT5" s="9"/>
-      <c r="DU5" s="9"/>
-      <c r="DV5" s="12"/>
-      <c r="DW5" s="9"/>
-      <c r="DX5" s="9"/>
-      <c r="DY5" s="9"/>
-      <c r="DZ5" s="9"/>
-      <c r="EA5" s="12"/>
-      <c r="EB5" s="9"/>
-      <c r="EC5" s="9"/>
-      <c r="ED5" s="9"/>
-      <c r="EE5" s="9"/>
-      <c r="EF5" s="12"/>
-      <c r="EG5" s="9"/>
-      <c r="EH5" s="9"/>
-      <c r="EI5" s="9"/>
-      <c r="EJ5" s="9"/>
-      <c r="EK5" s="12"/>
-      <c r="EL5" s="9"/>
-      <c r="EM5" s="9"/>
-      <c r="EN5" s="9"/>
-      <c r="EO5" s="9"/>
-      <c r="EP5" s="12"/>
-      <c r="EQ5" s="9"/>
-      <c r="ER5" s="9"/>
-      <c r="ES5" s="9"/>
-      <c r="ET5" s="9"/>
-      <c r="EU5" s="12"/>
-      <c r="EV5" s="9"/>
-      <c r="EW5" s="9"/>
-      <c r="EX5" s="9"/>
-      <c r="EY5" s="9"/>
-    </row>
-    <row r="6" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>1213</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>1221</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="V6" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>1217</v>
-      </c>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="4"/>
-      <c r="AH6" s="4"/>
-      <c r="AI6" s="4"/>
-      <c r="AJ6" s="4"/>
-      <c r="AK6" s="4">
-        <v>-5</v>
-      </c>
-      <c r="AL6" s="4"/>
-      <c r="AM6" s="4" t="s">
-        <v>1214</v>
-      </c>
-      <c r="AN6" s="4" t="s">
-        <v>1213</v>
-      </c>
-      <c r="AO6" s="4" t="s">
-        <v>1014</v>
-      </c>
-      <c r="AP6" s="4"/>
-      <c r="AQ6" s="7"/>
-      <c r="AR6" s="4"/>
-      <c r="AS6" s="4"/>
-      <c r="AT6" s="4"/>
-      <c r="AU6" s="4"/>
-      <c r="AV6" s="4"/>
-      <c r="AW6" s="4"/>
-      <c r="AX6" s="4"/>
-      <c r="AY6" s="4"/>
-      <c r="AZ6" s="4"/>
-      <c r="BA6" s="7"/>
-      <c r="BB6" s="4"/>
-      <c r="BC6" s="4"/>
-      <c r="BD6" s="4"/>
-      <c r="BE6" s="4"/>
-      <c r="BF6" s="4"/>
-      <c r="BG6" s="4"/>
-      <c r="BH6" s="5"/>
-      <c r="BI6" s="5"/>
-      <c r="BJ6" s="8"/>
-      <c r="BK6" s="6"/>
-      <c r="BL6" s="6"/>
-      <c r="BM6" s="8"/>
-      <c r="BN6" s="6"/>
-      <c r="BO6" s="6"/>
-      <c r="CC6" s="12"/>
-      <c r="CD6" s="9"/>
-      <c r="CE6" s="9"/>
-      <c r="CF6" s="9"/>
-      <c r="CG6" s="9"/>
-      <c r="CH6" s="12"/>
-      <c r="CI6" s="9"/>
-      <c r="CJ6" s="9"/>
-      <c r="CK6" s="9"/>
-      <c r="CL6" s="9"/>
-      <c r="CM6" s="12"/>
-      <c r="CN6" s="9"/>
-      <c r="CO6" s="9"/>
-      <c r="CP6" s="9"/>
-      <c r="CQ6" s="9"/>
-      <c r="CR6" s="12"/>
-      <c r="CS6" s="9"/>
-      <c r="CT6" s="9"/>
-      <c r="CU6" s="9"/>
-      <c r="CV6" s="9"/>
-      <c r="CW6" s="12"/>
-      <c r="CX6" s="9"/>
-      <c r="CY6" s="9"/>
-      <c r="CZ6" s="9"/>
-      <c r="DA6" s="9"/>
-      <c r="DB6" s="12"/>
-      <c r="DC6" s="9"/>
-      <c r="DD6" s="9"/>
-      <c r="DE6" s="9"/>
-      <c r="DF6" s="9"/>
-      <c r="DG6" s="12"/>
-      <c r="DH6" s="9"/>
-      <c r="DI6" s="9"/>
-      <c r="DJ6" s="9"/>
-      <c r="DK6" s="9"/>
-      <c r="DL6" s="12"/>
-      <c r="DM6" s="9"/>
-      <c r="DN6" s="9"/>
-      <c r="DO6" s="9"/>
-      <c r="DP6" s="9"/>
-      <c r="DQ6" s="12"/>
-      <c r="DR6" s="9"/>
-      <c r="DS6" s="9"/>
-      <c r="DT6" s="9"/>
-      <c r="DU6" s="9"/>
-      <c r="DV6" s="12"/>
-      <c r="DW6" s="9"/>
-      <c r="DX6" s="9"/>
-      <c r="DY6" s="9"/>
-      <c r="DZ6" s="9"/>
-      <c r="EA6" s="12"/>
-      <c r="EB6" s="9"/>
-      <c r="EC6" s="9"/>
-      <c r="ED6" s="9"/>
-      <c r="EE6" s="9"/>
-      <c r="EF6" s="12"/>
-      <c r="EG6" s="9"/>
-      <c r="EH6" s="9"/>
-      <c r="EI6" s="9"/>
-      <c r="EJ6" s="9"/>
-      <c r="EK6" s="12"/>
-      <c r="EL6" s="9"/>
-      <c r="EM6" s="9"/>
-      <c r="EN6" s="9"/>
-      <c r="EO6" s="9"/>
-      <c r="EP6" s="12"/>
-      <c r="EQ6" s="9"/>
-      <c r="ER6" s="9"/>
-      <c r="ES6" s="9"/>
-      <c r="ET6" s="9"/>
-      <c r="EU6" s="12"/>
-      <c r="EV6" s="9"/>
-      <c r="EW6" s="9"/>
-      <c r="EX6" s="9"/>
-      <c r="EY6" s="9"/>
-    </row>
-    <row r="7" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>1215</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="L7" s="1" t="s">
-        <v>1216</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="R7" s="1">
-        <v>5</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>1219</v>
-      </c>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="9"/>
-      <c r="AF7" s="7"/>
-      <c r="AG7" s="4"/>
-      <c r="AH7" s="4"/>
-      <c r="AI7" s="4"/>
-      <c r="AJ7" s="4"/>
-      <c r="AK7" s="4">
-        <v>5</v>
-      </c>
-      <c r="AL7" s="4"/>
-      <c r="AM7" s="4" t="s">
-        <v>1215</v>
-      </c>
-      <c r="AN7" s="4" t="s">
-        <v>1215</v>
-      </c>
-      <c r="AO7" s="4"/>
-      <c r="AP7" s="4"/>
-      <c r="AQ7" s="7"/>
-      <c r="AR7" s="4"/>
-      <c r="AS7" s="4"/>
-      <c r="AT7" s="4"/>
-      <c r="AU7" s="4"/>
-      <c r="AV7" s="4"/>
-      <c r="AW7" s="4"/>
-      <c r="AX7" s="4"/>
-      <c r="AY7" s="4"/>
-      <c r="AZ7" s="4"/>
-      <c r="BA7" s="7"/>
-      <c r="BB7" s="4"/>
-      <c r="BC7" s="4"/>
-      <c r="BD7" s="4"/>
-      <c r="BE7" s="4"/>
-      <c r="BF7" s="4"/>
-      <c r="BG7" s="4"/>
-      <c r="BH7" s="5"/>
-      <c r="BI7" s="5"/>
-      <c r="BJ7" s="8"/>
-      <c r="BK7" s="6"/>
-      <c r="BL7" s="6"/>
-      <c r="BM7" s="8"/>
-      <c r="BN7" s="6"/>
-      <c r="BO7" s="6"/>
-      <c r="CC7" s="12"/>
-      <c r="CD7" s="9"/>
-      <c r="CE7" s="9"/>
-      <c r="CF7" s="9"/>
-      <c r="CG7" s="9"/>
-      <c r="CH7" s="12"/>
-      <c r="CI7" s="9"/>
-      <c r="CJ7" s="9"/>
-      <c r="CK7" s="9"/>
-      <c r="CL7" s="9"/>
-      <c r="CM7" s="12"/>
-      <c r="CN7" s="9"/>
-      <c r="CO7" s="9"/>
-      <c r="CP7" s="9"/>
-      <c r="CQ7" s="9"/>
-      <c r="CR7" s="12"/>
-      <c r="CS7" s="9"/>
-      <c r="CT7" s="9"/>
-      <c r="CU7" s="9"/>
-      <c r="CV7" s="9"/>
-      <c r="CW7" s="12"/>
-      <c r="CX7" s="9"/>
-      <c r="CY7" s="9"/>
-      <c r="CZ7" s="9"/>
-      <c r="DA7" s="9"/>
-      <c r="DB7" s="12"/>
-      <c r="DC7" s="9"/>
-      <c r="DD7" s="9"/>
-      <c r="DE7" s="9"/>
-      <c r="DF7" s="9"/>
-      <c r="DG7" s="12"/>
-      <c r="DH7" s="9"/>
-      <c r="DI7" s="9"/>
-      <c r="DJ7" s="9"/>
-      <c r="DK7" s="9"/>
-      <c r="DL7" s="12"/>
-      <c r="DM7" s="9"/>
-      <c r="DN7" s="9"/>
-      <c r="DO7" s="9"/>
-      <c r="DP7" s="9"/>
-      <c r="DQ7" s="12"/>
-      <c r="DR7" s="9"/>
-      <c r="DS7" s="9"/>
-      <c r="DT7" s="9"/>
-      <c r="DU7" s="9"/>
-      <c r="DV7" s="12"/>
-      <c r="DW7" s="9"/>
-      <c r="DX7" s="9"/>
-      <c r="DY7" s="9"/>
-      <c r="DZ7" s="9"/>
-      <c r="EA7" s="12"/>
-      <c r="EB7" s="9"/>
-      <c r="EC7" s="9"/>
-      <c r="ED7" s="9"/>
-      <c r="EE7" s="9"/>
-      <c r="EF7" s="12"/>
-      <c r="EG7" s="9"/>
-      <c r="EH7" s="9"/>
-      <c r="EI7" s="9"/>
-      <c r="EJ7" s="9"/>
-      <c r="EK7" s="12"/>
-      <c r="EL7" s="9"/>
-      <c r="EM7" s="9"/>
-      <c r="EN7" s="9"/>
-      <c r="EO7" s="9"/>
-      <c r="EP7" s="12"/>
-      <c r="EQ7" s="9"/>
-      <c r="ER7" s="9"/>
-      <c r="ES7" s="9"/>
-      <c r="ET7" s="9"/>
-      <c r="EU7" s="12"/>
-      <c r="EV7" s="9"/>
-      <c r="EW7" s="9"/>
-      <c r="EX7" s="9"/>
-      <c r="EY7" s="9"/>
-    </row>
-    <row r="8" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>1222</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="Q8" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="R8" s="1">
-        <v>5</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>1000</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>1224</v>
-      </c>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="9"/>
-      <c r="AF8" s="7"/>
-      <c r="AG8" s="4"/>
-      <c r="AH8" s="4"/>
-      <c r="AI8" s="4"/>
-      <c r="AJ8" s="4"/>
-      <c r="AK8" s="4">
-        <v>10</v>
-      </c>
-      <c r="AL8" s="4"/>
-      <c r="AM8" s="4" t="s">
-        <v>1223</v>
-      </c>
-      <c r="AN8" s="4" t="s">
-        <v>1222</v>
-      </c>
-      <c r="AO8" s="4" t="s">
-        <v>1014</v>
-      </c>
-      <c r="AP8" s="4"/>
-      <c r="AQ8" s="7"/>
-      <c r="AR8" s="4"/>
-      <c r="AS8" s="4"/>
-      <c r="AT8" s="4"/>
-      <c r="AU8" s="4" t="s">
-        <v>1223</v>
-      </c>
-      <c r="AV8" s="4">
-        <v>10</v>
-      </c>
-      <c r="AW8" s="4" t="s">
-        <v>1222</v>
-      </c>
-      <c r="AX8" s="4" t="s">
-        <v>1222</v>
-      </c>
-      <c r="AY8" s="4" t="s">
-        <v>1015</v>
-      </c>
-      <c r="AZ8" s="4"/>
-      <c r="BA8" s="7"/>
-      <c r="BB8" s="4"/>
-      <c r="BC8" s="4"/>
-      <c r="BD8" s="4"/>
-      <c r="BE8" s="4"/>
-      <c r="BF8" s="4"/>
-      <c r="BG8" s="4"/>
-      <c r="BH8" s="5"/>
-      <c r="BI8" s="5"/>
-      <c r="BJ8" s="8"/>
-      <c r="BK8" s="6"/>
-      <c r="BL8" s="6"/>
-      <c r="BM8" s="8"/>
-      <c r="BN8" s="6"/>
-      <c r="BO8" s="6"/>
-      <c r="CC8" s="12"/>
-      <c r="CD8" s="9"/>
-      <c r="CE8" s="9"/>
-      <c r="CF8" s="9"/>
-      <c r="CG8" s="9"/>
-      <c r="CH8" s="12"/>
-      <c r="CI8" s="9"/>
-      <c r="CJ8" s="9"/>
-      <c r="CK8" s="9"/>
-      <c r="CL8" s="9"/>
-      <c r="CM8" s="12"/>
-      <c r="CN8" s="9"/>
-      <c r="CO8" s="9"/>
-      <c r="CP8" s="9"/>
-      <c r="CQ8" s="9"/>
-      <c r="CR8" s="12"/>
-      <c r="CS8" s="9"/>
-      <c r="CT8" s="9"/>
-      <c r="CU8" s="9"/>
-      <c r="CV8" s="9"/>
-      <c r="CW8" s="12"/>
-      <c r="CX8" s="9"/>
-      <c r="CY8" s="9"/>
-      <c r="CZ8" s="9"/>
-      <c r="DA8" s="9"/>
-      <c r="DB8" s="12"/>
-      <c r="DC8" s="9"/>
-      <c r="DD8" s="9"/>
-      <c r="DE8" s="9"/>
-      <c r="DF8" s="9"/>
-      <c r="DG8" s="12"/>
-      <c r="DH8" s="9"/>
-      <c r="DI8" s="9"/>
-      <c r="DJ8" s="9"/>
-      <c r="DK8" s="9"/>
-      <c r="DL8" s="12"/>
-      <c r="DM8" s="9"/>
-      <c r="DN8" s="9"/>
-      <c r="DO8" s="9"/>
-      <c r="DP8" s="9"/>
-      <c r="DQ8" s="12"/>
-      <c r="DR8" s="9"/>
-      <c r="DS8" s="9"/>
-      <c r="DT8" s="9"/>
-      <c r="DU8" s="9"/>
-      <c r="DV8" s="12"/>
-      <c r="DW8" s="9"/>
-      <c r="DX8" s="9"/>
-      <c r="DY8" s="9"/>
-      <c r="DZ8" s="9"/>
-      <c r="EA8" s="12"/>
-      <c r="EB8" s="9"/>
-      <c r="EC8" s="9"/>
-      <c r="ED8" s="9"/>
-      <c r="EE8" s="9"/>
-      <c r="EF8" s="12"/>
-      <c r="EG8" s="9"/>
-      <c r="EH8" s="9"/>
-      <c r="EI8" s="9"/>
-      <c r="EJ8" s="9"/>
-      <c r="EK8" s="12"/>
-      <c r="EL8" s="9"/>
-      <c r="EM8" s="9"/>
-      <c r="EN8" s="9"/>
-      <c r="EO8" s="9"/>
-      <c r="EP8" s="12"/>
-      <c r="EQ8" s="9"/>
-      <c r="ER8" s="9"/>
-      <c r="ES8" s="9"/>
-      <c r="ET8" s="9"/>
-      <c r="EU8" s="12"/>
-      <c r="EV8" s="9"/>
-      <c r="EW8" s="9"/>
-      <c r="EX8" s="9"/>
-      <c r="EY8" s="9"/>
-    </row>
-    <row r="9" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>1225</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>1226</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="U9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>1000</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>1227</v>
-      </c>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="3"/>
-      <c r="AE9" s="9"/>
-      <c r="AF9" s="7"/>
-      <c r="AG9" s="4"/>
-      <c r="AH9" s="4"/>
-      <c r="AI9" s="4"/>
-      <c r="AJ9" s="4"/>
-      <c r="AK9" s="4">
-        <v>10</v>
-      </c>
-      <c r="AL9" s="4"/>
-      <c r="AM9" s="4" t="s">
-        <v>1228</v>
-      </c>
-      <c r="AN9" s="4" t="s">
-        <v>1225</v>
-      </c>
-      <c r="AO9" s="4" t="s">
-        <v>1014</v>
-      </c>
-      <c r="AP9" s="4"/>
-      <c r="AQ9" s="7"/>
-      <c r="AR9" s="4"/>
-      <c r="AS9" s="4"/>
-      <c r="AT9" s="4"/>
-      <c r="AU9" s="4"/>
-      <c r="AV9" s="4">
-        <v>10</v>
-      </c>
-      <c r="AW9" s="4" t="s">
-        <v>1225</v>
-      </c>
-      <c r="AX9" s="4" t="s">
-        <v>1225</v>
-      </c>
-      <c r="AY9" s="4" t="s">
-        <v>1015</v>
-      </c>
-      <c r="AZ9" s="4"/>
-      <c r="BA9" s="7"/>
-      <c r="BB9" s="4"/>
-      <c r="BC9" s="4"/>
-      <c r="BD9" s="4"/>
-      <c r="BE9" s="4"/>
-      <c r="BF9" s="4"/>
-      <c r="BG9" s="4"/>
-      <c r="BH9" s="5"/>
-      <c r="BI9" s="5"/>
-      <c r="BJ9" s="8"/>
-      <c r="BK9" s="6"/>
-      <c r="BL9" s="6"/>
-      <c r="BM9" s="8"/>
-      <c r="BN9" s="6"/>
-      <c r="BO9" s="6"/>
-      <c r="CC9" s="12"/>
-      <c r="CD9" s="9"/>
-      <c r="CE9" s="9"/>
-      <c r="CF9" s="9"/>
-      <c r="CG9" s="9"/>
-      <c r="CH9" s="12"/>
-      <c r="CI9" s="9"/>
-      <c r="CJ9" s="9"/>
-      <c r="CK9" s="9"/>
-      <c r="CL9" s="9"/>
-      <c r="CM9" s="12"/>
-      <c r="CN9" s="9"/>
-      <c r="CO9" s="9"/>
-      <c r="CP9" s="9"/>
-      <c r="CQ9" s="9"/>
-      <c r="CR9" s="12"/>
-      <c r="CS9" s="9"/>
-      <c r="CT9" s="9"/>
-      <c r="CU9" s="9"/>
-      <c r="CV9" s="9"/>
-      <c r="CW9" s="12"/>
-      <c r="CX9" s="9"/>
-      <c r="CY9" s="9"/>
-      <c r="CZ9" s="9"/>
-      <c r="DA9" s="9"/>
-      <c r="DB9" s="12"/>
-      <c r="DC9" s="9"/>
-      <c r="DD9" s="9"/>
-      <c r="DE9" s="9"/>
-      <c r="DF9" s="9"/>
-      <c r="DG9" s="12"/>
-      <c r="DH9" s="9"/>
-      <c r="DI9" s="9"/>
-      <c r="DJ9" s="9"/>
-      <c r="DK9" s="9"/>
-      <c r="DL9" s="12"/>
-      <c r="DM9" s="9"/>
-      <c r="DN9" s="9"/>
-      <c r="DO9" s="9"/>
-      <c r="DP9" s="9"/>
-      <c r="DQ9" s="12"/>
-      <c r="DR9" s="9"/>
-      <c r="DS9" s="9"/>
-      <c r="DT9" s="9"/>
-      <c r="DU9" s="9"/>
-      <c r="DV9" s="12"/>
-      <c r="DW9" s="9"/>
-      <c r="DX9" s="9"/>
-      <c r="DY9" s="9"/>
-      <c r="DZ9" s="9"/>
-      <c r="EA9" s="12"/>
-      <c r="EB9" s="9"/>
-      <c r="EC9" s="9"/>
-      <c r="ED9" s="9"/>
-      <c r="EE9" s="9"/>
-      <c r="EF9" s="12"/>
-      <c r="EG9" s="9"/>
-      <c r="EH9" s="9"/>
-      <c r="EI9" s="9"/>
-      <c r="EJ9" s="9"/>
-      <c r="EK9" s="12"/>
-      <c r="EL9" s="9"/>
-      <c r="EM9" s="9"/>
-      <c r="EN9" s="9"/>
-      <c r="EO9" s="9"/>
-      <c r="EP9" s="12"/>
-      <c r="EQ9" s="9"/>
-      <c r="ER9" s="9"/>
-      <c r="ES9" s="9"/>
-      <c r="ET9" s="9"/>
-      <c r="EU9" s="12"/>
-      <c r="EV9" s="9"/>
-      <c r="EW9" s="9"/>
-      <c r="EX9" s="9"/>
-      <c r="EY9" s="9"/>
-    </row>
-    <row r="10" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>1229</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>1245</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="U10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>1000</v>
-      </c>
-      <c r="X10" s="1" t="s">
-        <v>1230</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>1231</v>
-      </c>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3"/>
-      <c r="AC10" s="3"/>
-      <c r="AD10" s="3"/>
-      <c r="AE10" s="9"/>
-      <c r="AF10" s="7" t="s">
-        <v>1237</v>
-      </c>
-      <c r="AG10" s="4"/>
-      <c r="AH10" s="4"/>
-      <c r="AI10" s="4"/>
-      <c r="AJ10" s="4"/>
-      <c r="AK10" s="4">
-        <v>15</v>
-      </c>
-      <c r="AL10" s="4"/>
-      <c r="AM10" s="4" t="s">
-        <v>1229</v>
-      </c>
-      <c r="AN10" s="4" t="s">
-        <v>1229</v>
-      </c>
-      <c r="AO10" s="4" t="s">
-        <v>1014</v>
-      </c>
-      <c r="AP10" s="4"/>
-      <c r="AQ10" s="7" t="s">
-        <v>1236</v>
-      </c>
-      <c r="AR10" s="4"/>
-      <c r="AS10" s="4"/>
-      <c r="AT10" s="4"/>
-      <c r="AU10" s="4"/>
-      <c r="AV10" s="4">
-        <v>15</v>
-      </c>
-      <c r="AW10" s="4" t="s">
-        <v>1235</v>
-      </c>
-      <c r="AX10" s="4" t="s">
-        <v>1229</v>
-      </c>
-      <c r="AY10" s="4" t="s">
-        <v>1014</v>
-      </c>
-      <c r="AZ10" s="4"/>
-      <c r="BA10" s="7" t="s">
-        <v>1236</v>
-      </c>
-      <c r="BB10" s="4"/>
-      <c r="BC10" s="4"/>
-      <c r="BD10" s="4">
-        <v>15</v>
-      </c>
-      <c r="BE10" s="4" t="s">
-        <v>1229</v>
-      </c>
-      <c r="BF10" s="4" t="s">
-        <v>1229</v>
-      </c>
-      <c r="BG10" s="4" t="s">
-        <v>1015</v>
-      </c>
-      <c r="BH10" s="5"/>
-      <c r="BI10" s="5"/>
-      <c r="BJ10" s="8"/>
-      <c r="BK10" s="6"/>
-      <c r="BL10" s="6"/>
-      <c r="BM10" s="8"/>
-      <c r="BN10" s="6"/>
-      <c r="BO10" s="6"/>
-      <c r="CC10" s="12"/>
-      <c r="CD10" s="9"/>
-      <c r="CE10" s="9"/>
-      <c r="CF10" s="9"/>
-      <c r="CG10" s="9"/>
-      <c r="CH10" s="12"/>
-      <c r="CI10" s="9"/>
-      <c r="CJ10" s="9"/>
-      <c r="CK10" s="9"/>
-      <c r="CL10" s="9"/>
-      <c r="CM10" s="12"/>
-      <c r="CN10" s="9"/>
-      <c r="CO10" s="9"/>
-      <c r="CP10" s="9"/>
-      <c r="CQ10" s="9"/>
-      <c r="CR10" s="12"/>
-      <c r="CS10" s="9"/>
-      <c r="CT10" s="9"/>
-      <c r="CU10" s="9"/>
-      <c r="CV10" s="9"/>
-      <c r="CW10" s="12"/>
-      <c r="CX10" s="9"/>
-      <c r="CY10" s="9"/>
-      <c r="CZ10" s="9"/>
-      <c r="DA10" s="9"/>
-      <c r="DB10" s="12"/>
-      <c r="DC10" s="9"/>
-      <c r="DD10" s="9"/>
-      <c r="DE10" s="9"/>
-      <c r="DF10" s="9"/>
-      <c r="DG10" s="12"/>
-      <c r="DH10" s="9"/>
-      <c r="DI10" s="9"/>
-      <c r="DJ10" s="9"/>
-      <c r="DK10" s="9"/>
-      <c r="DL10" s="12"/>
-      <c r="DM10" s="9"/>
-      <c r="DN10" s="9"/>
-      <c r="DO10" s="9"/>
-      <c r="DP10" s="9"/>
-      <c r="DQ10" s="12"/>
-      <c r="DR10" s="9"/>
-      <c r="DS10" s="9"/>
-      <c r="DT10" s="9"/>
-      <c r="DU10" s="9"/>
-      <c r="DV10" s="12"/>
-      <c r="DW10" s="9"/>
-      <c r="DX10" s="9"/>
-      <c r="DY10" s="9"/>
-      <c r="DZ10" s="9"/>
-      <c r="EA10" s="12"/>
-      <c r="EB10" s="9"/>
-      <c r="EC10" s="9"/>
-      <c r="ED10" s="9"/>
-      <c r="EE10" s="9"/>
-      <c r="EF10" s="12"/>
-      <c r="EG10" s="9"/>
-      <c r="EH10" s="9"/>
-      <c r="EI10" s="9"/>
-      <c r="EJ10" s="9"/>
-      <c r="EK10" s="12"/>
-      <c r="EL10" s="9"/>
-      <c r="EM10" s="9"/>
-      <c r="EN10" s="9"/>
-      <c r="EO10" s="9"/>
-      <c r="EP10" s="12"/>
-      <c r="EQ10" s="9"/>
-      <c r="ER10" s="9"/>
-      <c r="ES10" s="9"/>
-      <c r="ET10" s="9"/>
-      <c r="EU10" s="12"/>
-      <c r="EV10" s="9"/>
-      <c r="EW10" s="9"/>
-      <c r="EX10" s="9"/>
-      <c r="EY10" s="9"/>
-    </row>
-    <row r="11" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>1232</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>1221</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="V11" s="1" t="s">
-        <v>1000</v>
-      </c>
-      <c r="Y11" s="1" t="s">
-        <v>1233</v>
-      </c>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
-      <c r="AD11" s="3"/>
-      <c r="AE11" s="9"/>
-      <c r="AF11" s="7"/>
-      <c r="AG11" s="4"/>
-      <c r="AH11" s="4"/>
-      <c r="AI11" s="4"/>
-      <c r="AJ11" s="4"/>
-      <c r="AK11" s="4">
-        <v>10</v>
-      </c>
-      <c r="AL11" s="4"/>
-      <c r="AM11" s="4" t="s">
-        <v>1234</v>
-      </c>
-      <c r="AN11" s="4" t="s">
-        <v>1232</v>
-      </c>
-      <c r="AO11" s="4" t="s">
-        <v>1014</v>
-      </c>
-      <c r="AP11" s="4"/>
-      <c r="AQ11" s="7"/>
-      <c r="AR11" s="4"/>
-      <c r="AS11" s="4"/>
-      <c r="AT11" s="4"/>
-      <c r="AU11" s="4" t="s">
-        <v>1234</v>
-      </c>
-      <c r="AV11" s="4">
-        <v>10</v>
-      </c>
-      <c r="AW11" s="4" t="s">
-        <v>1232</v>
-      </c>
-      <c r="AX11" s="4" t="s">
-        <v>1232</v>
-      </c>
-      <c r="AY11" s="4" t="s">
-        <v>1015</v>
-      </c>
-      <c r="AZ11" s="4"/>
-      <c r="BA11" s="7"/>
-      <c r="BB11" s="4"/>
-      <c r="BC11" s="4"/>
-      <c r="BD11" s="4"/>
-      <c r="BE11" s="4"/>
-      <c r="BF11" s="4"/>
-      <c r="BG11" s="4"/>
-      <c r="BH11" s="5"/>
-      <c r="BI11" s="5"/>
-      <c r="BJ11" s="8"/>
-      <c r="BK11" s="6"/>
-      <c r="BL11" s="6"/>
-      <c r="BM11" s="8"/>
-      <c r="BN11" s="6"/>
-      <c r="BO11" s="6"/>
-      <c r="CC11" s="12"/>
-      <c r="CD11" s="9"/>
-      <c r="CE11" s="9"/>
-      <c r="CF11" s="9"/>
-      <c r="CG11" s="9"/>
-      <c r="CH11" s="12"/>
-      <c r="CI11" s="9"/>
-      <c r="CJ11" s="9"/>
-      <c r="CK11" s="9"/>
-      <c r="CL11" s="9"/>
-      <c r="CM11" s="12"/>
-      <c r="CN11" s="9"/>
-      <c r="CO11" s="9"/>
-      <c r="CP11" s="9"/>
-      <c r="CQ11" s="9"/>
-      <c r="CR11" s="12"/>
-      <c r="CS11" s="9"/>
-      <c r="CT11" s="9"/>
-      <c r="CU11" s="9"/>
-      <c r="CV11" s="9"/>
-      <c r="CW11" s="12"/>
-      <c r="CX11" s="9"/>
-      <c r="CY11" s="9"/>
-      <c r="CZ11" s="9"/>
-      <c r="DA11" s="9"/>
-      <c r="DB11" s="12"/>
-      <c r="DC11" s="9"/>
-      <c r="DD11" s="9"/>
-      <c r="DE11" s="9"/>
-      <c r="DF11" s="9"/>
-      <c r="DG11" s="12"/>
-      <c r="DH11" s="9"/>
-      <c r="DI11" s="9"/>
-      <c r="DJ11" s="9"/>
-      <c r="DK11" s="9"/>
-      <c r="DL11" s="12"/>
-      <c r="DM11" s="9"/>
-      <c r="DN11" s="9"/>
-      <c r="DO11" s="9"/>
-      <c r="DP11" s="9"/>
-      <c r="DQ11" s="12"/>
-      <c r="DR11" s="9"/>
-      <c r="DS11" s="9"/>
-      <c r="DT11" s="9"/>
-      <c r="DU11" s="9"/>
-      <c r="DV11" s="12"/>
-      <c r="DW11" s="9"/>
-      <c r="DX11" s="9"/>
-      <c r="DY11" s="9"/>
-      <c r="DZ11" s="9"/>
-      <c r="EA11" s="12"/>
-      <c r="EB11" s="9"/>
-      <c r="EC11" s="9"/>
-      <c r="ED11" s="9"/>
-      <c r="EE11" s="9"/>
-      <c r="EF11" s="12"/>
-      <c r="EG11" s="9"/>
-      <c r="EH11" s="9"/>
-      <c r="EI11" s="9"/>
-      <c r="EJ11" s="9"/>
-      <c r="EK11" s="12"/>
-      <c r="EL11" s="9"/>
-      <c r="EM11" s="9"/>
-      <c r="EN11" s="9"/>
-      <c r="EO11" s="9"/>
-      <c r="EP11" s="12"/>
-      <c r="EQ11" s="9"/>
-      <c r="ER11" s="9"/>
-      <c r="ES11" s="9"/>
-      <c r="ET11" s="9"/>
-      <c r="EU11" s="12"/>
-      <c r="EV11" s="9"/>
-      <c r="EW11" s="9"/>
-      <c r="EX11" s="9"/>
-      <c r="EY11" s="9"/>
-    </row>
-    <row r="12" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>1241</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>1281</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="1" t="s">
-        <v>1238</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>1239</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>1240</v>
-      </c>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-      <c r="AE12" s="9"/>
-      <c r="AF12" s="7"/>
-      <c r="AG12" s="4"/>
-      <c r="AH12" s="4"/>
-      <c r="AI12" s="4"/>
-      <c r="AJ12" s="4"/>
-      <c r="AK12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="4"/>
-      <c r="AM12" s="4" t="s">
-        <v>1242</v>
-      </c>
-      <c r="AN12" s="4" t="s">
-        <v>1241</v>
-      </c>
-      <c r="AO12" s="4" t="s">
-        <v>1014</v>
-      </c>
-      <c r="AP12" s="4"/>
-      <c r="AQ12" s="7"/>
-      <c r="AR12" s="4"/>
-      <c r="AS12" s="4"/>
-      <c r="AT12" s="4"/>
-      <c r="AU12" s="4"/>
-      <c r="AV12" s="4"/>
-      <c r="AW12" s="4"/>
-      <c r="AX12" s="4"/>
-      <c r="AY12" s="4"/>
-      <c r="AZ12" s="4"/>
-      <c r="BA12" s="7"/>
-      <c r="BB12" s="4"/>
-      <c r="BC12" s="4"/>
-      <c r="BD12" s="4"/>
-      <c r="BE12" s="4"/>
-      <c r="BF12" s="4"/>
-      <c r="BG12" s="4"/>
-      <c r="BH12" s="5"/>
-      <c r="BI12" s="5"/>
-      <c r="BJ12" s="8"/>
-      <c r="BK12" s="6"/>
-      <c r="BL12" s="6"/>
-      <c r="BM12" s="8"/>
-      <c r="BN12" s="6"/>
-      <c r="BO12" s="6"/>
-      <c r="CC12" s="12"/>
-      <c r="CD12" s="9"/>
-      <c r="CE12" s="9"/>
-      <c r="CF12" s="9"/>
-      <c r="CG12" s="9"/>
-      <c r="CH12" s="12"/>
-      <c r="CI12" s="9"/>
-      <c r="CJ12" s="9"/>
-      <c r="CK12" s="9"/>
-      <c r="CL12" s="9"/>
-      <c r="CM12" s="12"/>
-      <c r="CN12" s="9"/>
-      <c r="CO12" s="9"/>
-      <c r="CP12" s="9"/>
-      <c r="CQ12" s="9"/>
-      <c r="CR12" s="12"/>
-      <c r="CS12" s="9"/>
-      <c r="CT12" s="9"/>
-      <c r="CU12" s="9"/>
-      <c r="CV12" s="9"/>
-      <c r="CW12" s="12"/>
-      <c r="CX12" s="9"/>
-      <c r="CY12" s="9"/>
-      <c r="CZ12" s="9"/>
-      <c r="DA12" s="9"/>
-      <c r="DB12" s="12"/>
-      <c r="DC12" s="9"/>
-      <c r="DD12" s="9"/>
-      <c r="DE12" s="9"/>
-      <c r="DF12" s="9"/>
-      <c r="DG12" s="12"/>
-      <c r="DH12" s="9"/>
-      <c r="DI12" s="9"/>
-      <c r="DJ12" s="9"/>
-      <c r="DK12" s="9"/>
-      <c r="DL12" s="12"/>
-      <c r="DM12" s="9"/>
-      <c r="DN12" s="9"/>
-      <c r="DO12" s="9"/>
-      <c r="DP12" s="9"/>
-      <c r="DQ12" s="12"/>
-      <c r="DR12" s="9"/>
-      <c r="DS12" s="9"/>
-      <c r="DT12" s="9"/>
-      <c r="DU12" s="9"/>
-      <c r="DV12" s="12"/>
-      <c r="DW12" s="9"/>
-      <c r="DX12" s="9"/>
-      <c r="DY12" s="9"/>
-      <c r="DZ12" s="9"/>
-      <c r="EA12" s="12"/>
-      <c r="EB12" s="9"/>
-      <c r="EC12" s="9"/>
-      <c r="ED12" s="9"/>
-      <c r="EE12" s="9"/>
-      <c r="EF12" s="12"/>
-      <c r="EG12" s="9"/>
-      <c r="EH12" s="9"/>
-      <c r="EI12" s="9"/>
-      <c r="EJ12" s="9"/>
-      <c r="EK12" s="12"/>
-      <c r="EL12" s="9"/>
-      <c r="EM12" s="9"/>
-      <c r="EN12" s="9"/>
-      <c r="EO12" s="9"/>
-      <c r="EP12" s="12"/>
-      <c r="EQ12" s="9"/>
-      <c r="ER12" s="9"/>
-      <c r="ES12" s="9"/>
-      <c r="ET12" s="9"/>
-      <c r="EU12" s="12"/>
-      <c r="EV12" s="9"/>
-      <c r="EW12" s="9"/>
-      <c r="EX12" s="9"/>
-      <c r="EY12" s="9"/>
-    </row>
-    <row r="13" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>1243</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="V13" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="Y13" s="1" t="s">
-        <v>1250</v>
-      </c>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
-      <c r="AD13" s="3"/>
-      <c r="AE13" s="9"/>
-      <c r="AF13" s="7"/>
-      <c r="AG13" s="4"/>
-      <c r="AH13" s="4"/>
-      <c r="AI13" s="4"/>
-      <c r="AJ13" s="4"/>
-      <c r="AK13" s="4">
-        <v>100</v>
-      </c>
-      <c r="AL13" s="4"/>
-      <c r="AM13" s="4" t="s">
-        <v>1244</v>
-      </c>
-      <c r="AN13" s="4" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AO13" s="4"/>
-      <c r="AP13" s="4"/>
-      <c r="AQ13" s="7"/>
-      <c r="AR13" s="4"/>
-      <c r="AS13" s="4"/>
-      <c r="AT13" s="4"/>
-      <c r="AU13" s="4"/>
-      <c r="AV13" s="4"/>
-      <c r="AW13" s="4"/>
-      <c r="AX13" s="4"/>
-      <c r="AY13" s="4"/>
-      <c r="AZ13" s="4"/>
-      <c r="BA13" s="7"/>
-      <c r="BB13" s="4"/>
-      <c r="BC13" s="4"/>
-      <c r="BD13" s="4"/>
-      <c r="BE13" s="4"/>
-      <c r="BF13" s="4"/>
-      <c r="BG13" s="4"/>
-      <c r="BH13" s="5"/>
-      <c r="BI13" s="5"/>
-      <c r="BJ13" s="8"/>
-      <c r="BK13" s="6"/>
-      <c r="BL13" s="6"/>
-      <c r="BM13" s="8"/>
-      <c r="BN13" s="6"/>
-      <c r="BO13" s="6"/>
-      <c r="CC13" s="12"/>
-      <c r="CD13" s="9"/>
-      <c r="CE13" s="9"/>
-      <c r="CF13" s="9"/>
-      <c r="CG13" s="9"/>
-      <c r="CH13" s="12"/>
-      <c r="CI13" s="9"/>
-      <c r="CJ13" s="9"/>
-      <c r="CK13" s="9"/>
-      <c r="CL13" s="9"/>
-      <c r="CM13" s="12"/>
-      <c r="CN13" s="9"/>
-      <c r="CO13" s="9"/>
-      <c r="CP13" s="9"/>
-      <c r="CQ13" s="9"/>
-      <c r="CR13" s="12"/>
-      <c r="CS13" s="9"/>
-      <c r="CT13" s="9"/>
-      <c r="CU13" s="9"/>
-      <c r="CV13" s="9"/>
-      <c r="CW13" s="12"/>
-      <c r="CX13" s="9"/>
-      <c r="CY13" s="9"/>
-      <c r="CZ13" s="9"/>
-      <c r="DA13" s="9"/>
-      <c r="DB13" s="12"/>
-      <c r="DC13" s="9"/>
-      <c r="DD13" s="9"/>
-      <c r="DE13" s="9"/>
-      <c r="DF13" s="9"/>
-      <c r="DG13" s="12"/>
-      <c r="DH13" s="9"/>
-      <c r="DI13" s="9"/>
-      <c r="DJ13" s="9"/>
-      <c r="DK13" s="9"/>
-      <c r="DL13" s="12"/>
-      <c r="DM13" s="9"/>
-      <c r="DN13" s="9"/>
-      <c r="DO13" s="9"/>
-      <c r="DP13" s="9"/>
-      <c r="DQ13" s="12"/>
-      <c r="DR13" s="9"/>
-      <c r="DS13" s="9"/>
-      <c r="DT13" s="9"/>
-      <c r="DU13" s="9"/>
-      <c r="DV13" s="12"/>
-      <c r="DW13" s="9"/>
-      <c r="DX13" s="9"/>
-      <c r="DY13" s="9"/>
-      <c r="DZ13" s="9"/>
-      <c r="EA13" s="12"/>
-      <c r="EB13" s="9"/>
-      <c r="EC13" s="9"/>
-      <c r="ED13" s="9"/>
-      <c r="EE13" s="9"/>
-      <c r="EF13" s="12"/>
-      <c r="EG13" s="9"/>
-      <c r="EH13" s="9"/>
-      <c r="EI13" s="9"/>
-      <c r="EJ13" s="9"/>
-      <c r="EK13" s="12"/>
-      <c r="EL13" s="9"/>
-      <c r="EM13" s="9"/>
-      <c r="EN13" s="9"/>
-      <c r="EO13" s="9"/>
-      <c r="EP13" s="12"/>
-      <c r="EQ13" s="9"/>
-      <c r="ER13" s="9"/>
-      <c r="ES13" s="9"/>
-      <c r="ET13" s="9"/>
-      <c r="EU13" s="12"/>
-      <c r="EV13" s="9"/>
-      <c r="EW13" s="9"/>
-      <c r="EX13" s="9"/>
-      <c r="EY13" s="9"/>
-    </row>
-    <row r="14" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>1247</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="V14" s="1" t="s">
-        <v>1000</v>
-      </c>
-      <c r="Y14" s="1" t="s">
-        <v>1249</v>
-      </c>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
-      <c r="AD14" s="3"/>
-      <c r="AE14" s="9">
-        <v>-1</v>
-      </c>
-      <c r="AF14" s="7"/>
-      <c r="AG14" s="4"/>
-      <c r="AH14" s="4"/>
-      <c r="AI14" s="4"/>
-      <c r="AJ14" s="4"/>
-      <c r="AK14" s="4">
-        <v>-1</v>
-      </c>
-      <c r="AL14" s="4"/>
-      <c r="AM14" s="4" t="s">
-        <v>1248</v>
-      </c>
-      <c r="AN14" s="4" t="s">
-        <v>1247</v>
-      </c>
-      <c r="AO14" s="4"/>
-      <c r="AP14" s="4"/>
-      <c r="AQ14" s="7"/>
-      <c r="AR14" s="4"/>
-      <c r="AS14" s="4"/>
-      <c r="AT14" s="4"/>
-      <c r="AU14" s="4"/>
-      <c r="AV14" s="4"/>
-      <c r="AW14" s="4"/>
-      <c r="AX14" s="4"/>
-      <c r="AY14" s="4"/>
-      <c r="AZ14" s="4"/>
-      <c r="BA14" s="7"/>
-      <c r="BB14" s="4"/>
-      <c r="BC14" s="4"/>
-      <c r="BD14" s="4"/>
-      <c r="BE14" s="4"/>
-      <c r="BF14" s="4"/>
-      <c r="BG14" s="4"/>
-      <c r="BH14" s="5"/>
-      <c r="BI14" s="5"/>
-      <c r="BJ14" s="8"/>
-      <c r="BK14" s="6"/>
-      <c r="BL14" s="6"/>
-      <c r="BM14" s="8"/>
-      <c r="BN14" s="6"/>
-      <c r="BO14" s="6"/>
-      <c r="CC14" s="12"/>
-      <c r="CD14" s="9"/>
-      <c r="CE14" s="9"/>
-      <c r="CF14" s="9"/>
-      <c r="CG14" s="9"/>
-      <c r="CH14" s="12"/>
-      <c r="CI14" s="9"/>
-      <c r="CJ14" s="9"/>
-      <c r="CK14" s="9"/>
-      <c r="CL14" s="9"/>
-      <c r="CM14" s="12"/>
-      <c r="CN14" s="9"/>
-      <c r="CO14" s="9"/>
-      <c r="CP14" s="9"/>
-      <c r="CQ14" s="9"/>
-      <c r="CR14" s="12"/>
-      <c r="CS14" s="9"/>
-      <c r="CT14" s="9"/>
-      <c r="CU14" s="9"/>
-      <c r="CV14" s="9"/>
-      <c r="CW14" s="12"/>
-      <c r="CX14" s="9"/>
-      <c r="CY14" s="9"/>
-      <c r="CZ14" s="9"/>
-      <c r="DA14" s="9"/>
-      <c r="DB14" s="12"/>
-      <c r="DC14" s="9"/>
-      <c r="DD14" s="9"/>
-      <c r="DE14" s="9"/>
-      <c r="DF14" s="9"/>
-      <c r="DG14" s="12"/>
-      <c r="DH14" s="9"/>
-      <c r="DI14" s="9"/>
-      <c r="DJ14" s="9"/>
-      <c r="DK14" s="9"/>
-      <c r="DL14" s="12"/>
-      <c r="DM14" s="9"/>
-      <c r="DN14" s="9"/>
-      <c r="DO14" s="9"/>
-      <c r="DP14" s="9"/>
-      <c r="DQ14" s="12"/>
-      <c r="DR14" s="9"/>
-      <c r="DS14" s="9"/>
-      <c r="DT14" s="9"/>
-      <c r="DU14" s="9"/>
-      <c r="DV14" s="12"/>
-      <c r="DW14" s="9"/>
-      <c r="DX14" s="9"/>
-      <c r="DY14" s="9"/>
-      <c r="DZ14" s="9"/>
-      <c r="EA14" s="12"/>
-      <c r="EB14" s="9"/>
-      <c r="EC14" s="9"/>
-      <c r="ED14" s="9"/>
-      <c r="EE14" s="9"/>
-      <c r="EF14" s="12"/>
-      <c r="EG14" s="9"/>
-      <c r="EH14" s="9"/>
-      <c r="EI14" s="9"/>
-      <c r="EJ14" s="9"/>
-      <c r="EK14" s="12"/>
-      <c r="EL14" s="9"/>
-      <c r="EM14" s="9"/>
-      <c r="EN14" s="9"/>
-      <c r="EO14" s="9"/>
-      <c r="EP14" s="12"/>
-      <c r="EQ14" s="9"/>
-      <c r="ER14" s="9"/>
-      <c r="ES14" s="9"/>
-      <c r="ET14" s="9"/>
-      <c r="EU14" s="12"/>
-      <c r="EV14" s="9"/>
-      <c r="EW14" s="9"/>
-      <c r="EX14" s="9"/>
-      <c r="EY14" s="9"/>
-    </row>
-    <row r="15" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>1246</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="V15" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="Y15" s="1" t="s">
-        <v>1251</v>
-      </c>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
-      <c r="AD15" s="3"/>
-      <c r="AE15" s="9"/>
-      <c r="AF15" s="7"/>
-      <c r="AG15" s="4"/>
-      <c r="AH15" s="4"/>
-      <c r="AI15" s="4"/>
-      <c r="AJ15" s="4"/>
-      <c r="AK15" s="4">
-        <v>100</v>
-      </c>
-      <c r="AL15" s="4"/>
-      <c r="AM15" s="4" t="s">
-        <v>1244</v>
-      </c>
-      <c r="AN15" s="4" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AO15" s="4"/>
-      <c r="AP15" s="4"/>
-      <c r="AQ15" s="7"/>
-      <c r="AR15" s="4"/>
-      <c r="AS15" s="4"/>
-      <c r="AT15" s="4"/>
-      <c r="AU15" s="4"/>
-      <c r="AV15" s="4"/>
-      <c r="AW15" s="4"/>
-      <c r="AX15" s="4"/>
-      <c r="AY15" s="4"/>
-      <c r="AZ15" s="4"/>
-      <c r="BA15" s="7"/>
-      <c r="BB15" s="4"/>
-      <c r="BC15" s="4"/>
-      <c r="BD15" s="4"/>
-      <c r="BE15" s="4"/>
-      <c r="BF15" s="4"/>
-      <c r="BG15" s="4"/>
-      <c r="BH15" s="5"/>
-      <c r="BI15" s="5"/>
-      <c r="BJ15" s="8"/>
-      <c r="BK15" s="6"/>
-      <c r="BL15" s="6"/>
-      <c r="BM15" s="8"/>
-      <c r="BN15" s="6"/>
-      <c r="BO15" s="6"/>
-      <c r="CC15" s="12"/>
-      <c r="CD15" s="9"/>
-      <c r="CE15" s="9"/>
-      <c r="CF15" s="9"/>
-      <c r="CG15" s="9"/>
-      <c r="CH15" s="12"/>
-      <c r="CI15" s="9"/>
-      <c r="CJ15" s="9"/>
-      <c r="CK15" s="9"/>
-      <c r="CL15" s="9"/>
-      <c r="CM15" s="12"/>
-      <c r="CN15" s="9"/>
-      <c r="CO15" s="9"/>
-      <c r="CP15" s="9"/>
-      <c r="CQ15" s="9"/>
-      <c r="CR15" s="12"/>
-      <c r="CS15" s="9"/>
-      <c r="CT15" s="9"/>
-      <c r="CU15" s="9"/>
-      <c r="CV15" s="9"/>
-      <c r="CW15" s="12"/>
-      <c r="CX15" s="9"/>
-      <c r="CY15" s="9"/>
-      <c r="CZ15" s="9"/>
-      <c r="DA15" s="9"/>
-      <c r="DB15" s="12"/>
-      <c r="DC15" s="9"/>
-      <c r="DD15" s="9"/>
-      <c r="DE15" s="9"/>
-      <c r="DF15" s="9"/>
-      <c r="DG15" s="12"/>
-      <c r="DH15" s="9"/>
-      <c r="DI15" s="9"/>
-      <c r="DJ15" s="9"/>
-      <c r="DK15" s="9"/>
-      <c r="DL15" s="12"/>
-      <c r="DM15" s="9"/>
-      <c r="DN15" s="9"/>
-      <c r="DO15" s="9"/>
-      <c r="DP15" s="9"/>
-      <c r="DQ15" s="12"/>
-      <c r="DR15" s="9"/>
-      <c r="DS15" s="9"/>
-      <c r="DT15" s="9"/>
-      <c r="DU15" s="9"/>
-      <c r="DV15" s="12"/>
-      <c r="DW15" s="9"/>
-      <c r="DX15" s="9"/>
-      <c r="DY15" s="9"/>
-      <c r="DZ15" s="9"/>
-      <c r="EA15" s="12"/>
-      <c r="EB15" s="9"/>
-      <c r="EC15" s="9"/>
-      <c r="ED15" s="9"/>
-      <c r="EE15" s="9"/>
-      <c r="EF15" s="12"/>
-      <c r="EG15" s="9"/>
-      <c r="EH15" s="9"/>
-      <c r="EI15" s="9"/>
-      <c r="EJ15" s="9"/>
-      <c r="EK15" s="12"/>
-      <c r="EL15" s="9"/>
-      <c r="EM15" s="9"/>
-      <c r="EN15" s="9"/>
-      <c r="EO15" s="9"/>
-      <c r="EP15" s="12"/>
-      <c r="EQ15" s="9"/>
-      <c r="ER15" s="9"/>
-      <c r="ES15" s="9"/>
-      <c r="ET15" s="9"/>
-      <c r="EU15" s="12"/>
-      <c r="EV15" s="9"/>
-      <c r="EW15" s="9"/>
-      <c r="EX15" s="9"/>
-      <c r="EY15" s="9"/>
-    </row>
-    <row r="16" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>1252</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="V16" s="1" t="s">
-        <v>1000</v>
-      </c>
-      <c r="Y16" s="1" t="s">
-        <v>1253</v>
-      </c>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="3"/>
-      <c r="AD16" s="3"/>
-      <c r="AE16" s="9"/>
-      <c r="AF16" s="7"/>
-      <c r="AG16" s="4"/>
-      <c r="AH16" s="4"/>
-      <c r="AI16" s="4"/>
-      <c r="AJ16" s="4"/>
-      <c r="AK16" s="4">
-        <v>100</v>
-      </c>
-      <c r="AL16" s="4"/>
-      <c r="AM16" s="4" t="s">
-        <v>1254</v>
-      </c>
-      <c r="AN16" s="4" t="s">
-        <v>1252</v>
-      </c>
-      <c r="AO16" s="4" t="s">
-        <v>1014</v>
-      </c>
-      <c r="AP16" s="4"/>
-      <c r="AQ16" s="7"/>
-      <c r="AR16" s="4"/>
-      <c r="AS16" s="4"/>
-      <c r="AT16" s="4"/>
-      <c r="AU16" s="4"/>
-      <c r="AV16" s="4">
-        <v>100</v>
-      </c>
-      <c r="AW16" s="4" t="s">
-        <v>1252</v>
-      </c>
-      <c r="AX16" s="4" t="s">
-        <v>1252</v>
-      </c>
-      <c r="AY16" s="4" t="s">
-        <v>1015</v>
-      </c>
-      <c r="AZ16" s="4"/>
-      <c r="BA16" s="7"/>
-      <c r="BB16" s="4"/>
-      <c r="BC16" s="4"/>
-      <c r="BD16" s="4"/>
-      <c r="BE16" s="4"/>
-      <c r="BF16" s="4"/>
-      <c r="BG16" s="4"/>
-      <c r="BH16" s="5"/>
-      <c r="BI16" s="5"/>
-      <c r="BJ16" s="8"/>
-      <c r="BK16" s="6"/>
-      <c r="BL16" s="6"/>
-      <c r="BM16" s="8"/>
-      <c r="BN16" s="6"/>
-      <c r="BO16" s="6"/>
-      <c r="CC16" s="12"/>
-      <c r="CD16" s="9"/>
-      <c r="CE16" s="9"/>
-      <c r="CF16" s="9"/>
-      <c r="CG16" s="9"/>
-      <c r="CH16" s="12"/>
-      <c r="CI16" s="9"/>
-      <c r="CJ16" s="9"/>
-      <c r="CK16" s="9"/>
-      <c r="CL16" s="9"/>
-      <c r="CM16" s="12"/>
-      <c r="CN16" s="9"/>
-      <c r="CO16" s="9"/>
-      <c r="CP16" s="9"/>
-      <c r="CQ16" s="9"/>
-      <c r="CR16" s="12"/>
-      <c r="CS16" s="9"/>
-      <c r="CT16" s="9"/>
-      <c r="CU16" s="9"/>
-      <c r="CV16" s="9"/>
-      <c r="CW16" s="12"/>
-      <c r="CX16" s="9"/>
-      <c r="CY16" s="9"/>
-      <c r="CZ16" s="9"/>
-      <c r="DA16" s="9"/>
-      <c r="DB16" s="12"/>
-      <c r="DC16" s="9"/>
-      <c r="DD16" s="9"/>
-      <c r="DE16" s="9"/>
-      <c r="DF16" s="9"/>
-      <c r="DG16" s="12"/>
-      <c r="DH16" s="9"/>
-      <c r="DI16" s="9"/>
-      <c r="DJ16" s="9"/>
-      <c r="DK16" s="9"/>
-      <c r="DL16" s="12"/>
-      <c r="DM16" s="9"/>
-      <c r="DN16" s="9"/>
-      <c r="DO16" s="9"/>
-      <c r="DP16" s="9"/>
-      <c r="DQ16" s="12"/>
-      <c r="DR16" s="9"/>
-      <c r="DS16" s="9"/>
-      <c r="DT16" s="9"/>
-      <c r="DU16" s="9"/>
-      <c r="DV16" s="12"/>
-      <c r="DW16" s="9"/>
-      <c r="DX16" s="9"/>
-      <c r="DY16" s="9"/>
-      <c r="DZ16" s="9"/>
-      <c r="EA16" s="12"/>
-      <c r="EB16" s="9"/>
-      <c r="EC16" s="9"/>
-      <c r="ED16" s="9"/>
-      <c r="EE16" s="9"/>
-      <c r="EF16" s="12"/>
-      <c r="EG16" s="9"/>
-      <c r="EH16" s="9"/>
-      <c r="EI16" s="9"/>
-      <c r="EJ16" s="9"/>
-      <c r="EK16" s="12"/>
-      <c r="EL16" s="9"/>
-      <c r="EM16" s="9"/>
-      <c r="EN16" s="9"/>
-      <c r="EO16" s="9"/>
-      <c r="EP16" s="12"/>
-      <c r="EQ16" s="9"/>
-      <c r="ER16" s="9"/>
-      <c r="ES16" s="9"/>
-      <c r="ET16" s="9"/>
-      <c r="EU16" s="12"/>
-      <c r="EV16" s="9"/>
-      <c r="EW16" s="9"/>
-      <c r="EX16" s="9"/>
-      <c r="EY16" s="9"/>
-    </row>
-    <row r="17" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>1255</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>1257</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="V17" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="Y17" s="1" t="s">
-        <v>1256</v>
-      </c>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="9"/>
-      <c r="AF17" s="7"/>
-      <c r="AG17" s="4"/>
-      <c r="AH17" s="4"/>
-      <c r="AI17" s="4"/>
-      <c r="AJ17" s="4"/>
-      <c r="AK17" s="4"/>
-      <c r="AL17" s="4"/>
-      <c r="AM17" s="4"/>
-      <c r="AN17" s="4"/>
-      <c r="AO17" s="4"/>
-      <c r="AP17" s="4"/>
-      <c r="AQ17" s="7"/>
-      <c r="AR17" s="4"/>
-      <c r="AS17" s="4"/>
-      <c r="AT17" s="4"/>
-      <c r="AU17" s="4"/>
-      <c r="AV17" s="4"/>
-      <c r="AW17" s="4"/>
-      <c r="AX17" s="4"/>
-      <c r="AY17" s="4"/>
-      <c r="AZ17" s="4"/>
-      <c r="BA17" s="7"/>
-      <c r="BB17" s="4"/>
-      <c r="BC17" s="4"/>
-      <c r="BD17" s="4"/>
-      <c r="BE17" s="4"/>
-      <c r="BF17" s="4"/>
-      <c r="BG17" s="4"/>
-      <c r="BH17" s="5"/>
-      <c r="BI17" s="5"/>
-      <c r="BJ17" s="8"/>
-      <c r="BK17" s="6"/>
-      <c r="BL17" s="6"/>
-      <c r="BM17" s="8"/>
-      <c r="BN17" s="6"/>
-      <c r="BO17" s="6"/>
-      <c r="CC17" s="12"/>
-      <c r="CD17" s="9"/>
-      <c r="CE17" s="9"/>
-      <c r="CF17" s="9"/>
-      <c r="CG17" s="9"/>
-      <c r="CH17" s="12"/>
-      <c r="CI17" s="9"/>
-      <c r="CJ17" s="9"/>
-      <c r="CK17" s="9"/>
-      <c r="CL17" s="9"/>
-      <c r="CM17" s="12"/>
-      <c r="CN17" s="9"/>
-      <c r="CO17" s="9"/>
-      <c r="CP17" s="9"/>
-      <c r="CQ17" s="9"/>
-      <c r="CR17" s="12"/>
-      <c r="CS17" s="9"/>
-      <c r="CT17" s="9"/>
-      <c r="CU17" s="9"/>
-      <c r="CV17" s="9"/>
-      <c r="CW17" s="12"/>
-      <c r="CX17" s="9"/>
-      <c r="CY17" s="9"/>
-      <c r="CZ17" s="9"/>
-      <c r="DA17" s="9"/>
-      <c r="DB17" s="12"/>
-      <c r="DC17" s="9"/>
-      <c r="DD17" s="9"/>
-      <c r="DE17" s="9"/>
-      <c r="DF17" s="9"/>
-      <c r="DG17" s="12"/>
-      <c r="DH17" s="9"/>
-      <c r="DI17" s="9"/>
-      <c r="DJ17" s="9"/>
-      <c r="DK17" s="9"/>
-      <c r="DL17" s="12"/>
-      <c r="DM17" s="9"/>
-      <c r="DN17" s="9"/>
-      <c r="DO17" s="9"/>
-      <c r="DP17" s="9"/>
-      <c r="DQ17" s="12"/>
-      <c r="DR17" s="9"/>
-      <c r="DS17" s="9"/>
-      <c r="DT17" s="9"/>
-      <c r="DU17" s="9"/>
-      <c r="DV17" s="12"/>
-      <c r="DW17" s="9"/>
-      <c r="DX17" s="9"/>
-      <c r="DY17" s="9"/>
-      <c r="DZ17" s="9"/>
-      <c r="EA17" s="12"/>
-      <c r="EB17" s="9"/>
-      <c r="EC17" s="9"/>
-      <c r="ED17" s="9"/>
-      <c r="EE17" s="9"/>
-      <c r="EF17" s="12"/>
-      <c r="EG17" s="9"/>
-      <c r="EH17" s="9"/>
-      <c r="EI17" s="9"/>
-      <c r="EJ17" s="9"/>
-      <c r="EK17" s="12"/>
-      <c r="EL17" s="9"/>
-      <c r="EM17" s="9"/>
-      <c r="EN17" s="9"/>
-      <c r="EO17" s="9"/>
-      <c r="EP17" s="12"/>
-      <c r="EQ17" s="9"/>
-      <c r="ER17" s="9"/>
-      <c r="ES17" s="9"/>
-      <c r="ET17" s="9"/>
-      <c r="EU17" s="12"/>
-      <c r="EV17" s="9"/>
-      <c r="EW17" s="9"/>
-      <c r="EX17" s="9"/>
-      <c r="EY17" s="9"/>
-    </row>
-    <row r="18" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>1259</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="O18" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>1258</v>
-      </c>
-      <c r="R18" s="1">
-        <v>144000</v>
-      </c>
-      <c r="V18" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="Y18" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="AA18" s="3" t="s">
-        <v>1261</v>
-      </c>
-      <c r="AB18" s="3" t="s">
-        <v>1262</v>
-      </c>
-      <c r="AC18" s="3" t="s">
-        <v>1263</v>
-      </c>
-      <c r="AD18" s="3" t="s">
-        <v>1264</v>
-      </c>
-      <c r="AE18" s="9"/>
-      <c r="AF18" s="7"/>
-      <c r="AG18" s="4"/>
-      <c r="AH18" s="4"/>
-      <c r="AI18" s="4"/>
-      <c r="AJ18" s="4"/>
-      <c r="AK18" s="4"/>
-      <c r="AL18" s="4"/>
-      <c r="AM18" s="4"/>
-      <c r="AN18" s="4"/>
-      <c r="AO18" s="4"/>
-      <c r="AP18" s="4"/>
-      <c r="AQ18" s="7"/>
-      <c r="AR18" s="4"/>
-      <c r="AS18" s="4"/>
-      <c r="AT18" s="4"/>
-      <c r="AU18" s="4"/>
-      <c r="AV18" s="4"/>
-      <c r="AW18" s="4"/>
-      <c r="AX18" s="4"/>
-      <c r="AY18" s="4"/>
-      <c r="AZ18" s="4"/>
-      <c r="BA18" s="7"/>
-      <c r="BB18" s="4"/>
-      <c r="BC18" s="4"/>
-      <c r="BD18" s="4"/>
-      <c r="BE18" s="4"/>
-      <c r="BF18" s="4"/>
-      <c r="BG18" s="4"/>
-      <c r="BH18" s="5"/>
-      <c r="BI18" s="5"/>
-      <c r="BJ18" s="8"/>
-      <c r="BK18" s="6"/>
-      <c r="BL18" s="6"/>
-      <c r="BM18" s="8"/>
-      <c r="BN18" s="6"/>
-      <c r="BO18" s="6"/>
-      <c r="BQ18" s="1">
-        <v>9</v>
-      </c>
-      <c r="BR18" s="1" t="s">
-        <v>1272</v>
-      </c>
-      <c r="BS18" s="1">
-        <v>9</v>
-      </c>
-      <c r="BT18" s="1" t="s">
-        <v>1265</v>
-      </c>
-      <c r="BU18" s="1">
-        <v>7</v>
-      </c>
-      <c r="BV18" s="1" t="s">
-        <v>1272</v>
-      </c>
-      <c r="BW18" s="1">
-        <v>7</v>
-      </c>
-      <c r="BX18" s="1" t="s">
-        <v>1265</v>
-      </c>
-      <c r="BY18" s="1">
-        <v>5</v>
-      </c>
-      <c r="BZ18" s="1" t="s">
-        <v>1272</v>
-      </c>
-      <c r="CA18" s="1">
-        <v>5</v>
-      </c>
-      <c r="CB18" s="1" t="s">
-        <v>1265</v>
-      </c>
-      <c r="CC18" s="12"/>
-      <c r="CD18" s="9"/>
-      <c r="CE18" s="9"/>
-      <c r="CF18" s="9"/>
-      <c r="CG18" s="9"/>
-      <c r="CH18" s="12"/>
-      <c r="CI18" s="9"/>
-      <c r="CJ18" s="9"/>
-      <c r="CK18" s="9"/>
-      <c r="CL18" s="9"/>
-      <c r="CM18" s="12"/>
-      <c r="CN18" s="9"/>
-      <c r="CO18" s="9"/>
-      <c r="CP18" s="9"/>
-      <c r="CQ18" s="9"/>
-      <c r="CR18" s="12"/>
-      <c r="CS18" s="9"/>
-      <c r="CT18" s="9"/>
-      <c r="CU18" s="9"/>
-      <c r="CV18" s="9"/>
-      <c r="CW18" s="12"/>
-      <c r="CX18" s="9"/>
-      <c r="CY18" s="9"/>
-      <c r="CZ18" s="9"/>
-      <c r="DA18" s="9"/>
-      <c r="DB18" s="12"/>
-      <c r="DC18" s="9"/>
-      <c r="DD18" s="9"/>
-      <c r="DE18" s="9"/>
-      <c r="DF18" s="9"/>
-      <c r="DG18" s="12"/>
-      <c r="DH18" s="9"/>
-      <c r="DI18" s="9"/>
-      <c r="DJ18" s="9"/>
-      <c r="DK18" s="9"/>
-      <c r="DL18" s="12"/>
-      <c r="DM18" s="9"/>
-      <c r="DN18" s="9"/>
-      <c r="DO18" s="9"/>
-      <c r="DP18" s="9"/>
-      <c r="DQ18" s="12"/>
-      <c r="DR18" s="9"/>
-      <c r="DS18" s="9"/>
-      <c r="DT18" s="9"/>
-      <c r="DU18" s="9"/>
-      <c r="DV18" s="12"/>
-      <c r="DW18" s="9"/>
-      <c r="DX18" s="9"/>
-      <c r="DY18" s="9"/>
-      <c r="DZ18" s="9"/>
-      <c r="EA18" s="12"/>
-      <c r="EB18" s="9"/>
-      <c r="EC18" s="9"/>
-      <c r="ED18" s="9"/>
-      <c r="EE18" s="9"/>
-      <c r="EF18" s="12"/>
-      <c r="EG18" s="9"/>
-      <c r="EH18" s="9"/>
-      <c r="EI18" s="9"/>
-      <c r="EJ18" s="9"/>
-      <c r="EK18" s="12"/>
-      <c r="EL18" s="9"/>
-      <c r="EM18" s="9"/>
-      <c r="EN18" s="9"/>
-      <c r="EO18" s="9"/>
-      <c r="EP18" s="12"/>
-      <c r="EQ18" s="9"/>
-      <c r="ER18" s="9"/>
-      <c r="ES18" s="9"/>
-      <c r="ET18" s="9"/>
-      <c r="EU18" s="12"/>
-      <c r="EV18" s="9"/>
-      <c r="EW18" s="9"/>
-      <c r="EX18" s="9"/>
-      <c r="EY18" s="9"/>
-    </row>
-    <row r="19" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>1259</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="1" t="s">
-        <v>1277</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>1278</v>
-      </c>
-      <c r="V19" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="Y19" s="1" t="s">
-        <v>1279</v>
-      </c>
-      <c r="AA19" s="3" t="s">
-        <v>1261</v>
-      </c>
-      <c r="AB19" s="3" t="s">
-        <v>1262</v>
-      </c>
-      <c r="AC19" s="3" t="s">
-        <v>1263</v>
-      </c>
-      <c r="AD19" s="3" t="s">
-        <v>1264</v>
-      </c>
-      <c r="AE19" s="9"/>
-      <c r="AF19" s="7"/>
-      <c r="AG19" s="4"/>
-      <c r="AH19" s="4"/>
-      <c r="AI19" s="4"/>
-      <c r="AJ19" s="4"/>
-      <c r="AK19" s="4"/>
-      <c r="AL19" s="4"/>
-      <c r="AM19" s="4"/>
-      <c r="AN19" s="4"/>
-      <c r="AO19" s="4"/>
-      <c r="AP19" s="4"/>
-      <c r="AQ19" s="7"/>
-      <c r="AR19" s="4"/>
-      <c r="AS19" s="4"/>
-      <c r="AT19" s="4"/>
-      <c r="AU19" s="4"/>
-      <c r="AV19" s="4"/>
-      <c r="AW19" s="4"/>
-      <c r="AX19" s="4"/>
-      <c r="AY19" s="4"/>
-      <c r="AZ19" s="4"/>
-      <c r="BA19" s="7"/>
-      <c r="BB19" s="4"/>
-      <c r="BC19" s="4"/>
-      <c r="BD19" s="4"/>
-      <c r="BE19" s="4"/>
-      <c r="BF19" s="4"/>
-      <c r="BG19" s="4"/>
-      <c r="BH19" s="5"/>
-      <c r="BI19" s="5"/>
-      <c r="BJ19" s="8"/>
-      <c r="BK19" s="6"/>
-      <c r="BL19" s="6"/>
-      <c r="BM19" s="8"/>
-      <c r="BN19" s="6"/>
-      <c r="BO19" s="6"/>
-      <c r="BQ19" s="1">
-        <v>9</v>
-      </c>
-      <c r="BR19" s="1" t="s">
-        <v>1272</v>
-      </c>
-      <c r="BS19" s="1">
-        <v>9</v>
-      </c>
-      <c r="BT19" s="1" t="s">
-        <v>1265</v>
-      </c>
-      <c r="BU19" s="1">
-        <v>7</v>
-      </c>
-      <c r="BV19" s="1" t="s">
-        <v>1272</v>
-      </c>
-      <c r="BW19" s="1">
-        <v>7</v>
-      </c>
-      <c r="BX19" s="1" t="s">
-        <v>1265</v>
-      </c>
-      <c r="BY19" s="1">
-        <v>5</v>
-      </c>
-      <c r="BZ19" s="1" t="s">
-        <v>1272</v>
-      </c>
-      <c r="CA19" s="1">
-        <v>5</v>
-      </c>
-      <c r="CB19" s="1" t="s">
-        <v>1265</v>
-      </c>
-      <c r="CC19" s="12"/>
-      <c r="CD19" s="9"/>
-      <c r="CE19" s="9"/>
-      <c r="CF19" s="9"/>
-      <c r="CG19" s="9"/>
-      <c r="CH19" s="12"/>
-      <c r="CI19" s="9"/>
-      <c r="CJ19" s="9"/>
-      <c r="CK19" s="9"/>
-      <c r="CL19" s="9"/>
-      <c r="CM19" s="12"/>
-      <c r="CN19" s="9"/>
-      <c r="CO19" s="9"/>
-      <c r="CP19" s="9"/>
-      <c r="CQ19" s="9"/>
-      <c r="CR19" s="12"/>
-      <c r="CS19" s="9"/>
-      <c r="CT19" s="9"/>
-      <c r="CU19" s="9"/>
-      <c r="CV19" s="9"/>
-      <c r="CW19" s="12"/>
-      <c r="CX19" s="9"/>
-      <c r="CY19" s="9"/>
-      <c r="CZ19" s="9"/>
-      <c r="DA19" s="9"/>
-      <c r="DB19" s="12"/>
-      <c r="DC19" s="9"/>
-      <c r="DD19" s="9"/>
-      <c r="DE19" s="9"/>
-      <c r="DF19" s="9"/>
-      <c r="DG19" s="12"/>
-      <c r="DH19" s="9"/>
-      <c r="DI19" s="9"/>
-      <c r="DJ19" s="9"/>
-      <c r="DK19" s="9"/>
-      <c r="DL19" s="12"/>
-      <c r="DM19" s="9"/>
-      <c r="DN19" s="9"/>
-      <c r="DO19" s="9"/>
-      <c r="DP19" s="9"/>
-      <c r="DQ19" s="12"/>
-      <c r="DR19" s="9"/>
-      <c r="DS19" s="9"/>
-      <c r="DT19" s="9"/>
-      <c r="DU19" s="9"/>
-      <c r="DV19" s="12"/>
-      <c r="DW19" s="9"/>
-      <c r="DX19" s="9"/>
-      <c r="DY19" s="9"/>
-      <c r="DZ19" s="9"/>
-      <c r="EA19" s="12"/>
-      <c r="EB19" s="9"/>
-      <c r="EC19" s="9"/>
-      <c r="ED19" s="9"/>
-      <c r="EE19" s="9"/>
-      <c r="EF19" s="12"/>
-      <c r="EG19" s="9"/>
-      <c r="EH19" s="9"/>
-      <c r="EI19" s="9"/>
-      <c r="EJ19" s="9"/>
-      <c r="EK19" s="12"/>
-      <c r="EL19" s="9"/>
-      <c r="EM19" s="9"/>
-      <c r="EN19" s="9"/>
-      <c r="EO19" s="9"/>
-      <c r="EP19" s="12"/>
-      <c r="EQ19" s="9"/>
-      <c r="ER19" s="9"/>
-      <c r="ES19" s="9"/>
-      <c r="ET19" s="9"/>
-      <c r="EU19" s="12"/>
-      <c r="EV19" s="9"/>
-      <c r="EW19" s="9"/>
-      <c r="EX19" s="9"/>
-      <c r="EY19" s="9"/>
-    </row>
-    <row r="20" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>1282</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="V20" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="Y20" s="1" t="s">
-        <v>1283</v>
-      </c>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
-      <c r="AC20" s="3"/>
-      <c r="AD20" s="3"/>
-      <c r="AE20" s="9"/>
-      <c r="AF20" s="7"/>
-      <c r="AG20" s="4"/>
-      <c r="AH20" s="4"/>
-      <c r="AI20" s="4"/>
-      <c r="AJ20" s="4"/>
-      <c r="AK20" s="4"/>
-      <c r="AL20" s="4"/>
-      <c r="AM20" s="4"/>
-      <c r="AN20" s="4"/>
-      <c r="AO20" s="4"/>
-      <c r="AP20" s="4"/>
-      <c r="AQ20" s="7"/>
-      <c r="AR20" s="4"/>
-      <c r="AS20" s="4"/>
-      <c r="AT20" s="4"/>
-      <c r="AU20" s="4"/>
-      <c r="AV20" s="4"/>
-      <c r="AW20" s="4"/>
-      <c r="AX20" s="4"/>
-      <c r="AY20" s="4"/>
-      <c r="AZ20" s="4"/>
-      <c r="BA20" s="7"/>
-      <c r="BB20" s="4"/>
-      <c r="BC20" s="4"/>
-      <c r="BD20" s="4"/>
-      <c r="BE20" s="4"/>
-      <c r="BF20" s="4"/>
-      <c r="BG20" s="4"/>
-      <c r="BH20" s="5"/>
-      <c r="BI20" s="5"/>
-      <c r="BJ20" s="8"/>
-      <c r="BK20" s="6"/>
-      <c r="BL20" s="6"/>
-      <c r="BM20" s="8"/>
-      <c r="BN20" s="6"/>
-      <c r="BO20" s="6"/>
-      <c r="CC20" s="12"/>
-      <c r="CD20" s="9"/>
-      <c r="CE20" s="9"/>
-      <c r="CF20" s="9"/>
-      <c r="CG20" s="9"/>
-      <c r="CH20" s="12"/>
-      <c r="CI20" s="9"/>
-      <c r="CJ20" s="9"/>
-      <c r="CK20" s="9"/>
-      <c r="CL20" s="9"/>
-      <c r="CM20" s="12"/>
-      <c r="CN20" s="9"/>
-      <c r="CO20" s="9"/>
-      <c r="CP20" s="9"/>
-      <c r="CQ20" s="9"/>
-      <c r="CR20" s="12"/>
-      <c r="CS20" s="9"/>
-      <c r="CT20" s="9"/>
-      <c r="CU20" s="9"/>
-      <c r="CV20" s="9"/>
-      <c r="CW20" s="12"/>
-      <c r="CX20" s="9"/>
-      <c r="CY20" s="9"/>
-      <c r="CZ20" s="9"/>
-      <c r="DA20" s="9"/>
-      <c r="DB20" s="12"/>
-      <c r="DC20" s="9"/>
-      <c r="DD20" s="9"/>
-      <c r="DE20" s="9"/>
-      <c r="DF20" s="9"/>
-      <c r="DG20" s="12"/>
-      <c r="DH20" s="9"/>
-      <c r="DI20" s="9"/>
-      <c r="DJ20" s="9"/>
-      <c r="DK20" s="9"/>
-      <c r="DL20" s="12"/>
-      <c r="DM20" s="9"/>
-      <c r="DN20" s="9"/>
-      <c r="DO20" s="9"/>
-      <c r="DP20" s="9"/>
-      <c r="DQ20" s="12"/>
-      <c r="DR20" s="9"/>
-      <c r="DS20" s="9"/>
-      <c r="DT20" s="9"/>
-      <c r="DU20" s="9"/>
-      <c r="DV20" s="12"/>
-      <c r="DW20" s="9"/>
-      <c r="DX20" s="9"/>
-      <c r="DY20" s="9"/>
-      <c r="DZ20" s="9"/>
-      <c r="EA20" s="12"/>
-      <c r="EB20" s="9"/>
-      <c r="EC20" s="9"/>
-      <c r="ED20" s="9"/>
-      <c r="EE20" s="9"/>
-      <c r="EF20" s="12"/>
-      <c r="EG20" s="9"/>
-      <c r="EH20" s="9"/>
-      <c r="EI20" s="9"/>
-      <c r="EJ20" s="9"/>
-      <c r="EK20" s="12"/>
-      <c r="EL20" s="9"/>
-      <c r="EM20" s="9"/>
-      <c r="EN20" s="9"/>
-      <c r="EO20" s="9"/>
-      <c r="EP20" s="12"/>
-      <c r="EQ20" s="9"/>
-      <c r="ER20" s="9"/>
-      <c r="ES20" s="9"/>
-      <c r="ET20" s="9"/>
-      <c r="EU20" s="12"/>
-      <c r="EV20" s="9"/>
-      <c r="EW20" s="9"/>
-      <c r="EX20" s="9"/>
-      <c r="EY20" s="9"/>
-    </row>
-    <row r="21" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>1284</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>1290</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>1287</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="V21" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="Y21" s="1" t="s">
-        <v>1286</v>
-      </c>
-      <c r="AA21" s="3"/>
-      <c r="AB21" s="3"/>
-      <c r="AC21" s="3"/>
-      <c r="AD21" s="3"/>
-      <c r="AE21" s="9"/>
-      <c r="AF21" s="7"/>
-      <c r="AG21" s="4"/>
-      <c r="AH21" s="4"/>
-      <c r="AI21" s="4"/>
-      <c r="AJ21" s="4"/>
-      <c r="AK21" s="4">
-        <v>-1</v>
-      </c>
-      <c r="AL21" s="4"/>
-      <c r="AM21" s="4" t="s">
-        <v>1284</v>
-      </c>
-      <c r="AN21" s="4" t="s">
-        <v>1284</v>
-      </c>
-      <c r="AO21" s="4"/>
-      <c r="AP21" s="4"/>
-      <c r="AQ21" s="7"/>
-      <c r="AR21" s="4"/>
-      <c r="AS21" s="4"/>
-      <c r="AT21" s="4"/>
-      <c r="AU21" s="4"/>
-      <c r="AV21" s="4"/>
-      <c r="AW21" s="4"/>
-      <c r="AX21" s="4"/>
-      <c r="AY21" s="4"/>
-      <c r="AZ21" s="4"/>
-      <c r="BA21" s="7"/>
-      <c r="BB21" s="4"/>
-      <c r="BC21" s="4"/>
-      <c r="BD21" s="4"/>
-      <c r="BE21" s="4"/>
-      <c r="BF21" s="4"/>
-      <c r="BG21" s="4"/>
-      <c r="BH21" s="5"/>
-      <c r="BI21" s="5"/>
-      <c r="BJ21" s="8"/>
-      <c r="BK21" s="6"/>
-      <c r="BL21" s="6"/>
-      <c r="BM21" s="8"/>
-      <c r="BN21" s="6"/>
-      <c r="BO21" s="6"/>
-      <c r="CC21" s="12"/>
-      <c r="CD21" s="9"/>
-      <c r="CE21" s="9"/>
-      <c r="CF21" s="9"/>
-      <c r="CG21" s="9"/>
-      <c r="CH21" s="12"/>
-      <c r="CI21" s="9"/>
-      <c r="CJ21" s="9"/>
-      <c r="CK21" s="9"/>
-      <c r="CL21" s="9"/>
-      <c r="CM21" s="12"/>
-      <c r="CN21" s="9"/>
-      <c r="CO21" s="9"/>
-      <c r="CP21" s="9"/>
-      <c r="CQ21" s="9"/>
-      <c r="CR21" s="12"/>
-      <c r="CS21" s="9"/>
-      <c r="CT21" s="9"/>
-      <c r="CU21" s="9"/>
-      <c r="CV21" s="9"/>
-      <c r="CW21" s="12"/>
-      <c r="CX21" s="9"/>
-      <c r="CY21" s="9"/>
-      <c r="CZ21" s="9"/>
-      <c r="DA21" s="9"/>
-      <c r="DB21" s="12"/>
-      <c r="DC21" s="9"/>
-      <c r="DD21" s="9"/>
-      <c r="DE21" s="9"/>
-      <c r="DF21" s="9"/>
-      <c r="DG21" s="12"/>
-      <c r="DH21" s="9"/>
-      <c r="DI21" s="9"/>
-      <c r="DJ21" s="9"/>
-      <c r="DK21" s="9"/>
-      <c r="DL21" s="12"/>
-      <c r="DM21" s="9"/>
-      <c r="DN21" s="9"/>
-      <c r="DO21" s="9"/>
-      <c r="DP21" s="9"/>
-      <c r="DQ21" s="12"/>
-      <c r="DR21" s="9"/>
-      <c r="DS21" s="9"/>
-      <c r="DT21" s="9"/>
-      <c r="DU21" s="9"/>
-      <c r="DV21" s="12"/>
-      <c r="DW21" s="9"/>
-      <c r="DX21" s="9"/>
-      <c r="DY21" s="9"/>
-      <c r="DZ21" s="9"/>
-      <c r="EA21" s="12"/>
-      <c r="EB21" s="9"/>
-      <c r="EC21" s="9"/>
-      <c r="ED21" s="9"/>
-      <c r="EE21" s="9"/>
-      <c r="EF21" s="12"/>
-      <c r="EG21" s="9"/>
-      <c r="EH21" s="9"/>
-      <c r="EI21" s="9"/>
-      <c r="EJ21" s="9"/>
-      <c r="EK21" s="12"/>
-      <c r="EL21" s="9"/>
-      <c r="EM21" s="9"/>
-      <c r="EN21" s="9"/>
-      <c r="EO21" s="9"/>
-      <c r="EP21" s="12"/>
-      <c r="EQ21" s="9"/>
-      <c r="ER21" s="9"/>
-      <c r="ES21" s="9"/>
-      <c r="ET21" s="9"/>
-      <c r="EU21" s="12"/>
-      <c r="EV21" s="9"/>
-      <c r="EW21" s="9"/>
-      <c r="EX21" s="9"/>
-      <c r="EY21" s="9"/>
-    </row>
-    <row r="22" spans="1:155" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>1285</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="Q22" s="1" t="s">
-        <v>1289</v>
-      </c>
-      <c r="R22" s="1">
-        <v>1000</v>
-      </c>
-      <c r="V22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="Y22" s="1" t="s">
-        <v>1288</v>
-      </c>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="3"/>
-      <c r="AD22" s="3"/>
-      <c r="AE22" s="9"/>
-      <c r="AF22" s="7"/>
-      <c r="AG22" s="4"/>
-      <c r="AH22" s="4"/>
-      <c r="AI22" s="4"/>
-      <c r="AJ22" s="4"/>
-      <c r="AK22" s="4"/>
-      <c r="AL22" s="4"/>
-      <c r="AM22" s="4"/>
-      <c r="AN22" s="4"/>
-      <c r="AO22" s="4"/>
-      <c r="AP22" s="4"/>
-      <c r="AQ22" s="7"/>
-      <c r="AR22" s="4"/>
-      <c r="AS22" s="4"/>
-      <c r="AT22" s="4"/>
-      <c r="AU22" s="4"/>
-      <c r="AV22" s="4"/>
-      <c r="AW22" s="4"/>
-      <c r="AX22" s="4"/>
-      <c r="AY22" s="4"/>
-      <c r="AZ22" s="4"/>
-      <c r="BA22" s="7"/>
-      <c r="BB22" s="4"/>
-      <c r="BC22" s="4"/>
-      <c r="BD22" s="4"/>
-      <c r="BE22" s="4"/>
-      <c r="BF22" s="4"/>
-      <c r="BG22" s="4"/>
-      <c r="BH22" s="5"/>
-      <c r="BI22" s="5"/>
-      <c r="BJ22" s="8"/>
-      <c r="BK22" s="6"/>
-      <c r="BL22" s="6"/>
-      <c r="BM22" s="8"/>
-      <c r="BN22" s="6"/>
-      <c r="BO22" s="6"/>
-      <c r="CC22" s="12"/>
-      <c r="CD22" s="9"/>
-      <c r="CE22" s="9"/>
-      <c r="CF22" s="9"/>
-      <c r="CG22" s="9"/>
-      <c r="CH22" s="12"/>
-      <c r="CI22" s="9"/>
-      <c r="CJ22" s="9"/>
-      <c r="CK22" s="9"/>
-      <c r="CL22" s="9"/>
-      <c r="CM22" s="12"/>
-      <c r="CN22" s="9"/>
-      <c r="CO22" s="9"/>
-      <c r="CP22" s="9"/>
-      <c r="CQ22" s="9"/>
-      <c r="CR22" s="12"/>
-      <c r="CS22" s="9"/>
-      <c r="CT22" s="9"/>
-      <c r="CU22" s="9"/>
-      <c r="CV22" s="9"/>
-      <c r="CW22" s="12"/>
-      <c r="CX22" s="9"/>
-      <c r="CY22" s="9"/>
-      <c r="CZ22" s="9"/>
-      <c r="DA22" s="9"/>
-      <c r="DB22" s="12"/>
-      <c r="DC22" s="9"/>
-      <c r="DD22" s="9"/>
-      <c r="DE22" s="9"/>
-      <c r="DF22" s="9"/>
-      <c r="DG22" s="12"/>
-      <c r="DH22" s="9"/>
-      <c r="DI22" s="9"/>
-      <c r="DJ22" s="9"/>
-      <c r="DK22" s="9"/>
-      <c r="DL22" s="12"/>
-      <c r="DM22" s="9"/>
-      <c r="DN22" s="9"/>
-      <c r="DO22" s="9"/>
-      <c r="DP22" s="9"/>
-      <c r="DQ22" s="12"/>
-      <c r="DR22" s="9"/>
-      <c r="DS22" s="9"/>
-      <c r="DT22" s="9"/>
-      <c r="DU22" s="9"/>
-      <c r="DV22" s="12"/>
-      <c r="DW22" s="9"/>
-      <c r="DX22" s="9"/>
-      <c r="DY22" s="9"/>
-      <c r="DZ22" s="9"/>
-      <c r="EA22" s="12"/>
-      <c r="EB22" s="9"/>
-      <c r="EC22" s="9"/>
-      <c r="ED22" s="9"/>
-      <c r="EE22" s="9"/>
-      <c r="EF22" s="12"/>
-      <c r="EG22" s="9"/>
-      <c r="EH22" s="9"/>
-      <c r="EI22" s="9"/>
-      <c r="EJ22" s="9"/>
-      <c r="EK22" s="12"/>
-      <c r="EL22" s="9"/>
-      <c r="EM22" s="9"/>
-      <c r="EN22" s="9"/>
-      <c r="EO22" s="9"/>
-      <c r="EP22" s="12"/>
-      <c r="EQ22" s="9"/>
-      <c r="ER22" s="9"/>
-      <c r="ES22" s="9"/>
-      <c r="ET22" s="9"/>
-      <c r="EU22" s="12"/>
-      <c r="EV22" s="9"/>
-      <c r="EW22" s="9"/>
-      <c r="EX22" s="9"/>
-      <c r="EY22" s="9"/>
+      <c r="EZ3" s="9"/>
+      <c r="FA3" s="9"/>
+      <c r="FB3" s="9"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="19" priority="78"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="U1">
-    <cfRule type="expression" dxfId="36" priority="32">
+    <cfRule type="expression" dxfId="18" priority="15">
       <formula>(COUNTA(1:1)=1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CC1:DZ1">
-    <cfRule type="expression" dxfId="35" priority="37">
+  <conditionalFormatting sqref="CF1:EC1">
+    <cfRule type="expression" dxfId="17" priority="17">
       <formula>(COUNTA(1:1)=1)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="34" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="ED1:EE1">
-    <cfRule type="expression" dxfId="33" priority="30">
+  <conditionalFormatting sqref="EG1:EH1">
+    <cfRule type="expression" dxfId="15" priority="13">
       <formula>(COUNTA(1:1)=1)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="32" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="EI1:EJ1">
-    <cfRule type="expression" dxfId="31" priority="28">
+  <conditionalFormatting sqref="EL1:EM1">
+    <cfRule type="expression" dxfId="13" priority="11">
       <formula>(COUNTA(1:1)=1)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="30" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="EN1:EO1">
-    <cfRule type="expression" dxfId="29" priority="26">
+  <conditionalFormatting sqref="EQ1:ER1">
+    <cfRule type="expression" dxfId="11" priority="9">
       <formula>(COUNTA(1:1)=1)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="28" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="ES1:ET1">
-    <cfRule type="expression" dxfId="27" priority="24">
+  <conditionalFormatting sqref="EV1:EW1">
+    <cfRule type="expression" dxfId="9" priority="7">
       <formula>(COUNTA(1:1)=1)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="26" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="EX1:EY1">
-    <cfRule type="expression" dxfId="25" priority="22">
+  <conditionalFormatting sqref="FA1:FB1">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>(COUNTA(1:1)=1)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="24" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:FB1">
+    <cfRule type="expression" dxfId="5" priority="19">
+      <formula>(COUNTA(1:1)=1)</formula>
+    </cfRule>
+    <cfRule type="duplicateValues" dxfId="4" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="23" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>NOT(ISERROR(FIND("(Caster)",A2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>ISBLANK(A3)</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="22" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="21" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="20" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="19" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="18" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="17" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="16" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="15" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="14" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="13" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="12" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="11" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="10" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="9" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18">
-    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:EY1">
-    <cfRule type="expression" dxfId="6" priority="39">
-      <formula>(COUNTA(1:1)=1)</formula>
-    </cfRule>
-    <cfRule type="duplicateValues" dxfId="5" priority="40"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A20">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A21">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="0" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/activities.xlsx
+++ b/activities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eb76e5660c890129/Personal/Projects/Design/PECS/work assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2058" documentId="13_ncr:40009_{E3EB266C-7612-416D-8781-7A2BED99FA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1C92AB1-474C-4A3F-8FC7-65FA4034CDCE}"/>
+  <xr:revisionPtr revIDLastSave="2062" documentId="13_ncr:40009_{E3EB266C-7612-416D-8781-7A2BED99FA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEB6AABE-356A-4172-BF77-307E863C4FE9}"/>
   <bookViews>
-    <workbookView xWindow="5370" yWindow="5370" windowWidth="57600" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="77040" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Work" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3519" uniqueCount="1314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3512" uniqueCount="1313">
   <si>
     <t>name</t>
   </si>
@@ -1996,9 +1996,6 @@
   </si>
   <si>
     <t>Detect Magic</t>
-  </si>
-  <si>
-    <t>SpellCast</t>
   </si>
   <si>
     <t>Effortless Concentration</t>
@@ -4648,7 +4645,24 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="42">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4832,6 +4846,23 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="6" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
@@ -4850,23 +4881,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5299,13 +5313,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:MP158"/>
+  <dimension ref="A1:MP156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="MH113" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="MP131" sqref="MP131"/>
+      <selection pane="bottomRight" activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5938,7 +5952,7 @@
         <v>614</v>
       </c>
       <c r="GZ1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="HA1" t="s">
         <v>616</v>
@@ -5956,427 +5970,427 @@
         <v>625</v>
       </c>
       <c r="HF1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="HG1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="HH1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="HI1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="HJ1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="HK1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="HL1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="HM1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="HN1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="HO1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="HP1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="HQ1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="HR1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="HS1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="HT1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="HU1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="HV1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="HW1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="HX1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="HY1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="HZ1" t="s">
+        <v>701</v>
+      </c>
+      <c r="IA1" t="s">
         <v>702</v>
       </c>
-      <c r="IA1" t="s">
-        <v>703</v>
-      </c>
       <c r="IB1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="IC1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="ID1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="IE1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="IF1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="IG1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="IH1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="II1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="IJ1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="IK1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="IL1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="IM1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="IN1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="IO1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="IP1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="IQ1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="IR1" t="s">
+        <v>760</v>
+      </c>
+      <c r="IS1" t="s">
         <v>761</v>
       </c>
-      <c r="IS1" t="s">
-        <v>762</v>
-      </c>
       <c r="IT1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="IU1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="IV1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="IW1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="IX1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="IY1" t="s">
+        <v>782</v>
+      </c>
+      <c r="IZ1" t="s">
         <v>783</v>
       </c>
-      <c r="IZ1" t="s">
-        <v>784</v>
-      </c>
       <c r="JA1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="JB1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="JC1" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="JD1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="JE1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="JF1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="JG1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="JH1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="JI1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="JJ1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="JK1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="JL1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="JM1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="JN1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="JO1" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="JP1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="JQ1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="JR1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="JS1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="JT1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="JU1" t="s">
+        <v>840</v>
+      </c>
+      <c r="JV1" t="s">
         <v>841</v>
       </c>
-      <c r="JV1" t="s">
+      <c r="JW1" t="s">
         <v>842</v>
       </c>
-      <c r="JW1" t="s">
+      <c r="JX1" t="s">
         <v>843</v>
       </c>
-      <c r="JX1" t="s">
+      <c r="JY1" t="s">
+        <v>876</v>
+      </c>
+      <c r="JZ1" t="s">
         <v>844</v>
       </c>
-      <c r="JY1" t="s">
-        <v>877</v>
-      </c>
-      <c r="JZ1" t="s">
+      <c r="KA1" t="s">
         <v>845</v>
       </c>
-      <c r="KA1" t="s">
+      <c r="KB1" t="s">
         <v>846</v>
       </c>
-      <c r="KB1" t="s">
+      <c r="KC1" t="s">
         <v>847</v>
       </c>
-      <c r="KC1" t="s">
+      <c r="KD1" t="s">
         <v>848</v>
       </c>
-      <c r="KD1" t="s">
+      <c r="KE1" t="s">
         <v>849</v>
       </c>
-      <c r="KE1" t="s">
+      <c r="KF1" t="s">
         <v>850</v>
       </c>
-      <c r="KF1" t="s">
+      <c r="KG1" t="s">
         <v>851</v>
       </c>
-      <c r="KG1" t="s">
+      <c r="KH1" t="s">
         <v>852</v>
       </c>
-      <c r="KH1" t="s">
+      <c r="KI1" t="s">
         <v>853</v>
       </c>
-      <c r="KI1" t="s">
+      <c r="KJ1" t="s">
         <v>854</v>
       </c>
-      <c r="KJ1" t="s">
+      <c r="KK1" t="s">
         <v>855</v>
       </c>
-      <c r="KK1" t="s">
+      <c r="KL1" t="s">
         <v>856</v>
       </c>
-      <c r="KL1" t="s">
+      <c r="KM1" t="s">
         <v>857</v>
       </c>
-      <c r="KM1" t="s">
+      <c r="KN1" t="s">
         <v>858</v>
       </c>
-      <c r="KN1" t="s">
+      <c r="KO1" t="s">
         <v>859</v>
       </c>
-      <c r="KO1" t="s">
+      <c r="KP1" t="s">
         <v>860</v>
       </c>
-      <c r="KP1" t="s">
+      <c r="KQ1" t="s">
         <v>861</v>
       </c>
-      <c r="KQ1" t="s">
+      <c r="KR1" t="s">
         <v>862</v>
       </c>
-      <c r="KR1" t="s">
+      <c r="KS1" t="s">
         <v>863</v>
       </c>
-      <c r="KS1" t="s">
+      <c r="KT1" t="s">
+        <v>928</v>
+      </c>
+      <c r="KU1" t="s">
         <v>864</v>
       </c>
-      <c r="KT1" t="s">
-        <v>929</v>
-      </c>
-      <c r="KU1" t="s">
+      <c r="KV1" t="s">
         <v>865</v>
       </c>
-      <c r="KV1" t="s">
+      <c r="KW1" t="s">
         <v>866</v>
       </c>
-      <c r="KW1" t="s">
+      <c r="KX1" t="s">
         <v>867</v>
       </c>
-      <c r="KX1" t="s">
+      <c r="KY1" t="s">
         <v>868</v>
       </c>
-      <c r="KY1" t="s">
+      <c r="KZ1" t="s">
         <v>869</v>
       </c>
-      <c r="KZ1" t="s">
-        <v>870</v>
-      </c>
       <c r="LA1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="LB1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="LC1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="LD1" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="LE1" t="s">
+        <v>953</v>
+      </c>
+      <c r="LF1" t="s">
         <v>954</v>
       </c>
-      <c r="LF1" t="s">
+      <c r="LG1" t="s">
         <v>955</v>
       </c>
-      <c r="LG1" t="s">
-        <v>956</v>
-      </c>
       <c r="LH1" t="s">
+        <v>959</v>
+      </c>
+      <c r="LI1" t="s">
         <v>960</v>
       </c>
-      <c r="LI1" t="s">
+      <c r="LJ1" t="s">
         <v>961</v>
       </c>
-      <c r="LJ1" t="s">
+      <c r="LK1" t="s">
         <v>962</v>
       </c>
-      <c r="LK1" t="s">
+      <c r="LL1" t="s">
+        <v>964</v>
+      </c>
+      <c r="LM1" t="s">
         <v>963</v>
       </c>
-      <c r="LL1" t="s">
-        <v>965</v>
-      </c>
-      <c r="LM1" t="s">
-        <v>964</v>
-      </c>
       <c r="LN1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="LO1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="LP1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="LQ1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="LR1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="LS1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="LT1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="LU1" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="LV1" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="LW1" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="LX1" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="LY1" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="LZ1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="MA1" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="MB1" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="MC1" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="MD1" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="ME1" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="MF1" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="MG1" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="MH1" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="MI1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="MJ1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="MK1" t="s">
         <v>1283</v>
       </c>
-      <c r="MK1" t="s">
-        <v>1284</v>
-      </c>
       <c r="ML1" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="MM1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="MN1" t="s">
         <v>1276</v>
       </c>
-      <c r="MN1" t="s">
-        <v>1277</v>
-      </c>
       <c r="MO1" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="MP1" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="2" spans="1:354" x14ac:dyDescent="0.25">
@@ -7170,7 +7184,7 @@
         <v>127</v>
       </c>
       <c r="JE2" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="JF2" s="1" t="s">
         <v>71</v>
@@ -7433,7 +7447,7 @@
         <v>272</v>
       </c>
       <c r="BM3" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="BR3" s="1" t="s">
         <v>303</v>
@@ -7538,103 +7552,103 @@
         <v>507</v>
       </c>
       <c r="GV3" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="GX3" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="HB3" s="1" t="s">
         <v>1006</v>
       </c>
-      <c r="GX3" s="1" t="s">
-        <v>1211</v>
-      </c>
-      <c r="HB3" s="1" t="s">
-        <v>1007</v>
-      </c>
       <c r="HG3" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="HL3" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="HY3" s="1" t="s">
         <v>1009</v>
       </c>
-      <c r="HY3" s="1" t="s">
-        <v>1010</v>
-      </c>
       <c r="ID3" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="II3" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="IL3" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="IT3" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="JE3" s="1" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="JL3" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="JR3" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="JW3" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="JZ3" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="KT3" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="KY3" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="LF3" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="LK3" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="LO3" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="LP3" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="LR3" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="LU3" s="1" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="LV3" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="LW3" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="LX3" s="1" t="s">
         <v>1219</v>
       </c>
-      <c r="LW3" s="1" t="s">
+      <c r="MA3" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="MB3" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="MC3" s="1" t="s">
         <v>1219</v>
       </c>
-      <c r="LX3" s="1" t="s">
-        <v>1220</v>
-      </c>
-      <c r="MA3" s="1" t="s">
-        <v>1225</v>
-      </c>
-      <c r="MB3" s="1" t="s">
-        <v>1299</v>
-      </c>
-      <c r="MC3" s="1" t="s">
-        <v>1220</v>
-      </c>
       <c r="MD3" s="1" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="MI3" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="MK3" s="1" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="MM3" s="1" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="4" spans="1:354" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -8341,28 +8355,28 @@
         <v>188</v>
       </c>
       <c r="IN4" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="IO4" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="IP4" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="IQ4" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="IR4" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="IS4" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="IT4" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="IU4" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="IV4" s="2" t="s">
         <v>378</v>
@@ -8386,13 +8400,13 @@
         <v>188</v>
       </c>
       <c r="JC4" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="JD4" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="JE4" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="JF4" s="2" t="s">
         <v>144</v>
@@ -8401,25 +8415,25 @@
         <v>172</v>
       </c>
       <c r="JH4" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="JI4" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="JJ4" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="JK4" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="JL4" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="JM4" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="JN4" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="JO4" s="2" t="s">
         <v>154</v>
@@ -8428,13 +8442,13 @@
         <v>188</v>
       </c>
       <c r="JQ4" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="JR4" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="JS4" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="JT4" s="2" t="s">
         <v>287</v>
@@ -8542,7 +8556,7 @@
         <v>315</v>
       </c>
       <c r="LC4" s="2" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="LD4" s="2" t="s">
         <v>543</v>
@@ -8635,7 +8649,7 @@
         <v>321</v>
       </c>
       <c r="MM4" s="2" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="MO4" s="2" t="s">
         <v>117</v>
@@ -9150,7 +9164,7 @@
         <v>147</v>
       </c>
       <c r="IZ5" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="JA5" s="2" t="s">
         <v>154</v>
@@ -9165,10 +9179,10 @@
         <v>172</v>
       </c>
       <c r="JO5" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="JP5" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="JT5" s="2" t="s">
         <v>144</v>
@@ -9192,7 +9206,7 @@
         <v>287</v>
       </c>
       <c r="KC5" s="2" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="KD5" s="2" t="s">
         <v>213</v>
@@ -9222,7 +9236,7 @@
         <v>287</v>
       </c>
       <c r="KM5" s="2" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="KN5" s="2" t="s">
         <v>289</v>
@@ -9611,13 +9625,13 @@
         <v>320</v>
       </c>
       <c r="IM6" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="JA6" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="JB6" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="JT6" s="2" t="s">
         <v>289</v>
@@ -9635,10 +9649,10 @@
         <v>363</v>
       </c>
       <c r="KD6" s="2" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="KE6" s="2" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="KF6" s="2" t="s">
         <v>289</v>
@@ -9653,19 +9667,19 @@
         <v>289</v>
       </c>
       <c r="KM6" s="2" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="KO6" s="2" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="KP6" s="2" t="s">
         <v>144</v>
       </c>
       <c r="KQ6" s="2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="KS6" s="2" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="KV6" s="2" t="s">
         <v>154</v>
@@ -9680,13 +9694,13 @@
         <v>333</v>
       </c>
       <c r="LG6" s="2" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="LJ6" s="2" t="s">
         <v>147</v>
       </c>
       <c r="LU6" s="2" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="LV6" s="2" t="s">
         <v>316</v>
@@ -9916,13 +9930,13 @@
         <v>181</v>
       </c>
       <c r="KD7" s="2" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="KE7" s="2" t="s">
         <v>363</v>
       </c>
       <c r="KG7" s="2" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="KM7" s="2" t="s">
         <v>181</v>
@@ -9931,7 +9945,7 @@
         <v>386</v>
       </c>
       <c r="KP7" s="2" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="KQ7" s="2" t="s">
         <v>289</v>
@@ -10071,7 +10085,7 @@
         <v>302</v>
       </c>
       <c r="KB8" s="2" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="KC8" s="2" t="s">
         <v>289</v>
@@ -10109,13 +10123,13 @@
         <v>289</v>
       </c>
       <c r="KC9" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="KE9" s="2" t="s">
         <v>289</v>
       </c>
       <c r="KM9" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="KS9" s="2" t="s">
         <v>289</v>
@@ -10129,10 +10143,10 @@
         <v>302</v>
       </c>
       <c r="KE10" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="KS10" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="11" spans="1:354" x14ac:dyDescent="0.25">
@@ -10206,7 +10220,7 @@
         <v>167</v>
       </c>
       <c r="AP11" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="BM11" s="1" t="s">
         <v>283</v>
@@ -10350,94 +10364,94 @@
         <v>599</v>
       </c>
       <c r="GZ11" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="HB11" s="1" t="s">
         <v>620</v>
       </c>
       <c r="HH11" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="HI11" s="1" t="s">
         <v>375</v>
       </c>
       <c r="HL11" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="HN11" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="HO11" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="HY11" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="IC11" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="ID11" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="IG11" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="IL11" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="IM11" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="JB11" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="JH11" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="JN11" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="KB11" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="KC11" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="KG11" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="KH11" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="KK11" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="KN11" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="KO11" s="1" t="s">
         <v>909</v>
       </c>
-      <c r="KO11" s="1" t="s">
-        <v>910</v>
-      </c>
       <c r="KR11" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="KU11" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="LB11" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="LG11" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="LO11" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="MD11" s="1" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="MK11" s="1" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="12" spans="1:354" x14ac:dyDescent="0.25">
@@ -10457,7 +10471,7 @@
         <v>129</v>
       </c>
       <c r="AD12" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AG12" s="1" t="s">
         <v>150</v>
@@ -10544,133 +10558,133 @@
         <v>629</v>
       </c>
       <c r="HF12" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="HH12" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="HJ12" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="HM12" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="HP12" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="HQ12" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="HR12" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="HU12" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="HW12" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="HY12" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="ID12" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="IE12" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="IF12" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="IG12" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="IL12" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="IM12" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="IN12" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="IP12" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="IU12" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="IV12" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="IW12" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="IX12" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="IZ12" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="JA12" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="JD12" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="JF12" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="JG12" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="JJ12" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="JN12" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="JO12" s="1" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="JP12" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="JV12" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="JY12" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="KA12" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="KR12" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="KV12" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="KY12" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="LB12" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="LO12" s="1" t="s">
         <v>613</v>
       </c>
       <c r="LR12" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="LY12" s="1" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="MD12" s="1" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="MK12" s="1" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="13" spans="1:354" x14ac:dyDescent="0.25">
@@ -10830,7 +10844,7 @@
     </row>
     <row r="14" spans="1:354" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="15" spans="1:354" x14ac:dyDescent="0.25">
@@ -10855,7 +10869,7 @@
         <v>284</v>
       </c>
       <c r="LU16" s="1" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="17" spans="1:354" x14ac:dyDescent="0.25">
@@ -10908,10 +10922,10 @@
         <v>175</v>
       </c>
       <c r="HW17" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="IE17" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="IF17" s="1" t="s">
         <v>217</v>
@@ -10920,7 +10934,7 @@
         <v>175</v>
       </c>
       <c r="JB17" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="JD17" s="1" t="s">
         <v>175</v>
@@ -10932,7 +10946,7 @@
         <v>175</v>
       </c>
       <c r="JM17" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="JO17" s="1" t="s">
         <v>175</v>
@@ -10942,16 +10956,16 @@
       </c>
       <c r="KE17"/>
       <c r="KX17" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="KZ17" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="LI17" s="1" t="s">
         <v>123</v>
       </c>
       <c r="LJ17" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="LL17" s="1" t="s">
         <v>175</v>
@@ -10963,10 +10977,10 @@
         <v>123</v>
       </c>
       <c r="LQ17" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="LR17" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="LY17" s="1" t="s">
         <v>615</v>
@@ -10975,10 +10989,10 @@
         <v>123</v>
       </c>
       <c r="MJ17" s="1" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="MN17" s="1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="18" spans="1:354" x14ac:dyDescent="0.25">
@@ -11178,7 +11192,7 @@
     </row>
     <row r="21" spans="1:354" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="FZ21" s="1" t="b">
         <v>1</v>
@@ -11198,1071 +11212,1071 @@
     </row>
     <row r="22" spans="1:354" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="M22" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="N22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="Z22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="AA22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="AB22" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="AC22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="AD22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="AE22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="AF22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="AG22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="AH22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="AI22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="AJ22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="AK22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="AL22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="AM22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="AN22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="AO22" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="AP22" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="AQ22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="AR22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="AS22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="AT22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="AU22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="AV22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="AW22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="AX22" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AY22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="AZ22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="BA22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="BB22" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="BC22" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="BD22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="BE22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="BF22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="BG22" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="BH22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="BI22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="BJ22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="BK22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="BL22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="BM22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="BN22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="BO22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="BP22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="BQ22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="BR22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="BS22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="BT22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="BU22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="BV22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="BW22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="BX22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="BY22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="BZ22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="CA22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="CB22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="CC22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="CD22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="CE22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="CF22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="CG22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="CH22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="CI22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="CJ22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="CK22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="CL22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="CM22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="CN22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="CO22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="CP22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="CQ22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="CR22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="CS22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="CT22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="CU22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="CV22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="CW22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="CX22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="CY22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="CZ22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="DA22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="DB22" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="DC22" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="DD22" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="DE22" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="L22" s="1" t="s">
+      <c r="DF22" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="DG22" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="DH22" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="DI22" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="DJ22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="DK22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="DL22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="DM22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="DN22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="DO22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="DP22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="DQ22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="DR22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="DS22" s="1" t="s">
         <v>999</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="DT22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="DU22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="DV22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="DW22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="DX22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="DY22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="DZ22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="EA22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="EB22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="EC22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="ED22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="EE22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="EF22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="EG22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="EH22" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="EI22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="EJ22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="EK22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="EL22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="EM22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="EN22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="EO22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="EP22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="EQ22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="ER22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="ES22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="ET22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="EU22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="EV22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="EW22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="EX22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="EY22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="EZ22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="FA22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="FB22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="FC22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="FD22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="FE22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="FF22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="FG22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="FH22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="FI22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="FJ22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="FK22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="FL22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="FM22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="FN22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="FO22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="FP22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="FQ22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="FR22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="FS22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="FT22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="FU22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="FV22" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="FW22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="FX22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="FY22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="FZ22" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="GA22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="GB22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="GC22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="GD22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="GE22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="GF22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="GG22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="GH22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="GI22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="GJ22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="GK22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="GL22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="GM22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="GN22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="GO22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="GP22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="GQ22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="GR22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="GS22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="GT22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="GU22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="GV22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="GW22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="GX22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="GY22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="GZ22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="HA22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="HB22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="HC22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="HD22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="HE22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="HF22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="HG22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="HH22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="HI22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="HJ22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="HK22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="HL22" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="HM22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="HN22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="HO22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="HP22" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="HQ22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="HR22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="HS22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="HT22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="HU22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="HV22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="HW22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="HX22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="HY22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="HZ22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="IA22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="IB22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="IC22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="ID22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="IE22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="IF22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="IG22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="IH22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="II22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="IJ22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="IK22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="IL22" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="IM22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="IN22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="IO22" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="O22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="R22" s="1" t="s">
+      <c r="IP22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="IQ22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="IR22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="IS22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="IT22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="IU22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="IV22" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="IW22" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="IX22" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="IY22" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="S22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="T22" s="1" t="s">
+      <c r="IZ22" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="U22" s="1" t="s">
+      <c r="JA22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="JB22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="JC22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="JD22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="JE22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="JF22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="JG22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="JH22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="JI22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="JJ22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="JK22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="JL22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="JM22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="JN22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="JO22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="JP22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="JQ22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="JR22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="JS22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="JT22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="JU22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="JV22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="JW22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="JX22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="JY22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="JZ22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="KA22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="KB22" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="V22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="W22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="X22" s="1" t="s">
+      <c r="KC22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="KD22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="KE22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="KF22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="KG22" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="KH22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="KI22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="KJ22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="KK22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="KL22" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="Y22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="Z22" s="1" t="s">
+      <c r="KM22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="KN22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="KO22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="KP22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="KQ22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="KR22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="KS22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="KT22" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="AA22" s="1" t="s">
+      <c r="KU22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="KV22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="KW22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="KX22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="KY22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="KZ22" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="AB22" s="1" t="s">
+      <c r="LA22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="LB22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="LC22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="LD22" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="LE22" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="LF22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="LG22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="LH22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="LI22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="LJ22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="LK22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="LL22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="LM22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="LN22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="LO22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="LP22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="LQ22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="LR22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="LS22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="LT22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="LU22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="LV22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="LW22" s="1" t="s">
         <v>999</v>
       </c>
-      <c r="AC22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="AD22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="AE22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="AF22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="AG22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="AH22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="AI22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="AJ22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="AK22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="AL22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="AM22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="AN22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="AO22" s="1" t="s">
+      <c r="LX22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="LY22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="LZ22" s="1" t="s">
         <v>999</v>
       </c>
-      <c r="AP22" s="1" t="s">
-        <v>1000</v>
-      </c>
-      <c r="AQ22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="AR22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="AS22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="AT22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="AU22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="AV22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="AW22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="AX22" s="1" t="s">
-        <v>1001</v>
-      </c>
-      <c r="AY22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="AZ22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="BA22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="BB22" s="1" t="s">
-        <v>1032</v>
-      </c>
-      <c r="BC22" s="1" t="s">
-        <v>1001</v>
-      </c>
-      <c r="BD22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="BE22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="BF22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="BG22" s="1" t="s">
-        <v>1002</v>
-      </c>
-      <c r="BH22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="BI22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="BJ22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="BK22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="BL22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="BM22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="BN22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="BO22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="BP22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="BQ22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="BR22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="BS22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="BT22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="BU22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="BV22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="BW22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="BX22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="BY22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="BZ22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="CA22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="CB22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="CC22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="CD22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="CE22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="CF22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="CG22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="CH22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="CI22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="CJ22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="CK22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="CL22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="CM22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="CN22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="CO22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="CP22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="CQ22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="CR22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="CS22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="CT22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="CU22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="CV22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="CW22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="CX22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="CY22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="CZ22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="DA22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="DB22" s="1" t="s">
+      <c r="MA22" s="1" t="s">
         <v>999</v>
       </c>
-      <c r="DC22" s="1" t="s">
+      <c r="MB22" s="1" t="s">
         <v>999</v>
       </c>
-      <c r="DD22" s="1" t="s">
+      <c r="MC22" s="1" t="s">
         <v>999</v>
       </c>
-      <c r="DE22" s="1" t="s">
+      <c r="MD22" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="ME22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="MF22" s="1" t="s">
         <v>999</v>
       </c>
-      <c r="DF22" s="1" t="s">
+      <c r="MG22" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="MH22" s="1" t="s">
         <v>999</v>
       </c>
-      <c r="DG22" s="1" t="s">
-        <v>999</v>
-      </c>
-      <c r="DH22" s="1" t="s">
-        <v>999</v>
-      </c>
-      <c r="DI22" s="1" t="s">
-        <v>999</v>
-      </c>
-      <c r="DJ22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="DK22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="DL22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="DM22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="DN22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="DO22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="DP22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="DQ22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="DR22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="DS22" s="1" t="s">
-        <v>1000</v>
-      </c>
-      <c r="DT22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="DU22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="DV22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="DW22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="DX22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="DY22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="DZ22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="EA22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="EB22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="EC22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="ED22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="EE22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="EF22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="EG22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="EH22" s="1" t="s">
-        <v>1000</v>
-      </c>
-      <c r="EI22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="EJ22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="EK22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="EL22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="EM22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="EN22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="EO22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="EP22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="EQ22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="ER22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="ES22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="ET22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="EU22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="EV22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="EW22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="EX22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="EY22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="EZ22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="FA22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="FB22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="FC22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="FD22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="FE22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="FF22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="FG22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="FH22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="FI22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="FJ22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="FK22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="FL22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="FM22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="FN22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="FO22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="FP22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="FQ22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="FR22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="FS22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="FT22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="FU22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="FV22" s="1" t="s">
-        <v>1000</v>
-      </c>
-      <c r="FW22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="FX22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="FY22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="FZ22" s="1" t="s">
-        <v>1000</v>
-      </c>
-      <c r="GA22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="GB22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="GC22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="GD22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="GE22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="GF22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="GG22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="GH22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="GI22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="GJ22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="GK22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="GL22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="GM22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="GN22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="GO22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="GP22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="GQ22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="GR22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="GS22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="GT22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="GU22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="GV22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="GW22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="GX22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="GY22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="GZ22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="HA22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="HB22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="HC22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="HD22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="HE22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="HF22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="HG22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="HH22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="HI22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="HJ22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="HK22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="HL22" s="1" t="s">
-        <v>1001</v>
-      </c>
-      <c r="HM22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="HN22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="HO22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="HP22" s="1" t="s">
-        <v>1001</v>
-      </c>
-      <c r="HQ22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="HR22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="HS22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="HT22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="HU22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="HV22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="HW22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="HX22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="HY22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="HZ22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="IA22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="IB22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="IC22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="ID22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="IE22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="IF22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="IG22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="IH22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="II22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="IJ22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="IK22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="IL22" s="1" t="s">
-        <v>1000</v>
-      </c>
-      <c r="IM22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="IN22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="IO22" s="1" t="s">
-        <v>999</v>
-      </c>
-      <c r="IP22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="IQ22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="IR22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="IS22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="IT22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="IU22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="IV22" s="1" t="s">
-        <v>1000</v>
-      </c>
-      <c r="IW22" s="1" t="s">
-        <v>1000</v>
-      </c>
-      <c r="IX22" s="1" t="s">
-        <v>1000</v>
-      </c>
-      <c r="IY22" s="1" t="s">
-        <v>999</v>
-      </c>
-      <c r="IZ22" s="1" t="s">
-        <v>999</v>
-      </c>
-      <c r="JA22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="JB22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="JC22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="JD22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="JE22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="JF22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="JG22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="JH22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="JI22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="JJ22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="JK22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="JL22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="JM22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="JN22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="JO22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="JP22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="JQ22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="JR22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="JS22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="JT22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="JU22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="JV22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="JW22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="JX22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="JY22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="JZ22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="KA22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="KB22" s="1" t="s">
-        <v>999</v>
-      </c>
-      <c r="KC22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="KD22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="KE22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="KF22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="KG22" s="1" t="s">
-        <v>1000</v>
-      </c>
-      <c r="KH22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="KI22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="KJ22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="KK22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="KL22" s="1" t="s">
-        <v>999</v>
-      </c>
-      <c r="KM22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="KN22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="KO22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="KP22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="KQ22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="KR22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="KS22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="KT22" s="1" t="s">
-        <v>999</v>
-      </c>
-      <c r="KU22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="KV22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="KW22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="KX22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="KY22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="KZ22" s="1" t="s">
-        <v>999</v>
-      </c>
-      <c r="LA22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="LB22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="LC22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="LD22" s="1" t="s">
-        <v>999</v>
-      </c>
-      <c r="LE22" s="1" t="s">
-        <v>999</v>
-      </c>
-      <c r="LF22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="LG22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="LH22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="LI22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="LJ22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="LK22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="LL22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="LM22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="LN22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="LO22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="LP22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="LQ22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="LR22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="LS22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="LT22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="LU22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="LV22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="LW22" s="1" t="s">
-        <v>1000</v>
-      </c>
-      <c r="LX22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="LY22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="LZ22" s="1" t="s">
-        <v>1000</v>
-      </c>
-      <c r="MA22" s="1" t="s">
-        <v>1000</v>
-      </c>
-      <c r="MB22" s="1" t="s">
-        <v>1000</v>
-      </c>
-      <c r="MC22" s="1" t="s">
-        <v>1000</v>
-      </c>
-      <c r="MD22" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="ME22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="MF22" s="1" t="s">
-        <v>1000</v>
-      </c>
-      <c r="MG22" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="MH22" s="1" t="s">
-        <v>1000</v>
-      </c>
       <c r="MI22" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="MJ22" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="MK22" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="ML22" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="MM22" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="MN22" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="MO22" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="MP22" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="23" spans="1:354" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="DS23" s="1" t="b">
         <v>1</v>
@@ -12294,97 +12308,97 @@
     </row>
     <row r="24" spans="1:354" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="P24" s="1" t="s">
         <v>1187</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="V24" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="AP24" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="AT24" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="AU24" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="AV24" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="AW24" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="AY24" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="BA24" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="BB24" s="1" t="s">
         <v>1197</v>
       </c>
-      <c r="P24" s="1" t="s">
-        <v>1188</v>
-      </c>
-      <c r="V24" s="1" t="s">
-        <v>1188</v>
-      </c>
-      <c r="W24" s="1" t="s">
-        <v>1188</v>
-      </c>
-      <c r="AP24" s="1" t="s">
+      <c r="BC24" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="BD24" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="BE24" s="1" t="s">
         <v>1189</v>
       </c>
-      <c r="AT24" s="1" t="s">
-        <v>1190</v>
-      </c>
-      <c r="AU24" s="1" t="s">
+      <c r="BM24" s="1" t="s">
         <v>1191</v>
       </c>
-      <c r="AV24" s="1" t="s">
-        <v>1193</v>
-      </c>
-      <c r="AW24" s="1" t="s">
+      <c r="EB24" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="GO24" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="GY24" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="HJ24" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="HK24" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="HN24" s="1" t="s">
         <v>1200</v>
       </c>
-      <c r="AY24" s="1" t="s">
-        <v>1197</v>
-      </c>
-      <c r="BA24" s="1" t="s">
-        <v>1193</v>
-      </c>
-      <c r="BB24" s="1" t="s">
+      <c r="HP24" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="IH24" s="1" t="s">
         <v>1198</v>
       </c>
-      <c r="BC24" s="1" t="s">
-        <v>1191</v>
-      </c>
-      <c r="BD24" s="1" t="s">
-        <v>1200</v>
-      </c>
-      <c r="BE24" s="1" t="s">
-        <v>1190</v>
-      </c>
-      <c r="BM24" s="1" t="s">
+      <c r="IM24" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="IO24" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="IQ24" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="IS24" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="IZ24" s="1" t="s">
         <v>1192</v>
       </c>
-      <c r="EB24" s="1" t="s">
-        <v>1188</v>
-      </c>
-      <c r="GO24" s="1" t="s">
-        <v>1188</v>
-      </c>
-      <c r="GY24" s="1" t="s">
-        <v>1195</v>
-      </c>
-      <c r="HJ24" s="1" t="s">
-        <v>1197</v>
-      </c>
-      <c r="HK24" s="1" t="s">
-        <v>1196</v>
-      </c>
-      <c r="HN24" s="1" t="s">
-        <v>1201</v>
-      </c>
-      <c r="HP24" s="1" t="s">
-        <v>1201</v>
-      </c>
-      <c r="IH24" s="1" t="s">
-        <v>1199</v>
-      </c>
-      <c r="IM24" s="1" t="s">
-        <v>1190</v>
-      </c>
-      <c r="IO24" s="1" t="s">
-        <v>1199</v>
-      </c>
-      <c r="IQ24" s="1" t="s">
-        <v>1188</v>
-      </c>
-      <c r="IS24" s="1" t="s">
-        <v>1188</v>
-      </c>
-      <c r="IZ24" s="1" t="s">
-        <v>1193</v>
-      </c>
       <c r="MB24" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="25" spans="1:354" x14ac:dyDescent="0.25">
@@ -12425,7 +12439,7 @@
         <v>82</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>91</v>
@@ -12434,7 +12448,7 @@
         <v>94</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>103</v>
@@ -12461,7 +12475,7 @@
         <v>122</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="Z25" s="1" t="s">
         <v>128</v>
@@ -12470,7 +12484,7 @@
         <v>131</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="AC25" s="1" t="s">
         <v>135</v>
@@ -12509,7 +12523,7 @@
         <v>178</v>
       </c>
       <c r="AO25" s="1" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="AP25" s="1" t="s">
         <v>183</v>
@@ -12614,118 +12628,118 @@
         <v>319</v>
       </c>
       <c r="BX25" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="BY25" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="BZ25" s="1" t="s">
         <v>1106</v>
       </c>
-      <c r="BY25" s="1" t="s">
+      <c r="CA25" s="1" t="s">
         <v>1106</v>
       </c>
-      <c r="BZ25" s="1" t="s">
+      <c r="CB25" s="1" t="s">
         <v>1107</v>
       </c>
-      <c r="CA25" s="1" t="s">
-        <v>1107</v>
-      </c>
-      <c r="CB25" s="1" t="s">
+      <c r="CC25" s="1" t="s">
         <v>1108</v>
       </c>
-      <c r="CC25" s="1" t="s">
+      <c r="CD25" s="1" t="s">
         <v>1109</v>
       </c>
-      <c r="CD25" s="1" t="s">
+      <c r="CE25" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="CF25" s="1" t="s">
         <v>1110</v>
       </c>
-      <c r="CE25" s="1" t="s">
+      <c r="CG25" s="1" t="s">
         <v>1110</v>
       </c>
-      <c r="CF25" s="1" t="s">
+      <c r="CH25" s="1" t="s">
         <v>1111</v>
       </c>
-      <c r="CG25" s="1" t="s">
+      <c r="CI25" s="1" t="s">
         <v>1111</v>
       </c>
-      <c r="CH25" s="1" t="s">
+      <c r="CJ25" s="1" t="s">
         <v>1112</v>
       </c>
-      <c r="CI25" s="1" t="s">
+      <c r="CK25" s="1" t="s">
         <v>1112</v>
       </c>
-      <c r="CJ25" s="1" t="s">
+      <c r="CL25" s="1" t="s">
         <v>1113</v>
       </c>
-      <c r="CK25" s="1" t="s">
-        <v>1113</v>
-      </c>
-      <c r="CL25" s="1" t="s">
+      <c r="CM25" s="1" t="s">
         <v>1114</v>
       </c>
-      <c r="CM25" s="1" t="s">
+      <c r="CN25" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="CN25" s="1" t="s">
+      <c r="CO25" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="CP25" s="1" t="s">
         <v>1116</v>
       </c>
-      <c r="CO25" s="1" t="s">
+      <c r="CQ25" s="1" t="s">
         <v>1116</v>
       </c>
-      <c r="CP25" s="1" t="s">
+      <c r="CR25" s="1" t="s">
         <v>1117</v>
       </c>
-      <c r="CQ25" s="1" t="s">
+      <c r="CS25" s="1" t="s">
         <v>1117</v>
       </c>
-      <c r="CR25" s="1" t="s">
+      <c r="CT25" s="1" t="s">
         <v>1118</v>
       </c>
-      <c r="CS25" s="1" t="s">
+      <c r="CU25" s="1" t="s">
         <v>1118</v>
       </c>
-      <c r="CT25" s="1" t="s">
+      <c r="CV25" s="1" t="s">
         <v>1119</v>
       </c>
-      <c r="CU25" s="1" t="s">
-        <v>1119</v>
-      </c>
-      <c r="CV25" s="1" t="s">
+      <c r="CW25" s="1" t="s">
         <v>1120</v>
       </c>
-      <c r="CW25" s="1" t="s">
+      <c r="CX25" s="1" t="s">
         <v>1121</v>
       </c>
-      <c r="CX25" s="1" t="s">
+      <c r="CY25" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="CZ25" s="1" t="s">
         <v>1122</v>
       </c>
-      <c r="CY25" s="1" t="s">
+      <c r="DA25" s="1" t="s">
         <v>1122</v>
       </c>
-      <c r="CZ25" s="1" t="s">
+      <c r="DB25" s="1" t="s">
         <v>1123</v>
       </c>
-      <c r="DA25" s="1" t="s">
-        <v>1123</v>
-      </c>
-      <c r="DB25" s="1" t="s">
+      <c r="DC25" s="1" t="s">
         <v>1124</v>
       </c>
-      <c r="DC25" s="1" t="s">
+      <c r="DD25" s="1" t="s">
         <v>1125</v>
       </c>
-      <c r="DD25" s="1" t="s">
+      <c r="DE25" s="1" t="s">
         <v>1126</v>
       </c>
-      <c r="DE25" s="1" t="s">
+      <c r="DF25" s="1" t="s">
         <v>1127</v>
       </c>
-      <c r="DF25" s="1" t="s">
+      <c r="DG25" s="1" t="s">
         <v>1128</v>
       </c>
-      <c r="DG25" s="1" t="s">
+      <c r="DH25" s="1" t="s">
         <v>1129</v>
       </c>
-      <c r="DH25" s="1" t="s">
+      <c r="DI25" s="1" t="s">
         <v>1130</v>
-      </c>
-      <c r="DI25" s="1" t="s">
-        <v>1131</v>
       </c>
       <c r="DJ25" s="1" t="s">
         <v>373</v>
@@ -12755,7 +12769,7 @@
         <v>400</v>
       </c>
       <c r="DS25" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="DT25" s="1" t="s">
         <v>404</v>
@@ -12869,7 +12883,7 @@
         <v>503</v>
       </c>
       <c r="FE25" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="FF25" s="1" t="s">
         <v>509</v>
@@ -12959,7 +12973,7 @@
         <v>578</v>
       </c>
       <c r="GI25" s="1" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="GJ25" s="1" t="s">
         <v>581</v>
@@ -12989,7 +13003,7 @@
         <v>597</v>
       </c>
       <c r="GS25" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="GT25" s="1" t="s">
         <v>601</v>
@@ -13007,10 +13021,10 @@
         <v>611</v>
       </c>
       <c r="GY25" s="1" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="GZ25" s="1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="HA25" s="1" t="s">
         <v>617</v>
@@ -13022,433 +13036,433 @@
         <v>622</v>
       </c>
       <c r="HD25" s="1" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="HE25" s="1" t="s">
         <v>626</v>
       </c>
       <c r="HF25" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="HG25" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="HH25" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="HI25" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="HJ25" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="HK25" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="HL25" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="HM25" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="HN25" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="HO25" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="HP25" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="HQ25" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="HR25" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="HS25" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="HT25" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="HU25" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="HV25" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="HW25" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="HX25" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="HY25" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="HZ25" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="IA25" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="IB25" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="IC25" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="ID25" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="IE25" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="IF25" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="IG25" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="IH25" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="II25" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="IJ25" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="IK25" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="IL25" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="IM25" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="IN25" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="IO25" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="IP25" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="IQ25" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="IR25" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="IS25" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="IT25" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="IU25" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="IV25" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="IW25" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="IX25" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="IY25" s="1" t="s">
         <v>1135</v>
       </c>
-      <c r="IS25" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="IT25" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="IU25" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="IV25" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="IW25" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="IX25" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="IY25" s="1" t="s">
-        <v>1136</v>
-      </c>
       <c r="IZ25" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="JA25" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="JB25" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="JC25" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="JD25" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="JE25" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="JF25" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="JG25" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="JH25" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="JI25" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="JJ25" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="JK25" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="JL25" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="JM25" s="1" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="JN25" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="JO25" s="1" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="JP25" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="JQ25" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="JR25" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="JS25" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="JT25" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="JU25" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="JV25" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="JU25" s="1" t="s">
-        <v>872</v>
-      </c>
-      <c r="JV25" s="1" t="s">
+      <c r="JW25" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="JX25" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="JW25" s="1" t="s">
-        <v>886</v>
-      </c>
-      <c r="JX25" s="1" t="s">
-        <v>876</v>
-      </c>
       <c r="JY25" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="JZ25" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="JZ25" s="1" t="s">
-        <v>880</v>
-      </c>
       <c r="KA25" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="KB25" s="1" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="KC25" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="KD25" s="1" t="s">
         <v>889</v>
       </c>
-      <c r="KD25" s="1" t="s">
+      <c r="KE25" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="KF25" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="KE25" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="KF25" s="1" t="s">
-        <v>891</v>
-      </c>
       <c r="KG25" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="KH25" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="KI25" s="1" t="s">
         <v>901</v>
       </c>
-      <c r="KI25" s="1" t="s">
+      <c r="KJ25" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="KJ25" s="1" t="s">
-        <v>903</v>
-      </c>
       <c r="KK25" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="KL25" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="KM25" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="KL25" s="1" t="s">
+      <c r="KN25" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="KO25" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="KP25" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="KQ25" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="KR25" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="KS25" s="1" t="s">
         <v>1033</v>
       </c>
-      <c r="KM25" s="1" t="s">
-        <v>906</v>
-      </c>
-      <c r="KN25" s="1" t="s">
-        <v>912</v>
-      </c>
-      <c r="KO25" s="1" t="s">
-        <v>911</v>
-      </c>
-      <c r="KP25" s="1" t="s">
+      <c r="KT25" s="1" t="s">
         <v>1176</v>
       </c>
-      <c r="KQ25" s="1" t="s">
-        <v>914</v>
-      </c>
-      <c r="KR25" s="1" t="s">
-        <v>933</v>
-      </c>
-      <c r="KS25" s="1" t="s">
-        <v>1034</v>
-      </c>
-      <c r="KT25" s="1" t="s">
+      <c r="KU25" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="KV25" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="KW25" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="KX25" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="KY25" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="KZ25" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="LA25" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="LB25" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="LC25" s="1" t="s">
         <v>1177</v>
       </c>
-      <c r="KU25" s="1" t="s">
-        <v>917</v>
-      </c>
-      <c r="KV25" s="1" t="s">
-        <v>919</v>
-      </c>
-      <c r="KW25" s="1" t="s">
-        <v>920</v>
-      </c>
-      <c r="KX25" s="1" t="s">
-        <v>921</v>
-      </c>
-      <c r="KY25" s="1" t="s">
-        <v>925</v>
-      </c>
-      <c r="KZ25" s="1" t="s">
-        <v>922</v>
-      </c>
-      <c r="LA25" s="1" t="s">
-        <v>945</v>
-      </c>
-      <c r="LB25" s="1" t="s">
-        <v>952</v>
-      </c>
-      <c r="LC25" s="1" t="s">
+      <c r="LD25" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="LE25" s="1" t="s">
         <v>1178</v>
       </c>
-      <c r="LD25" s="1" t="s">
+      <c r="LF25" s="1" t="s">
         <v>1180</v>
       </c>
-      <c r="LE25" s="1" t="s">
-        <v>1179</v>
-      </c>
-      <c r="LF25" s="1" t="s">
+      <c r="LG25" s="1" t="s">
         <v>1181</v>
       </c>
-      <c r="LG25" s="1" t="s">
-        <v>1182</v>
-      </c>
       <c r="LH25" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="LI25" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="LJ25" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="LK25" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="LL25" s="1" t="s">
         <v>966</v>
       </c>
-      <c r="LL25" s="1" t="s">
-        <v>967</v>
-      </c>
       <c r="LM25" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="LN25" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="LO25" s="1" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="LP25" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="LQ25" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="LR25" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="LS25" s="1" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="LT25" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="LU25" s="1" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="LV25" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="LW25" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="LX25" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="LY25" s="1" t="s">
         <v>1217</v>
       </c>
-      <c r="LW25" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="LX25" s="1" t="s">
-        <v>1216</v>
-      </c>
-      <c r="LY25" s="1" t="s">
-        <v>1218</v>
-      </c>
       <c r="LZ25" s="1" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="MA25" s="1" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="MB25" s="1" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="MC25" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="MD25" s="1" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="ME25" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="MF25" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="MG25" s="1" t="s">
         <v>1244</v>
       </c>
-      <c r="MF25" s="1" t="s">
-        <v>1243</v>
-      </c>
-      <c r="MG25" s="1" t="s">
-        <v>1245</v>
-      </c>
       <c r="MH25" s="1" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="MI25" s="1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="MJ25" s="1" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="MK25" s="1" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="ML25" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="MM25" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="MN25" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="MO25" s="1" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="MP25" s="1" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="26" spans="1:354" x14ac:dyDescent="0.25">
@@ -13465,7 +13479,7 @@
         <v>624</v>
       </c>
       <c r="HY26" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="27" spans="1:354" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -13491,7 +13505,7 @@
         <v>236</v>
       </c>
       <c r="BD27" s="3" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="BE27" s="3" t="s">
         <v>258</v>
@@ -13500,25 +13514,25 @@
         <v>227</v>
       </c>
       <c r="HK27" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="HN27" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="HP27" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="IO27" s="3" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="IS27" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="LV27" s="3" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="MJ27" s="3" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="28" spans="1:354" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -13559,28 +13573,28 @@
         <v>530</v>
       </c>
       <c r="HK28" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="HN28" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="HP28" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="HT28" s="3" t="s">
         <v>227</v>
       </c>
       <c r="IO28" s="3" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="IS28" s="3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="LV28" s="3" t="s">
         <v>227</v>
       </c>
       <c r="MJ28" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="29" spans="1:354" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -13639,16 +13653,16 @@
         <v>566</v>
       </c>
       <c r="HP29" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="HT29" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="LV29" s="3" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="MJ29" s="3" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="30" spans="1:354" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -13680,33 +13694,33 @@
         <v>532</v>
       </c>
       <c r="HK30" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="HN30" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="HP30" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="HT30" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="IO30" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="IS30" s="3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="LV30" s="3" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="MJ30" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="31" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="DS31" s="9">
         <v>-1</v>
@@ -13726,7 +13740,7 @@
     </row>
     <row r="32" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="MB32" s="9">
         <v>1</v>
@@ -13734,10 +13748,10 @@
     </row>
     <row r="33" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
+        <v>1296</v>
+      </c>
+      <c r="MB33" s="9" t="s">
         <v>1297</v>
-      </c>
-      <c r="MB33" s="9" t="s">
-        <v>1298</v>
       </c>
     </row>
     <row r="34" spans="1:354" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -13764,20 +13778,20 @@
     </row>
     <row r="36" spans="1:354" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="37" spans="1:354" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="KE37" s="4" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="38" spans="1:354" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="39" spans="1:354" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -14147,7 +14161,7 @@
     </row>
     <row r="40" spans="1:354" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="KE40" s="4" t="b">
         <v>1</v>
@@ -14200,7 +14214,7 @@
         <v>173</v>
       </c>
       <c r="AN41" s="4" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="AQ41" s="4" t="s">
         <v>189</v>
@@ -14251,7 +14265,7 @@
         <v>384</v>
       </c>
       <c r="DS41" s="4" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="DV41" s="4" t="s">
         <v>409</v>
@@ -14263,7 +14277,7 @@
         <v>440</v>
       </c>
       <c r="EH41" s="4" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="EM41" s="4" t="s">
         <v>458</v>
@@ -14293,13 +14307,13 @@
         <v>434</v>
       </c>
       <c r="FV41" s="4" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="FY41" s="4" t="s">
         <v>557</v>
       </c>
       <c r="FZ41" s="4" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="GG41" s="4" t="s">
         <v>575</v>
@@ -14314,7 +14328,7 @@
         <v>583</v>
       </c>
       <c r="GZ41" s="4" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="HB41" s="4" t="s">
         <v>618</v>
@@ -14323,223 +14337,223 @@
         <v>625</v>
       </c>
       <c r="HH41" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="HY41" s="4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="IA41" s="4" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="IB41" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="IF41" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="IG41" s="4" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="IL41" s="4" t="s">
+        <v>1025</v>
+      </c>
+      <c r="IR41" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="IT41" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="IU41" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="IV41" s="4" t="s">
         <v>1026</v>
       </c>
-      <c r="IR41" s="4" t="s">
-        <v>761</v>
-      </c>
-      <c r="IT41" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="IU41" s="4" t="s">
-        <v>772</v>
-      </c>
-      <c r="IV41" s="4" t="s">
+      <c r="IW41" s="4" t="s">
         <v>1027</v>
       </c>
-      <c r="IW41" s="4" t="s">
+      <c r="IX41" s="4" t="s">
         <v>1028</v>
       </c>
-      <c r="IX41" s="4" t="s">
+      <c r="IY41" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="JB41" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="JC41" s="4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="JD41" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="JE41" s="4" t="s">
+        <v>797</v>
+      </c>
+      <c r="JF41" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="JG41" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="JI41" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="JJ41" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="JM41" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="JN41" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="JO41" s="4" t="s">
+        <v>1183</v>
+      </c>
+      <c r="JP41" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="JQ41" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="JR41" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="JT41" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="JU41" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="JW41" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="JX41" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="JY41" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="KB41" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="KC41" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="KD41" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="KE41" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="KG41" s="4" t="s">
         <v>1029</v>
       </c>
-      <c r="IY41" s="4" t="s">
-        <v>783</v>
-      </c>
-      <c r="JB41" s="4" t="s">
-        <v>790</v>
-      </c>
-      <c r="JC41" s="4" t="s">
-        <v>1008</v>
-      </c>
-      <c r="JD41" s="4" t="s">
-        <v>795</v>
-      </c>
-      <c r="JE41" s="4" t="s">
-        <v>798</v>
-      </c>
-      <c r="JF41" s="4" t="s">
-        <v>802</v>
-      </c>
-      <c r="JG41" s="4" t="s">
-        <v>805</v>
-      </c>
-      <c r="JI41" s="4" t="s">
-        <v>813</v>
-      </c>
-      <c r="JJ41" s="4" t="s">
-        <v>816</v>
-      </c>
-      <c r="JM41" s="4" t="s">
-        <v>824</v>
-      </c>
-      <c r="JN41" s="4" t="s">
-        <v>827</v>
-      </c>
-      <c r="JO41" s="4" t="s">
-        <v>1184</v>
-      </c>
-      <c r="JP41" s="4" t="s">
-        <v>830</v>
-      </c>
-      <c r="JQ41" s="4" t="s">
-        <v>833</v>
-      </c>
-      <c r="JR41" s="4" t="s">
-        <v>835</v>
-      </c>
-      <c r="JT41" s="4" t="s">
-        <v>871</v>
-      </c>
-      <c r="JU41" s="4" t="s">
-        <v>841</v>
-      </c>
-      <c r="JW41" s="4" t="s">
-        <v>843</v>
-      </c>
-      <c r="JX41" s="4" t="s">
-        <v>844</v>
-      </c>
-      <c r="JY41" s="4" t="s">
-        <v>877</v>
-      </c>
-      <c r="KB41" s="4" t="s">
-        <v>884</v>
-      </c>
-      <c r="KC41" s="4" t="s">
-        <v>848</v>
-      </c>
-      <c r="KD41" s="4" t="s">
-        <v>849</v>
-      </c>
-      <c r="KE41" s="4" t="s">
-        <v>850</v>
-      </c>
-      <c r="KG41" s="4" t="s">
-        <v>1030</v>
-      </c>
       <c r="KI41" s="4" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="KM41" s="4" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="KQ41" s="4" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="KS41" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="KT41" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="KU41" s="4" t="s">
         <v>864</v>
       </c>
-      <c r="KT41" s="4" t="s">
-        <v>931</v>
-      </c>
-      <c r="KU41" s="4" t="s">
+      <c r="KV41" s="4" t="s">
         <v>865</v>
-      </c>
-      <c r="KV41" s="4" t="s">
-        <v>866</v>
       </c>
       <c r="KY41" s="4" t="s">
         <v>173</v>
       </c>
       <c r="LA41" s="4" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="LC41" s="4" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="LG41" s="4" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="LH41" s="4" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="LJ41" s="4" t="s">
+        <v>961</v>
+      </c>
+      <c r="LL41" s="4" t="s">
         <v>962</v>
       </c>
-      <c r="LL41" s="4" t="s">
+      <c r="LM41" s="4" t="s">
         <v>963</v>
       </c>
-      <c r="LM41" s="4" t="s">
-        <v>964</v>
-      </c>
       <c r="LQ41" s="4" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="LS41" s="4" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="LT41" s="4" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="LV41" s="4" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="LW41" s="4" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="LX41" s="4" t="s">
+        <v>1212</v>
+      </c>
+      <c r="LY41" s="4" t="s">
         <v>1213</v>
       </c>
-      <c r="LY41" s="4" t="s">
-        <v>1214</v>
-      </c>
       <c r="LZ41" s="4" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="MA41" s="4" t="s">
+        <v>1285</v>
+      </c>
+      <c r="MB41" s="4" t="s">
+        <v>1231</v>
+      </c>
+      <c r="MC41" s="4" t="s">
         <v>1286</v>
       </c>
-      <c r="MB41" s="4" t="s">
-        <v>1232</v>
-      </c>
-      <c r="MC41" s="4" t="s">
-        <v>1287</v>
-      </c>
       <c r="MD41" s="4" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="ME41" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="MF41" s="4" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="MG41" s="4" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="MH41" s="4" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="MJ41" s="4" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="MM41" s="4" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="MO41" s="4" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="MP41" s="4" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="42" spans="1:354" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -14589,7 +14603,7 @@
         <v>170</v>
       </c>
       <c r="AN42" s="4" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="AQ42" s="4" t="s">
         <v>189</v>
@@ -14700,7 +14714,7 @@
         <v>583</v>
       </c>
       <c r="GZ42" s="4" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="HB42" s="4" t="s">
         <v>618</v>
@@ -14709,326 +14723,326 @@
         <v>625</v>
       </c>
       <c r="HH42" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="HY42" s="4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="IA42" s="4" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="IB42" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="IF42" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="IG42" s="4" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="IL42" s="4" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="IR42" s="4" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="IT42" s="4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="IU42" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="IV42" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="IW42" s="4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="IX42" s="4" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="IY42" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="JB42" s="4" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="JC42" s="4" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="JD42" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="JE42" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="JF42" s="4" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="JG42" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="JI42" s="4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="JJ42" s="4" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="JM42" s="4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="JN42" s="4" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="JO42" s="4" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="JP42" s="4" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="JQ42" s="4" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="JR42" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="JT42" s="4" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="JU42" s="4" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="JW42" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="JX42" s="4" t="s">
         <v>843</v>
       </c>
-      <c r="JX42" s="4" t="s">
-        <v>844</v>
-      </c>
       <c r="JY42" s="4" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="KB42" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="KC42" s="4" t="s">
         <v>847</v>
       </c>
-      <c r="KC42" s="4" t="s">
+      <c r="KD42" s="4" t="s">
         <v>848</v>
       </c>
-      <c r="KD42" s="4" t="s">
+      <c r="KE42" s="4" t="s">
         <v>849</v>
       </c>
-      <c r="KE42" s="4" t="s">
-        <v>850</v>
-      </c>
       <c r="KG42" s="4" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="KI42" s="4" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="KM42" s="4" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="KQ42" s="4" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="KS42" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="KT42" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="KU42" s="4" t="s">
         <v>864</v>
       </c>
-      <c r="KT42" s="4" t="s">
-        <v>929</v>
-      </c>
-      <c r="KU42" s="4" t="s">
+      <c r="KV42" s="4" t="s">
         <v>865</v>
       </c>
-      <c r="KV42" s="4" t="s">
-        <v>866</v>
-      </c>
       <c r="KY42" s="4" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="LA42" s="4" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="LC42" s="4" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="LG42" s="4" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="LH42" s="4" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="LJ42" s="4" t="s">
+        <v>961</v>
+      </c>
+      <c r="LL42" s="4" t="s">
         <v>962</v>
       </c>
-      <c r="LL42" s="4" t="s">
+      <c r="LM42" s="4" t="s">
         <v>963</v>
       </c>
-      <c r="LM42" s="4" t="s">
-        <v>964</v>
-      </c>
       <c r="LQ42" s="4" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="LS42" s="4" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="LT42" s="4" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="LV42" s="4" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="LW42" s="4" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="LX42" s="4" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="LY42" s="4" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="LZ42" s="4" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="MA42" s="4" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="MB42" s="4" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="MC42" s="4" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="MD42" s="4" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="ME42" s="4" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="MF42" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="MG42" s="4" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="MH42" s="4" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="MJ42" s="4" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="MM42" s="4" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="MO42" s="4" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="MP42" s="4" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="43" spans="1:354" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
+        <v>1012</v>
+      </c>
+      <c r="AJ43" s="4" t="s">
         <v>1013</v>
       </c>
-      <c r="AJ43" s="4" t="s">
-        <v>1014</v>
-      </c>
       <c r="DB43" s="4" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="DC43" s="4" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="DD43" s="4" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="DE43" s="4" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="DF43" s="4" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="DG43" s="4" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="DH43" s="4" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="DI43" s="4" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="DS43" s="4" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="EH43" s="4" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="FV43" s="4" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="FZ43" s="4" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="IL43" s="4" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="IV43" s="4" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="IW43" s="4" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="IX43" s="4" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="IY43" s="4" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="JU43" s="4" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="KB43" s="4" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="KG43" s="4" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="KT43" s="4" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="LV43" s="4" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="LW43" s="4" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="LX43" s="4" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="LZ43" s="4" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="MA43" s="4" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="MB43" s="4" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="MC43" s="4" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="MD43" s="4" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="MH43" s="4" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="44" spans="1:354" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="LS44" s="4">
         <v>1</v>
@@ -15044,43 +15058,43 @@
     </row>
     <row r="46" spans="1:354" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="47" spans="1:354" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="48" spans="1:354" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="49" spans="1:346" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
+        <v>1020</v>
+      </c>
+      <c r="DS49" s="4" t="s">
         <v>1021</v>
       </c>
-      <c r="DS49" s="4" t="s">
-        <v>1022</v>
-      </c>
       <c r="FZ49" s="4" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="IW49" s="4" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="LW49" s="4" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="LZ49" s="4" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="MB49" s="4" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="MC49" s="4" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="50" spans="1:346" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -15144,43 +15158,43 @@
         <v>560</v>
       </c>
       <c r="IL51" s="4" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="IU51" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="IV51" s="4" t="s">
         <v>774</v>
       </c>
-      <c r="IV51" s="4" t="s">
-        <v>775</v>
-      </c>
       <c r="IW51" s="4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="IX51" s="4" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="KB51" s="4" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="KG51" s="4" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="LW51" s="4" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="LZ51" s="4" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="MA51" s="4" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="MB51" s="4" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="MC51" s="4" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="MH51" s="4" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="52" spans="1:346" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -15203,96 +15217,96 @@
         <v>560</v>
       </c>
       <c r="IL52" s="4" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="IU52" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="IV52" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="IW52" s="4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="IX52" s="4" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="KB52" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="KG52" s="4" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="LW52" s="4" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="LZ52" s="4" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="MA52" s="4" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="MB52" s="4" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="MC52" s="4" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="MH52" s="4" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="53" spans="1:346" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="DS53" s="4" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="EH53" s="4" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="FV53" s="4" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="FZ53" s="4" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="IL53" s="4" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="IV53" s="4" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="IW53" s="4" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="IX53" s="4" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="KB53" s="4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="KG53" s="4" t="s">
         <v>1014</v>
       </c>
-      <c r="KG53" s="4" t="s">
-        <v>1015</v>
-      </c>
       <c r="LW53" s="4" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="LZ53" s="4" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="MA53" s="4" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="MB53" s="4" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="MC53" s="4" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="MH53" s="4" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="54" spans="1:346" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -15311,22 +15325,22 @@
         <v>192</v>
       </c>
       <c r="KG55" s="7" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="56" spans="1:346" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="57" spans="1:346" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="58" spans="1:346" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="59" spans="1:346" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -15345,7 +15359,7 @@
         <v>189</v>
       </c>
       <c r="KG60" s="4" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="61" spans="1:346" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -15356,15 +15370,15 @@
         <v>189</v>
       </c>
       <c r="KG61" s="4" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="62" spans="1:346" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="KG62" s="4" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="63" spans="1:346" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -15384,10 +15398,10 @@
         <v>393</v>
       </c>
       <c r="JH63" s="5" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="KF63" s="5" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="KY63" s="5" t="s">
         <v>176</v>
@@ -15401,7 +15415,7 @@
         <v>24</v>
       </c>
       <c r="AM64" s="5" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="BF64" s="5">
         <v>1</v>
@@ -15416,10 +15430,10 @@
         <v>4</v>
       </c>
       <c r="KF64" s="5" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="KY64" s="5" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="LB64" s="5">
         <v>-1</v>
@@ -15427,108 +15441,117 @@
     </row>
     <row r="65" spans="1:348" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="HE65" s="8" t="s">
-        <v>631</v>
-      </c>
-      <c r="JI65" s="8" t="s">
-        <v>631</v>
-      </c>
-      <c r="KZ65" s="8" t="s">
-        <v>631</v>
-      </c>
-      <c r="LB65" s="8" t="s">
-        <v>631</v>
+        <v>40</v>
+      </c>
+      <c r="HE65" s="8">
+        <v>1</v>
+      </c>
+      <c r="JI65" s="8">
+        <v>2</v>
+      </c>
+      <c r="KZ65" s="8">
+        <v>8</v>
+      </c>
+      <c r="LB65" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:348" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="HE66" s="6">
-        <v>1</v>
-      </c>
-      <c r="JI66" s="6">
-        <v>2</v>
-      </c>
-      <c r="KZ66" s="6">
-        <v>8</v>
-      </c>
-      <c r="LB66" s="6">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="HE66" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="JI66" s="6" t="s">
+        <v>814</v>
+      </c>
+      <c r="KZ66" s="6" t="s">
+        <v>922</v>
+      </c>
+      <c r="LB66" s="6" t="s">
+        <v>952</v>
       </c>
     </row>
-    <row r="67" spans="1:348" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="HE67" s="6" t="s">
+    <row r="67" spans="1:348" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="HE67" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:348" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="HE68" s="6" t="s">
         <v>630</v>
       </c>
-      <c r="JI67" s="6" t="s">
+    </row>
+    <row r="69" spans="1:348" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="JI69" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="KZ67" s="6" t="s">
-        <v>923</v>
-      </c>
-      <c r="LB67" s="6" t="s">
-        <v>953</v>
-      </c>
     </row>
-    <row r="68" spans="1:348" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="HE68" s="8" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="69" spans="1:348" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="HE69" s="6">
+    <row r="70" spans="1:348" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="IA70" s="1">
+        <v>6</v>
+      </c>
+      <c r="JE70" s="1">
+        <v>5</v>
+      </c>
+      <c r="KE70" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="70" spans="1:348" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="HE70" s="6" t="s">
-        <v>630</v>
+      <c r="KS70" s="1">
+        <v>6</v>
+      </c>
+      <c r="LL70" s="1">
+        <v>10</v>
+      </c>
+      <c r="MD70" s="1">
+        <v>5</v>
+      </c>
+      <c r="MJ70" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:348" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="JI71" s="1" t="s">
-        <v>816</v>
+        <v>45</v>
+      </c>
+      <c r="IA71" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="JE71" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="KE71" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="KS71" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="LL71" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="MD71" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="MJ71" s="1" t="s">
+        <v>1263</v>
       </c>
     </row>
     <row r="72" spans="1:348" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="IA72" s="1">
-        <v>6</v>
-      </c>
-      <c r="JE72" s="1">
-        <v>5</v>
-      </c>
-      <c r="KE72" s="1">
-        <v>3</v>
-      </c>
-      <c r="KS72" s="1">
-        <v>6</v>
-      </c>
-      <c r="LL72" s="1">
-        <v>10</v>
-      </c>
-      <c r="MD72" s="1">
-        <v>5</v>
+        <v>1257</v>
       </c>
       <c r="MJ72" s="1">
         <v>9</v>
@@ -15536,49 +15559,31 @@
     </row>
     <row r="73" spans="1:348" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="IA73" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="JE73" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="KE73" s="1" t="s">
-        <v>896</v>
-      </c>
-      <c r="KS73" s="1" t="s">
-        <v>942</v>
-      </c>
-      <c r="LL73" s="1" t="s">
-        <v>968</v>
-      </c>
-      <c r="MD73" s="1" t="s">
-        <v>1288</v>
+        <v>1258</v>
       </c>
       <c r="MJ73" s="1" t="s">
-        <v>1264</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="74" spans="1:348" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="MJ74" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:348" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="MJ75" s="1" t="s">
-        <v>1257</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="76" spans="1:348" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="MJ76" s="1">
         <v>7</v>
@@ -15586,31 +15591,31 @@
     </row>
     <row r="77" spans="1:348" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="MJ77" s="1" t="s">
-        <v>1264</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="78" spans="1:348" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="MJ78" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:348" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="MJ79" s="1" t="s">
         <v>1263</v>
-      </c>
-      <c r="MJ79" s="1" t="s">
-        <v>1257</v>
       </c>
     </row>
     <row r="80" spans="1:348" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="MJ80" s="1">
         <v>5</v>
@@ -15618,1023 +15623,1013 @@
     </row>
     <row r="81" spans="1:354" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="MJ81" s="1" t="s">
-        <v>1264</v>
+        <v>1256</v>
       </c>
     </row>
-    <row r="82" spans="1:354" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>1267</v>
-      </c>
-      <c r="MJ82" s="1">
-        <v>5</v>
+    <row r="82" spans="1:354" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="10" t="s">
+        <v>1043</v>
+      </c>
+      <c r="AO82" s="12">
+        <v>1</v>
+      </c>
+      <c r="KB82" s="12">
+        <v>6</v>
+      </c>
+      <c r="MO82" s="10">
+        <v>1</v>
+      </c>
+      <c r="MP82" s="12">
+        <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:354" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>1268</v>
-      </c>
-      <c r="MJ83" s="1" t="s">
-        <v>1257</v>
+    <row r="83" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="11" t="s">
+        <v>1044</v>
+      </c>
+      <c r="AO83" s="9" t="s">
+        <v>1093</v>
+      </c>
+      <c r="KB83" s="9" t="s">
+        <v>1099</v>
+      </c>
+      <c r="MO83" s="11" t="s">
+        <v>1301</v>
+      </c>
+      <c r="MP83" s="9" t="s">
+        <v>1093</v>
       </c>
     </row>
-    <row r="84" spans="1:354" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="10" t="s">
-        <v>1044</v>
-      </c>
-      <c r="AO84" s="12">
-        <v>1</v>
-      </c>
-      <c r="KB84" s="12">
-        <v>6</v>
-      </c>
-      <c r="MO84" s="10">
-        <v>1</v>
-      </c>
-      <c r="MP84" s="12">
-        <v>1</v>
+    <row r="84" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="11" t="s">
+        <v>1045</v>
+      </c>
+      <c r="AO84" s="9" t="s">
+        <v>1094</v>
+      </c>
+      <c r="KB84" s="9" t="s">
+        <v>1094</v>
+      </c>
+      <c r="MO84" s="11" t="s">
+        <v>1094</v>
+      </c>
+      <c r="MP84" s="9" t="s">
+        <v>1164</v>
       </c>
     </row>
     <row r="85" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
-        <v>1045</v>
-      </c>
-      <c r="AO85" s="9" t="s">
-        <v>1094</v>
+        <v>1046</v>
       </c>
       <c r="KB85" s="9" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="MO85" s="11" t="s">
-        <v>1302</v>
-      </c>
-      <c r="MP85" s="9" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="86" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AO86" s="9" t="s">
-        <v>1095</v>
+        <v>1047</v>
       </c>
       <c r="KB86" s="9" t="s">
-        <v>1095</v>
+        <v>1164</v>
       </c>
       <c r="MO86" s="11" t="s">
-        <v>1095</v>
-      </c>
-      <c r="MP86" s="9" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
-    <row r="87" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="11" t="s">
-        <v>1047</v>
-      </c>
-      <c r="KB87" s="9" t="s">
-        <v>1097</v>
-      </c>
-      <c r="MO87" s="11" t="s">
-        <v>1094</v>
+    <row r="87" spans="1:354" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="10" t="s">
+        <v>1048</v>
+      </c>
+      <c r="AO87" s="12">
+        <v>3</v>
+      </c>
+      <c r="KB87" s="12">
+        <v>7</v>
+      </c>
+      <c r="MO87" s="10">
+        <v>2</v>
+      </c>
+      <c r="MP87" s="12">
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>1048</v>
+        <v>1049</v>
+      </c>
+      <c r="AO88" s="9" t="s">
+        <v>1095</v>
       </c>
       <c r="KB88" s="9" t="s">
-        <v>1165</v>
+        <v>1100</v>
       </c>
       <c r="MO88" s="11" t="s">
-        <v>1165</v>
+        <v>1302</v>
+      </c>
+      <c r="MP88" s="9" t="s">
+        <v>1095</v>
       </c>
     </row>
-    <row r="89" spans="1:354" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="10" t="s">
-        <v>1049</v>
-      </c>
-      <c r="AO89" s="12">
-        <v>3</v>
-      </c>
-      <c r="KB89" s="12">
-        <v>7</v>
-      </c>
-      <c r="MO89" s="10">
-        <v>2</v>
-      </c>
-      <c r="MP89" s="12">
-        <v>2</v>
+    <row r="89" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="11" t="s">
+        <v>1050</v>
+      </c>
+      <c r="AO89" s="9" t="s">
+        <v>1094</v>
+      </c>
+      <c r="KB89" s="9" t="s">
+        <v>1094</v>
+      </c>
+      <c r="MO89" s="11" t="s">
+        <v>1094</v>
+      </c>
+      <c r="MP89" s="9" t="s">
+        <v>1164</v>
       </c>
     </row>
     <row r="90" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>1050</v>
-      </c>
-      <c r="AO90" s="9" t="s">
+        <v>1051</v>
+      </c>
+      <c r="KB90" s="9" t="s">
         <v>1096</v>
       </c>
-      <c r="KB90" s="9" t="s">
-        <v>1101</v>
-      </c>
       <c r="MO90" s="11" t="s">
-        <v>1303</v>
-      </c>
-      <c r="MP90" s="9" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="91" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
-        <v>1051</v>
-      </c>
-      <c r="AO91" s="9" t="s">
-        <v>1095</v>
+        <v>1052</v>
       </c>
       <c r="KB91" s="9" t="s">
-        <v>1095</v>
+        <v>1164</v>
       </c>
       <c r="MO91" s="11" t="s">
-        <v>1095</v>
-      </c>
-      <c r="MP91" s="9" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
-    <row r="92" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="11" t="s">
-        <v>1052</v>
-      </c>
-      <c r="KB92" s="9" t="s">
-        <v>1097</v>
-      </c>
-      <c r="MO92" s="11" t="s">
-        <v>1096</v>
+    <row r="92" spans="1:354" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="10" t="s">
+        <v>1053</v>
+      </c>
+      <c r="AO92" s="12">
+        <v>5</v>
+      </c>
+      <c r="KB92" s="12">
+        <v>8</v>
+      </c>
+      <c r="MO92" s="10">
+        <v>3</v>
+      </c>
+      <c r="MP92" s="12">
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
-        <v>1053</v>
+        <v>1054</v>
+      </c>
+      <c r="AO93" s="9" t="s">
+        <v>1096</v>
       </c>
       <c r="KB93" s="9" t="s">
-        <v>1165</v>
+        <v>1101</v>
       </c>
       <c r="MO93" s="11" t="s">
-        <v>1165</v>
+        <v>1303</v>
+      </c>
+      <c r="MP93" s="9" t="s">
+        <v>1096</v>
       </c>
     </row>
-    <row r="94" spans="1:354" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="10" t="s">
-        <v>1054</v>
-      </c>
-      <c r="AO94" s="12">
-        <v>5</v>
-      </c>
-      <c r="KB94" s="12">
-        <v>8</v>
-      </c>
-      <c r="MO94" s="10">
-        <v>3</v>
-      </c>
-      <c r="MP94" s="12">
-        <v>3</v>
+    <row r="94" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="11" t="s">
+        <v>1055</v>
+      </c>
+      <c r="AO94" s="9" t="s">
+        <v>1094</v>
+      </c>
+      <c r="KB94" s="9" t="s">
+        <v>1094</v>
+      </c>
+      <c r="MO94" s="11" t="s">
+        <v>1094</v>
+      </c>
+      <c r="MP94" s="9" t="s">
+        <v>1164</v>
       </c>
     </row>
     <row r="95" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
-        <v>1055</v>
-      </c>
-      <c r="AO95" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="KB95" s="9" t="s">
         <v>1097</v>
       </c>
-      <c r="KB95" s="9" t="s">
-        <v>1102</v>
-      </c>
       <c r="MO95" s="11" t="s">
-        <v>1304</v>
-      </c>
-      <c r="MP95" s="9" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="96" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>1056</v>
-      </c>
-      <c r="AO96" s="9" t="s">
-        <v>1095</v>
+        <v>1057</v>
       </c>
       <c r="KB96" s="9" t="s">
-        <v>1095</v>
+        <v>1164</v>
       </c>
       <c r="MO96" s="11" t="s">
-        <v>1095</v>
-      </c>
-      <c r="MP96" s="9" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
-    <row r="97" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="11" t="s">
-        <v>1057</v>
-      </c>
-      <c r="KB97" s="9" t="s">
-        <v>1098</v>
-      </c>
-      <c r="MO97" s="11" t="s">
-        <v>1097</v>
+    <row r="97" spans="1:354" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="10" t="s">
+        <v>1058</v>
+      </c>
+      <c r="AO97" s="12">
+        <v>7</v>
+      </c>
+      <c r="KB97" s="12">
+        <v>9</v>
+      </c>
+      <c r="MO97" s="10">
+        <v>4</v>
+      </c>
+      <c r="MP97" s="12">
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>1058</v>
+        <v>1059</v>
+      </c>
+      <c r="AO98" s="9" t="s">
+        <v>1097</v>
       </c>
       <c r="KB98" s="9" t="s">
-        <v>1165</v>
+        <v>1102</v>
       </c>
       <c r="MO98" s="11" t="s">
-        <v>1165</v>
+        <v>1304</v>
+      </c>
+      <c r="MP98" s="9" t="s">
+        <v>1097</v>
       </c>
     </row>
-    <row r="99" spans="1:354" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="10" t="s">
-        <v>1059</v>
-      </c>
-      <c r="AO99" s="12">
-        <v>7</v>
-      </c>
-      <c r="KB99" s="12">
-        <v>9</v>
-      </c>
-      <c r="MO99" s="10">
-        <v>4</v>
-      </c>
-      <c r="MP99" s="12">
-        <v>4</v>
+    <row r="99" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="11" t="s">
+        <v>1060</v>
+      </c>
+      <c r="AO99" s="9" t="s">
+        <v>1094</v>
+      </c>
+      <c r="KB99" s="9" t="s">
+        <v>1094</v>
+      </c>
+      <c r="MO99" s="11" t="s">
+        <v>1094</v>
+      </c>
+      <c r="MP99" s="9" t="s">
+        <v>1164</v>
       </c>
     </row>
     <row r="100" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
-        <v>1060</v>
-      </c>
-      <c r="AO100" s="9" t="s">
-        <v>1098</v>
+        <v>1061</v>
       </c>
       <c r="KB100" s="9" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="MO100" s="11" t="s">
-        <v>1305</v>
-      </c>
-      <c r="MP100" s="9" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="101" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
-        <v>1061</v>
-      </c>
-      <c r="AO101" s="9" t="s">
-        <v>1095</v>
+        <v>1062</v>
       </c>
       <c r="KB101" s="9" t="s">
-        <v>1095</v>
+        <v>1164</v>
       </c>
       <c r="MO101" s="11" t="s">
-        <v>1095</v>
-      </c>
-      <c r="MP101" s="9" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
-    <row r="102" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="11" t="s">
-        <v>1062</v>
-      </c>
-      <c r="KB102" s="9" t="s">
-        <v>1098</v>
-      </c>
-      <c r="MO102" s="11" t="s">
-        <v>1098</v>
+    <row r="102" spans="1:354" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="10" t="s">
+        <v>1063</v>
+      </c>
+      <c r="AO102" s="12">
+        <v>9</v>
+      </c>
+      <c r="KB102" s="12">
+        <v>10</v>
+      </c>
+      <c r="MO102" s="10">
+        <v>5</v>
+      </c>
+      <c r="MP102" s="12">
+        <v>5</v>
       </c>
     </row>
     <row r="103" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
-        <v>1063</v>
+        <v>1064</v>
+      </c>
+      <c r="AO103" s="9" t="s">
+        <v>1098</v>
       </c>
       <c r="KB103" s="9" t="s">
-        <v>1165</v>
+        <v>1103</v>
       </c>
       <c r="MO103" s="11" t="s">
-        <v>1165</v>
+        <v>1305</v>
+      </c>
+      <c r="MP103" s="9" t="s">
+        <v>1098</v>
       </c>
     </row>
-    <row r="104" spans="1:354" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="10" t="s">
-        <v>1064</v>
-      </c>
-      <c r="AO104" s="12">
-        <v>9</v>
-      </c>
-      <c r="KB104" s="12">
-        <v>10</v>
-      </c>
-      <c r="MO104" s="10">
-        <v>5</v>
-      </c>
-      <c r="MP104" s="12">
-        <v>5</v>
+    <row r="104" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="11" t="s">
+        <v>1065</v>
+      </c>
+      <c r="AO104" s="9" t="s">
+        <v>1094</v>
+      </c>
+      <c r="KB104" s="9" t="s">
+        <v>1094</v>
+      </c>
+      <c r="MO104" s="11" t="s">
+        <v>1094</v>
+      </c>
+      <c r="MP104" s="9" t="s">
+        <v>1164</v>
       </c>
     </row>
     <row r="105" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
-        <v>1065</v>
-      </c>
-      <c r="AO105" s="9" t="s">
-        <v>1099</v>
+        <v>1066</v>
       </c>
       <c r="KB105" s="9" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="MO105" s="11" t="s">
-        <v>1306</v>
-      </c>
-      <c r="MP105" s="9" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="106" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
-        <v>1066</v>
-      </c>
-      <c r="AO106" s="9" t="s">
-        <v>1095</v>
+        <v>1067</v>
       </c>
       <c r="KB106" s="9" t="s">
-        <v>1095</v>
+        <v>1164</v>
       </c>
       <c r="MO106" s="11" t="s">
-        <v>1095</v>
-      </c>
-      <c r="MP106" s="9" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
-    <row r="107" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="11" t="s">
-        <v>1067</v>
-      </c>
-      <c r="KB107" s="9" t="s">
-        <v>1099</v>
-      </c>
-      <c r="MO107" s="11" t="s">
-        <v>1099</v>
+    <row r="107" spans="1:354" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="10" t="s">
+        <v>1068</v>
+      </c>
+      <c r="AO107" s="12">
+        <v>11</v>
+      </c>
+      <c r="KB107" s="12">
+        <v>11</v>
+      </c>
+      <c r="MO107" s="10">
+        <v>6</v>
+      </c>
+      <c r="MP107" s="12">
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
-        <v>1068</v>
+        <v>1069</v>
+      </c>
+      <c r="AO108" s="9" t="s">
+        <v>1099</v>
       </c>
       <c r="KB108" s="9" t="s">
         <v>1165</v>
       </c>
       <c r="MO108" s="11" t="s">
-        <v>1165</v>
+        <v>1306</v>
+      </c>
+      <c r="MP108" s="9" t="s">
+        <v>1099</v>
       </c>
     </row>
-    <row r="109" spans="1:354" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="10" t="s">
-        <v>1069</v>
-      </c>
-      <c r="AO109" s="12">
-        <v>11</v>
-      </c>
-      <c r="KB109" s="12">
-        <v>11</v>
-      </c>
-      <c r="MO109" s="10">
-        <v>6</v>
-      </c>
-      <c r="MP109" s="12">
-        <v>6</v>
+    <row r="109" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="11" t="s">
+        <v>1070</v>
+      </c>
+      <c r="AO109" s="9" t="s">
+        <v>1094</v>
+      </c>
+      <c r="KB109" s="9" t="s">
+        <v>1094</v>
+      </c>
+      <c r="MO109" s="11" t="s">
+        <v>1094</v>
+      </c>
+      <c r="MP109" s="9" t="s">
+        <v>1164</v>
       </c>
     </row>
     <row r="110" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
-        <v>1070</v>
-      </c>
-      <c r="AO110" s="9" t="s">
-        <v>1100</v>
+        <v>1071</v>
       </c>
       <c r="KB110" s="9" t="s">
-        <v>1166</v>
+        <v>1098</v>
       </c>
       <c r="MO110" s="11" t="s">
-        <v>1307</v>
-      </c>
-      <c r="MP110" s="9" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="111" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
-        <v>1071</v>
-      </c>
-      <c r="AO111" s="9" t="s">
-        <v>1095</v>
+        <v>1072</v>
       </c>
       <c r="KB111" s="9" t="s">
-        <v>1095</v>
+        <v>1164</v>
       </c>
       <c r="MO111" s="11" t="s">
-        <v>1095</v>
-      </c>
-      <c r="MP111" s="9" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
-    <row r="112" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="11" t="s">
-        <v>1072</v>
-      </c>
-      <c r="KB112" s="9" t="s">
-        <v>1099</v>
-      </c>
-      <c r="MO112" s="11" t="s">
-        <v>1100</v>
+    <row r="112" spans="1:354" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="10" t="s">
+        <v>1073</v>
+      </c>
+      <c r="AO112" s="12">
+        <v>13</v>
+      </c>
+      <c r="KB112" s="12">
+        <v>12</v>
+      </c>
+      <c r="MO112" s="10">
+        <v>7</v>
+      </c>
+      <c r="MP112" s="12">
+        <v>7</v>
       </c>
     </row>
     <row r="113" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
-        <v>1073</v>
+        <v>1074</v>
+      </c>
+      <c r="AO113" s="9" t="s">
+        <v>1100</v>
       </c>
       <c r="KB113" s="9" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="MO113" s="11" t="s">
-        <v>1165</v>
+        <v>1307</v>
+      </c>
+      <c r="MP113" s="9" t="s">
+        <v>1100</v>
       </c>
     </row>
-    <row r="114" spans="1:354" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="10" t="s">
-        <v>1074</v>
-      </c>
-      <c r="AO114" s="12">
-        <v>13</v>
-      </c>
-      <c r="KB114" s="12">
-        <v>12</v>
-      </c>
-      <c r="MO114" s="10">
-        <v>7</v>
-      </c>
-      <c r="MP114" s="12">
-        <v>7</v>
+    <row r="114" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="11" t="s">
+        <v>1075</v>
+      </c>
+      <c r="AO114" s="9" t="s">
+        <v>1094</v>
+      </c>
+      <c r="KB114" s="9" t="s">
+        <v>1094</v>
+      </c>
+      <c r="MO114" s="11" t="s">
+        <v>1094</v>
+      </c>
+      <c r="MP114" s="9" t="s">
+        <v>1164</v>
       </c>
     </row>
     <row r="115" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
-        <v>1075</v>
-      </c>
-      <c r="AO115" s="9" t="s">
-        <v>1101</v>
+        <v>1076</v>
       </c>
       <c r="KB115" s="9" t="s">
-        <v>1167</v>
+        <v>1099</v>
       </c>
       <c r="MO115" s="11" t="s">
-        <v>1308</v>
-      </c>
-      <c r="MP115" s="9" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="116" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
-        <v>1076</v>
-      </c>
-      <c r="AO116" s="9" t="s">
-        <v>1095</v>
+        <v>1077</v>
       </c>
       <c r="KB116" s="9" t="s">
-        <v>1095</v>
+        <v>1164</v>
       </c>
       <c r="MO116" s="11" t="s">
-        <v>1095</v>
-      </c>
-      <c r="MP116" s="9" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
-    <row r="117" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="11" t="s">
-        <v>1077</v>
-      </c>
-      <c r="KB117" s="9" t="s">
-        <v>1100</v>
-      </c>
-      <c r="MO117" s="11" t="s">
-        <v>1101</v>
+    <row r="117" spans="1:354" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="10" t="s">
+        <v>1078</v>
+      </c>
+      <c r="AO117" s="12">
+        <v>15</v>
+      </c>
+      <c r="KB117" s="12">
+        <v>13</v>
+      </c>
+      <c r="MO117" s="10">
+        <v>8</v>
+      </c>
+      <c r="MP117" s="12">
+        <v>8</v>
       </c>
     </row>
     <row r="118" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
-        <v>1078</v>
+        <v>1079</v>
+      </c>
+      <c r="AO118" s="9" t="s">
+        <v>1101</v>
       </c>
       <c r="KB118" s="9" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="MO118" s="11" t="s">
-        <v>1165</v>
+        <v>1308</v>
+      </c>
+      <c r="MP118" s="9" t="s">
+        <v>1101</v>
       </c>
     </row>
-    <row r="119" spans="1:354" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="10" t="s">
-        <v>1079</v>
-      </c>
-      <c r="AO119" s="12">
-        <v>15</v>
-      </c>
-      <c r="KB119" s="12">
-        <v>13</v>
-      </c>
-      <c r="MO119" s="10">
-        <v>8</v>
-      </c>
-      <c r="MP119" s="12">
-        <v>8</v>
+    <row r="119" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="11" t="s">
+        <v>1080</v>
+      </c>
+      <c r="AO119" s="9" t="s">
+        <v>1094</v>
+      </c>
+      <c r="KB119" s="9" t="s">
+        <v>1094</v>
+      </c>
+      <c r="MO119" s="11" t="s">
+        <v>1094</v>
+      </c>
+      <c r="MP119" s="9" t="s">
+        <v>1164</v>
       </c>
     </row>
     <row r="120" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
-        <v>1080</v>
-      </c>
-      <c r="AO120" s="9" t="s">
-        <v>1102</v>
+        <v>1081</v>
       </c>
       <c r="KB120" s="9" t="s">
-        <v>1168</v>
+        <v>1099</v>
       </c>
       <c r="MO120" s="11" t="s">
-        <v>1309</v>
-      </c>
-      <c r="MP120" s="9" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="121" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
-        <v>1081</v>
-      </c>
-      <c r="AO121" s="9" t="s">
-        <v>1095</v>
+        <v>1082</v>
       </c>
       <c r="KB121" s="9" t="s">
-        <v>1095</v>
+        <v>1164</v>
       </c>
       <c r="MO121" s="11" t="s">
-        <v>1095</v>
-      </c>
-      <c r="MP121" s="9" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
-    <row r="122" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="11" t="s">
-        <v>1082</v>
-      </c>
-      <c r="KB122" s="9" t="s">
-        <v>1100</v>
-      </c>
-      <c r="MO122" s="11" t="s">
-        <v>1102</v>
+    <row r="122" spans="1:354" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="10" t="s">
+        <v>1083</v>
+      </c>
+      <c r="AO122" s="12">
+        <v>17</v>
+      </c>
+      <c r="KB122" s="12">
+        <v>14</v>
+      </c>
+      <c r="MO122" s="10">
+        <v>9</v>
+      </c>
+      <c r="MP122" s="12">
+        <v>9</v>
       </c>
     </row>
     <row r="123" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
-        <v>1083</v>
+        <v>1084</v>
+      </c>
+      <c r="AO123" s="9" t="s">
+        <v>1102</v>
       </c>
       <c r="KB123" s="9" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="MO123" s="11" t="s">
-        <v>1165</v>
+        <v>1309</v>
+      </c>
+      <c r="MP123" s="9" t="s">
+        <v>1102</v>
       </c>
     </row>
-    <row r="124" spans="1:354" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="10" t="s">
-        <v>1084</v>
-      </c>
-      <c r="AO124" s="12">
-        <v>17</v>
-      </c>
-      <c r="KB124" s="12">
-        <v>14</v>
-      </c>
-      <c r="MO124" s="10">
-        <v>9</v>
-      </c>
-      <c r="MP124" s="12">
-        <v>9</v>
+    <row r="124" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="11" t="s">
+        <v>1085</v>
+      </c>
+      <c r="AO124" s="9" t="s">
+        <v>1094</v>
+      </c>
+      <c r="KB124" s="9" t="s">
+        <v>1094</v>
+      </c>
+      <c r="MO124" s="11" t="s">
+        <v>1094</v>
+      </c>
+      <c r="MP124" s="9" t="s">
+        <v>1164</v>
       </c>
     </row>
     <row r="125" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
-        <v>1085</v>
-      </c>
-      <c r="AO125" s="9" t="s">
-        <v>1103</v>
+        <v>1086</v>
       </c>
       <c r="KB125" s="9" t="s">
-        <v>1169</v>
+        <v>1100</v>
       </c>
       <c r="MO125" s="11" t="s">
-        <v>1310</v>
-      </c>
-      <c r="MP125" s="9" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="126" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
-        <v>1086</v>
-      </c>
-      <c r="AO126" s="9" t="s">
-        <v>1095</v>
+        <v>1087</v>
       </c>
       <c r="KB126" s="9" t="s">
-        <v>1095</v>
+        <v>1164</v>
       </c>
       <c r="MO126" s="11" t="s">
-        <v>1095</v>
-      </c>
-      <c r="MP126" s="9" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
-    <row r="127" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="11" t="s">
-        <v>1087</v>
-      </c>
-      <c r="KB127" s="9" t="s">
-        <v>1101</v>
-      </c>
-      <c r="MO127" s="11" t="s">
-        <v>1103</v>
+    <row r="127" spans="1:354" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="10" t="s">
+        <v>1088</v>
+      </c>
+      <c r="AO127" s="12">
+        <v>19</v>
+      </c>
+      <c r="KB127" s="12">
+        <v>15</v>
+      </c>
+      <c r="MO127" s="10">
+        <v>10</v>
+      </c>
+      <c r="MP127" s="12">
+        <v>10</v>
       </c>
     </row>
     <row r="128" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
-        <v>1088</v>
+        <v>1089</v>
+      </c>
+      <c r="AO128" s="9" t="s">
+        <v>1103</v>
       </c>
       <c r="KB128" s="9" t="s">
-        <v>1165</v>
+        <v>1169</v>
       </c>
       <c r="MO128" s="11" t="s">
-        <v>1165</v>
+        <v>1310</v>
+      </c>
+      <c r="MP128" s="9" t="s">
+        <v>1103</v>
       </c>
     </row>
-    <row r="129" spans="1:354" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="10" t="s">
-        <v>1089</v>
-      </c>
-      <c r="AO129" s="12">
-        <v>19</v>
-      </c>
-      <c r="KB129" s="12">
-        <v>15</v>
-      </c>
-      <c r="MO129" s="10">
-        <v>10</v>
-      </c>
-      <c r="MP129" s="12">
-        <v>10</v>
+    <row r="129" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="11" t="s">
+        <v>1090</v>
+      </c>
+      <c r="AO129" s="9" t="s">
+        <v>1094</v>
+      </c>
+      <c r="KB129" s="9" t="s">
+        <v>1094</v>
+      </c>
+      <c r="MO129" s="11" t="s">
+        <v>1094</v>
+      </c>
+      <c r="MP129" s="9" t="s">
+        <v>1164</v>
       </c>
     </row>
     <row r="130" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
-        <v>1090</v>
-      </c>
-      <c r="AO130" s="9" t="s">
-        <v>1104</v>
+        <v>1091</v>
       </c>
       <c r="KB130" s="9" t="s">
-        <v>1170</v>
+        <v>1100</v>
       </c>
       <c r="MO130" s="11" t="s">
-        <v>1311</v>
-      </c>
-      <c r="MP130" s="9" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="131" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
-        <v>1091</v>
-      </c>
-      <c r="AO131" s="9" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="KB131" s="9" t="s">
-        <v>1095</v>
+        <v>1164</v>
       </c>
       <c r="MO131" s="11" t="s">
-        <v>1095</v>
-      </c>
-      <c r="MP131" s="9" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
-    <row r="132" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="11" t="s">
-        <v>1092</v>
-      </c>
-      <c r="KB132" s="9" t="s">
-        <v>1101</v>
-      </c>
-      <c r="MO132" s="11" t="s">
-        <v>1104</v>
+    <row r="132" spans="1:354" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="10" t="s">
+        <v>1138</v>
+      </c>
+      <c r="KB132" s="12">
+        <v>16</v>
       </c>
     </row>
     <row r="133" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
-        <v>1093</v>
+        <v>1139</v>
       </c>
       <c r="KB133" s="9" t="s">
-        <v>1165</v>
-      </c>
-      <c r="MO133" s="11" t="s">
-        <v>1165</v>
+        <v>1170</v>
       </c>
     </row>
-    <row r="134" spans="1:354" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="10" t="s">
-        <v>1139</v>
-      </c>
-      <c r="KB134" s="12">
-        <v>16</v>
+    <row r="134" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="11" t="s">
+        <v>1140</v>
+      </c>
+      <c r="KB134" s="9" t="s">
+        <v>1094</v>
       </c>
     </row>
     <row r="135" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="11" t="s">
-        <v>1140</v>
+        <v>1153</v>
       </c>
       <c r="KB135" s="9" t="s">
-        <v>1171</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="136" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="11" t="s">
+        <v>1154</v>
+      </c>
+      <c r="KB136" s="9" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="137" spans="1:354" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="10" t="s">
         <v>1141</v>
       </c>
-      <c r="KB136" s="9" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="137" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="11" t="s">
-        <v>1154</v>
-      </c>
-      <c r="KB137" s="9" t="s">
-        <v>1102</v>
+      <c r="KB137" s="12">
+        <v>17</v>
       </c>
     </row>
     <row r="138" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
-        <v>1155</v>
+        <v>1142</v>
       </c>
       <c r="KB138" s="9" t="s">
-        <v>1165</v>
+        <v>1171</v>
       </c>
     </row>
-    <row r="139" spans="1:354" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="10" t="s">
-        <v>1142</v>
-      </c>
-      <c r="KB139" s="12">
-        <v>17</v>
+    <row r="139" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="11" t="s">
+        <v>1143</v>
+      </c>
+      <c r="KB139" s="9" t="s">
+        <v>1094</v>
       </c>
     </row>
     <row r="140" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="11" t="s">
-        <v>1143</v>
+        <v>1155</v>
       </c>
       <c r="KB140" s="9" t="s">
-        <v>1172</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="141" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="11" t="s">
+        <v>1156</v>
+      </c>
+      <c r="KB141" s="9" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="142" spans="1:354" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="10" t="s">
         <v>1144</v>
       </c>
-      <c r="KB141" s="9" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="142" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="11" t="s">
-        <v>1156</v>
-      </c>
-      <c r="KB142" s="9" t="s">
-        <v>1102</v>
+      <c r="KB142" s="12">
+        <v>18</v>
       </c>
     </row>
     <row r="143" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="11" t="s">
-        <v>1157</v>
+        <v>1145</v>
       </c>
       <c r="KB143" s="9" t="s">
-        <v>1165</v>
+        <v>1172</v>
       </c>
     </row>
-    <row r="144" spans="1:354" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="10" t="s">
-        <v>1145</v>
-      </c>
-      <c r="KB144" s="12">
-        <v>18</v>
+    <row r="144" spans="1:354" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="11" t="s">
+        <v>1146</v>
+      </c>
+      <c r="KB144" s="9" t="s">
+        <v>1094</v>
       </c>
     </row>
     <row r="145" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="11" t="s">
-        <v>1146</v>
+        <v>1157</v>
       </c>
       <c r="KB145" s="9" t="s">
-        <v>1173</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="146" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="11" t="s">
+        <v>1158</v>
+      </c>
+      <c r="KB146" s="9" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="147" spans="1:288" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="10" t="s">
         <v>1147</v>
       </c>
-      <c r="KB146" s="9" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="147" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="11" t="s">
-        <v>1158</v>
-      </c>
-      <c r="KB147" s="9" t="s">
-        <v>1103</v>
+      <c r="KB147" s="12">
+        <v>19</v>
       </c>
     </row>
     <row r="148" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="11" t="s">
-        <v>1159</v>
+        <v>1148</v>
       </c>
       <c r="KB148" s="9" t="s">
-        <v>1165</v>
+        <v>1173</v>
       </c>
     </row>
-    <row r="149" spans="1:288" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="10" t="s">
-        <v>1148</v>
-      </c>
-      <c r="KB149" s="12">
-        <v>19</v>
+    <row r="149" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="11" t="s">
+        <v>1149</v>
+      </c>
+      <c r="KB149" s="9" t="s">
+        <v>1094</v>
       </c>
     </row>
     <row r="150" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="11" t="s">
-        <v>1149</v>
+        <v>1159</v>
       </c>
       <c r="KB150" s="9" t="s">
-        <v>1174</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="151" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="11" t="s">
+        <v>1160</v>
+      </c>
+      <c r="KB151" s="9" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="152" spans="1:288" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="10" t="s">
         <v>1150</v>
       </c>
-      <c r="KB151" s="9" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="152" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="11" t="s">
-        <v>1160</v>
-      </c>
-      <c r="KB152" s="9" t="s">
-        <v>1103</v>
+      <c r="KB152" s="12">
+        <v>20</v>
       </c>
     </row>
     <row r="153" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="11" t="s">
-        <v>1161</v>
+        <v>1151</v>
       </c>
       <c r="KB153" s="9" t="s">
-        <v>1165</v>
+        <v>1174</v>
       </c>
     </row>
-    <row r="154" spans="1:288" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="10" t="s">
-        <v>1151</v>
-      </c>
-      <c r="KB154" s="12">
-        <v>20</v>
+    <row r="154" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="11" t="s">
+        <v>1152</v>
+      </c>
+      <c r="KB154" s="9" t="s">
+        <v>1094</v>
       </c>
     </row>
     <row r="155" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="11" t="s">
-        <v>1152</v>
+        <v>1161</v>
       </c>
       <c r="KB155" s="9" t="s">
-        <v>1175</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="156" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="11" t="s">
-        <v>1153</v>
+        <v>1162</v>
       </c>
       <c r="KB156" s="9" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="157" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="11" t="s">
-        <v>1162</v>
-      </c>
-      <c r="KB157" s="9" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="158" spans="1:288" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="11" t="s">
-        <v>1163</v>
-      </c>
-      <c r="KB158" s="9" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A65:JS73">
-    <sortCondition ref="A65:A73"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A65:JS71">
+    <sortCondition ref="A65:A71"/>
   </sortState>
   <conditionalFormatting sqref="A1:MN1 MQ1:XFD1">
-    <cfRule type="duplicateValues" dxfId="39" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="expression" dxfId="38" priority="50">
+    <cfRule type="expression" dxfId="40" priority="50">
       <formula>(COUNTA(21:21)=1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A84:A133">
-    <cfRule type="expression" dxfId="37" priority="73">
-      <formula>(COUNTA(84:84)=1)</formula>
+  <conditionalFormatting sqref="A82:A131">
+    <cfRule type="expression" dxfId="39" priority="73">
+      <formula>(COUNTA(82:82)=1)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="36" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="74"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A137:A138">
-    <cfRule type="expression" dxfId="35" priority="44">
-      <formula>(COUNTA(137:137)=1)</formula>
+  <conditionalFormatting sqref="A135:A136">
+    <cfRule type="expression" dxfId="37" priority="44">
+      <formula>(COUNTA(135:135)=1)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="34" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="45"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A142:A143">
-    <cfRule type="expression" dxfId="33" priority="42">
-      <formula>(COUNTA(142:142)=1)</formula>
+  <conditionalFormatting sqref="A140:A141">
+    <cfRule type="expression" dxfId="35" priority="42">
+      <formula>(COUNTA(140:140)=1)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="32" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="43"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A147:A148">
-    <cfRule type="expression" dxfId="31" priority="40">
-      <formula>(COUNTA(147:147)=1)</formula>
+  <conditionalFormatting sqref="A145:A146">
+    <cfRule type="expression" dxfId="33" priority="40">
+      <formula>(COUNTA(145:145)=1)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="30" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="41"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A152:A153">
-    <cfRule type="expression" dxfId="29" priority="38">
-      <formula>(COUNTA(152:152)=1)</formula>
+  <conditionalFormatting sqref="A150:A151">
+    <cfRule type="expression" dxfId="31" priority="38">
+      <formula>(COUNTA(150:150)=1)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="28" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="39"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A157:A158">
-    <cfRule type="expression" dxfId="27" priority="36">
-      <formula>(COUNTA(157:157)=1)</formula>
+  <conditionalFormatting sqref="A155:A156">
+    <cfRule type="expression" dxfId="29" priority="36">
+      <formula>(COUNTA(155:155)=1)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="26" priority="37"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="expression" dxfId="25" priority="81">
-      <formula>(COUNTA(1:1)=1)</formula>
-    </cfRule>
-    <cfRule type="duplicateValues" dxfId="24" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="MO1">
-    <cfRule type="duplicateValues" dxfId="23" priority="2"/>
-    <cfRule type="expression" dxfId="22" priority="3">
+    <cfRule type="duplicateValues" dxfId="27" priority="2"/>
+    <cfRule type="expression" dxfId="26" priority="3">
       <formula>NOT(ISERROR(FIND("(Caster)",MO1)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="4">
+    <cfRule type="expression" dxfId="25" priority="4">
       <formula>ISBLANK(MO2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MP1">
-    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1048574:A1048576">
+    <cfRule type="expression" dxfId="23" priority="85">
+      <formula>(COUNTA(1048574:1048576)=1)</formula>
+    </cfRule>
+    <cfRule type="duplicateValues" dxfId="22" priority="86"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A1048573">
+    <cfRule type="expression" dxfId="1" priority="87">
+      <formula>(COUNTA(1:1)=1)</formula>
+    </cfRule>
+    <cfRule type="duplicateValues" dxfId="0" priority="88"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16695,7 +16690,7 @@
         <v>5</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>48</v>
@@ -16716,16 +16711,16 @@
         <v>21</v>
       </c>
       <c r="U1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>2</v>
@@ -16746,13 +16741,13 @@
         <v>17</v>
       </c>
       <c r="AE1" s="9" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="AF1" s="9" t="s">
+        <v>1295</v>
+      </c>
+      <c r="AG1" s="9" t="s">
         <v>1296</v>
-      </c>
-      <c r="AG1" s="9" t="s">
-        <v>1297</v>
       </c>
       <c r="AH1" s="7" t="s">
         <v>25</v>
@@ -16761,19 +16756,19 @@
         <v>22</v>
       </c>
       <c r="AJ1" s="4" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="AK1" s="4" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="AL1" s="4" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="AM1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="AN1" s="4" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="AO1" s="4" t="s">
         <v>8</v>
@@ -16782,25 +16777,25 @@
         <v>9</v>
       </c>
       <c r="AQ1" s="4" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AR1" s="4" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="AS1" s="7" t="s">
         <v>29</v>
       </c>
       <c r="AT1" s="4" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="AU1" s="4" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="AV1" s="4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AW1" s="4" t="s">
         <v>1020</v>
-      </c>
-      <c r="AW1" s="4" t="s">
-        <v>1021</v>
       </c>
       <c r="AX1" s="4" t="s">
         <v>26</v>
@@ -16812,7 +16807,7 @@
         <v>28</v>
       </c>
       <c r="BA1" s="4" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="BB1" s="4" t="s">
         <v>47</v>
@@ -16821,13 +16816,13 @@
         <v>33</v>
       </c>
       <c r="BD1" s="4" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="BE1" s="4" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="BF1" s="4" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="BG1" s="4" t="s">
         <v>30</v>
@@ -16839,7 +16834,7 @@
         <v>32</v>
       </c>
       <c r="BJ1" s="4" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="BK1" s="5" t="s">
         <v>23</v>
@@ -16875,264 +16870,264 @@
         <v>45</v>
       </c>
       <c r="BV1" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="BW1" s="1" t="s">
         <v>1258</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>1259</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>1260</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>1261</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>1262</v>
       </c>
-      <c r="CA1" s="1" t="s">
-        <v>1263</v>
-      </c>
       <c r="CB1" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="CC1" s="1" t="s">
         <v>1265</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>1266</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>1267</v>
       </c>
-      <c r="CE1" s="1" t="s">
-        <v>1268</v>
-      </c>
       <c r="CF1" s="10" t="s">
+        <v>1043</v>
+      </c>
+      <c r="CG1" s="11" t="s">
         <v>1044</v>
       </c>
-      <c r="CG1" s="11" t="s">
+      <c r="CH1" s="11" t="s">
         <v>1045</v>
       </c>
-      <c r="CH1" s="11" t="s">
+      <c r="CI1" s="11" t="s">
         <v>1046</v>
       </c>
-      <c r="CI1" s="11" t="s">
+      <c r="CJ1" s="11" t="s">
         <v>1047</v>
       </c>
-      <c r="CJ1" s="11" t="s">
+      <c r="CK1" s="10" t="s">
         <v>1048</v>
       </c>
-      <c r="CK1" s="10" t="s">
+      <c r="CL1" s="11" t="s">
         <v>1049</v>
       </c>
-      <c r="CL1" s="11" t="s">
+      <c r="CM1" s="11" t="s">
         <v>1050</v>
       </c>
-      <c r="CM1" s="11" t="s">
+      <c r="CN1" s="11" t="s">
         <v>1051</v>
       </c>
-      <c r="CN1" s="11" t="s">
+      <c r="CO1" s="11" t="s">
         <v>1052</v>
       </c>
-      <c r="CO1" s="11" t="s">
+      <c r="CP1" s="10" t="s">
         <v>1053</v>
       </c>
-      <c r="CP1" s="10" t="s">
+      <c r="CQ1" s="11" t="s">
         <v>1054</v>
       </c>
-      <c r="CQ1" s="11" t="s">
+      <c r="CR1" s="11" t="s">
         <v>1055</v>
       </c>
-      <c r="CR1" s="11" t="s">
+      <c r="CS1" s="11" t="s">
         <v>1056</v>
       </c>
-      <c r="CS1" s="11" t="s">
+      <c r="CT1" s="11" t="s">
         <v>1057</v>
       </c>
-      <c r="CT1" s="11" t="s">
+      <c r="CU1" s="10" t="s">
         <v>1058</v>
       </c>
-      <c r="CU1" s="10" t="s">
+      <c r="CV1" s="11" t="s">
         <v>1059</v>
       </c>
-      <c r="CV1" s="11" t="s">
+      <c r="CW1" s="11" t="s">
         <v>1060</v>
       </c>
-      <c r="CW1" s="11" t="s">
+      <c r="CX1" s="11" t="s">
         <v>1061</v>
       </c>
-      <c r="CX1" s="11" t="s">
+      <c r="CY1" s="11" t="s">
         <v>1062</v>
       </c>
-      <c r="CY1" s="11" t="s">
+      <c r="CZ1" s="10" t="s">
         <v>1063</v>
       </c>
-      <c r="CZ1" s="10" t="s">
+      <c r="DA1" s="11" t="s">
         <v>1064</v>
       </c>
-      <c r="DA1" s="11" t="s">
+      <c r="DB1" s="11" t="s">
         <v>1065</v>
       </c>
-      <c r="DB1" s="11" t="s">
+      <c r="DC1" s="11" t="s">
         <v>1066</v>
       </c>
-      <c r="DC1" s="11" t="s">
+      <c r="DD1" s="11" t="s">
         <v>1067</v>
       </c>
-      <c r="DD1" s="11" t="s">
+      <c r="DE1" s="10" t="s">
         <v>1068</v>
       </c>
-      <c r="DE1" s="10" t="s">
+      <c r="DF1" s="11" t="s">
         <v>1069</v>
       </c>
-      <c r="DF1" s="11" t="s">
+      <c r="DG1" s="11" t="s">
         <v>1070</v>
       </c>
-      <c r="DG1" s="11" t="s">
+      <c r="DH1" s="11" t="s">
         <v>1071</v>
       </c>
-      <c r="DH1" s="11" t="s">
+      <c r="DI1" s="11" t="s">
         <v>1072</v>
       </c>
-      <c r="DI1" s="11" t="s">
+      <c r="DJ1" s="10" t="s">
         <v>1073</v>
       </c>
-      <c r="DJ1" s="10" t="s">
+      <c r="DK1" s="11" t="s">
         <v>1074</v>
       </c>
-      <c r="DK1" s="11" t="s">
+      <c r="DL1" s="11" t="s">
         <v>1075</v>
       </c>
-      <c r="DL1" s="11" t="s">
+      <c r="DM1" s="11" t="s">
         <v>1076</v>
       </c>
-      <c r="DM1" s="11" t="s">
+      <c r="DN1" s="11" t="s">
         <v>1077</v>
       </c>
-      <c r="DN1" s="11" t="s">
+      <c r="DO1" s="10" t="s">
         <v>1078</v>
       </c>
-      <c r="DO1" s="10" t="s">
+      <c r="DP1" s="11" t="s">
         <v>1079</v>
       </c>
-      <c r="DP1" s="11" t="s">
+      <c r="DQ1" s="11" t="s">
         <v>1080</v>
       </c>
-      <c r="DQ1" s="11" t="s">
+      <c r="DR1" s="11" t="s">
         <v>1081</v>
       </c>
-      <c r="DR1" s="11" t="s">
+      <c r="DS1" s="11" t="s">
         <v>1082</v>
       </c>
-      <c r="DS1" s="11" t="s">
+      <c r="DT1" s="10" t="s">
         <v>1083</v>
       </c>
-      <c r="DT1" s="10" t="s">
+      <c r="DU1" s="11" t="s">
         <v>1084</v>
       </c>
-      <c r="DU1" s="11" t="s">
+      <c r="DV1" s="11" t="s">
         <v>1085</v>
       </c>
-      <c r="DV1" s="11" t="s">
+      <c r="DW1" s="11" t="s">
         <v>1086</v>
       </c>
-      <c r="DW1" s="11" t="s">
+      <c r="DX1" s="11" t="s">
         <v>1087</v>
       </c>
-      <c r="DX1" s="11" t="s">
+      <c r="DY1" s="10" t="s">
         <v>1088</v>
       </c>
-      <c r="DY1" s="10" t="s">
+      <c r="DZ1" s="11" t="s">
         <v>1089</v>
       </c>
-      <c r="DZ1" s="11" t="s">
+      <c r="EA1" s="11" t="s">
         <v>1090</v>
       </c>
-      <c r="EA1" s="11" t="s">
+      <c r="EB1" s="11" t="s">
         <v>1091</v>
       </c>
-      <c r="EB1" s="11" t="s">
+      <c r="EC1" s="11" t="s">
         <v>1092</v>
       </c>
-      <c r="EC1" s="11" t="s">
-        <v>1093</v>
-      </c>
       <c r="ED1" s="10" t="s">
+        <v>1138</v>
+      </c>
+      <c r="EE1" s="11" t="s">
         <v>1139</v>
       </c>
-      <c r="EE1" s="11" t="s">
+      <c r="EF1" s="11" t="s">
         <v>1140</v>
       </c>
-      <c r="EF1" s="11" t="s">
+      <c r="EG1" s="11" t="s">
+        <v>1153</v>
+      </c>
+      <c r="EH1" s="11" t="s">
+        <v>1154</v>
+      </c>
+      <c r="EI1" s="10" t="s">
         <v>1141</v>
       </c>
-      <c r="EG1" s="11" t="s">
-        <v>1154</v>
-      </c>
-      <c r="EH1" s="11" t="s">
+      <c r="EJ1" s="11" t="s">
+        <v>1142</v>
+      </c>
+      <c r="EK1" s="11" t="s">
+        <v>1143</v>
+      </c>
+      <c r="EL1" s="11" t="s">
         <v>1155</v>
       </c>
-      <c r="EI1" s="10" t="s">
-        <v>1142</v>
-      </c>
-      <c r="EJ1" s="11" t="s">
-        <v>1143</v>
-      </c>
-      <c r="EK1" s="11" t="s">
+      <c r="EM1" s="11" t="s">
+        <v>1156</v>
+      </c>
+      <c r="EN1" s="10" t="s">
         <v>1144</v>
       </c>
-      <c r="EL1" s="11" t="s">
-        <v>1156</v>
-      </c>
-      <c r="EM1" s="11" t="s">
+      <c r="EO1" s="11" t="s">
+        <v>1145</v>
+      </c>
+      <c r="EP1" s="11" t="s">
+        <v>1146</v>
+      </c>
+      <c r="EQ1" s="11" t="s">
         <v>1157</v>
       </c>
-      <c r="EN1" s="10" t="s">
-        <v>1145</v>
-      </c>
-      <c r="EO1" s="11" t="s">
-        <v>1146</v>
-      </c>
-      <c r="EP1" s="11" t="s">
+      <c r="ER1" s="11" t="s">
+        <v>1158</v>
+      </c>
+      <c r="ES1" s="10" t="s">
         <v>1147</v>
       </c>
-      <c r="EQ1" s="11" t="s">
-        <v>1158</v>
-      </c>
-      <c r="ER1" s="11" t="s">
+      <c r="ET1" s="11" t="s">
+        <v>1148</v>
+      </c>
+      <c r="EU1" s="11" t="s">
+        <v>1149</v>
+      </c>
+      <c r="EV1" s="11" t="s">
         <v>1159</v>
       </c>
-      <c r="ES1" s="10" t="s">
-        <v>1148</v>
-      </c>
-      <c r="ET1" s="11" t="s">
-        <v>1149</v>
-      </c>
-      <c r="EU1" s="11" t="s">
+      <c r="EW1" s="11" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EX1" s="10" t="s">
         <v>1150</v>
       </c>
-      <c r="EV1" s="11" t="s">
-        <v>1160</v>
-      </c>
-      <c r="EW1" s="11" t="s">
+      <c r="EY1" s="11" t="s">
+        <v>1151</v>
+      </c>
+      <c r="EZ1" s="11" t="s">
+        <v>1152</v>
+      </c>
+      <c r="FA1" s="11" t="s">
         <v>1161</v>
       </c>
-      <c r="EX1" s="10" t="s">
-        <v>1151</v>
-      </c>
-      <c r="EY1" s="11" t="s">
-        <v>1152</v>
-      </c>
-      <c r="EZ1" s="11" t="s">
-        <v>1153</v>
-      </c>
-      <c r="FA1" s="11" t="s">
+      <c r="FB1" s="11" t="s">
         <v>1162</v>
-      </c>
-      <c r="FB1" s="11" t="s">
-        <v>1163</v>
       </c>
     </row>
     <row r="2" spans="1:158" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>51</v>
@@ -17149,10 +17144,10 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="V2" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="AA2" s="3"/>
       <c r="AB2" s="3"/>
@@ -17171,10 +17166,10 @@
       </c>
       <c r="AN2" s="4"/>
       <c r="AO2" s="4" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="AP2" s="4" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="AQ2" s="4"/>
       <c r="AR2" s="4"/>
@@ -17208,151 +17203,151 @@
         <v>1</v>
       </c>
       <c r="CG2" s="11" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="CH2" s="11" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="CI2" s="11" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="CJ2" s="11" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="CK2" s="10">
         <v>2</v>
       </c>
       <c r="CL2" s="11" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="CM2" s="11" t="s">
+        <v>1094</v>
+      </c>
+      <c r="CN2" s="11" t="s">
         <v>1095</v>
       </c>
-      <c r="CN2" s="11" t="s">
-        <v>1096</v>
-      </c>
       <c r="CO2" s="11" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="CP2" s="10">
         <v>3</v>
       </c>
       <c r="CQ2" s="11" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="CR2" s="11" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="CS2" s="11" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="CT2" s="11" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="CU2" s="10">
         <v>4</v>
       </c>
       <c r="CV2" s="11" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="CW2" s="11" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="CX2" s="11" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="CY2" s="11" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="CZ2" s="10">
         <v>5</v>
       </c>
       <c r="DA2" s="11" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="DB2" s="11" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="DC2" s="11" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="DD2" s="11" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="DE2" s="10">
         <v>6</v>
       </c>
       <c r="DF2" s="11" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="DG2" s="11" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="DH2" s="11" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="DI2" s="11" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="DJ2" s="10">
         <v>7</v>
       </c>
       <c r="DK2" s="11" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="DL2" s="11" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="DM2" s="11" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="DN2" s="11" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="DO2" s="10">
         <v>8</v>
       </c>
       <c r="DP2" s="11" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="DQ2" s="11" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="DR2" s="11" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="DS2" s="11" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="DT2" s="10">
         <v>9</v>
       </c>
       <c r="DU2" s="11" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="DV2" s="11" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="DW2" s="11" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="DX2" s="11" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="DY2" s="10">
         <v>10</v>
       </c>
       <c r="DZ2" s="11" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="EA2" s="11" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="EB2" s="11" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="EC2" s="11" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="ED2" s="12"/>
       <c r="EE2" s="9"/>
@@ -17382,7 +17377,7 @@
     </row>
     <row r="3" spans="1:158" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -17392,10 +17387,10 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="V3" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
@@ -17414,10 +17409,10 @@
       </c>
       <c r="AN3" s="4"/>
       <c r="AO3" s="4" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="AP3" s="4" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="AQ3" s="4"/>
       <c r="AR3" s="4"/>
@@ -17525,66 +17520,66 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="19" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1">
-    <cfRule type="expression" dxfId="18" priority="15">
+    <cfRule type="expression" dxfId="20" priority="15">
       <formula>(COUNTA(1:1)=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CF1:EC1">
-    <cfRule type="expression" dxfId="17" priority="17">
+    <cfRule type="expression" dxfId="19" priority="17">
       <formula>(COUNTA(1:1)=1)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="16" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="EG1:EH1">
-    <cfRule type="expression" dxfId="15" priority="13">
+    <cfRule type="expression" dxfId="17" priority="13">
       <formula>(COUNTA(1:1)=1)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="14" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="EL1:EM1">
-    <cfRule type="expression" dxfId="13" priority="11">
+    <cfRule type="expression" dxfId="15" priority="11">
       <formula>(COUNTA(1:1)=1)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="EQ1:ER1">
-    <cfRule type="expression" dxfId="11" priority="9">
+    <cfRule type="expression" dxfId="13" priority="9">
       <formula>(COUNTA(1:1)=1)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="EV1:EW1">
-    <cfRule type="expression" dxfId="9" priority="7">
+    <cfRule type="expression" dxfId="11" priority="7">
       <formula>(COUNTA(1:1)=1)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="FA1:FB1">
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="9" priority="5">
       <formula>(COUNTA(1:1)=1)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:FB1">
-    <cfRule type="expression" dxfId="5" priority="19">
+    <cfRule type="expression" dxfId="7" priority="19">
       <formula>(COUNTA(1:1)=1)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="4" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>NOT(ISERROR(FIND("(Caster)",A2)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>ISBLANK(A3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/activities.xlsx
+++ b/activities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eb76e5660c890129/Personal/Projects/Design/PECS/work assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2184" documentId="13_ncr:40009_{E3EB266C-7612-416D-8781-7A2BED99FA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06C059BE-9BEC-42FE-8779-7DC9B3F65BF0}"/>
+  <xr:revisionPtr revIDLastSave="2186" documentId="13_ncr:40009_{E3EB266C-7612-416D-8781-7A2BED99FA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1703CB57-A930-4F96-B7EE-0B346AE7B212}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="43200" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Work" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6527" uniqueCount="1327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6527" uniqueCount="1328">
   <si>
     <t>name</t>
   </si>
@@ -4145,6 +4145,13 @@
   </si>
   <si>
     <t>gainConditions/0/increaseRadius</t>
+  </si>
+  <si>
+    <t>You tap into your inner fury and begin raging. You gain a number of temporary Hit Points equal to your level plus your Constitution modifier. This frenzy lasts for 1 minute, until there are no enemies you can perceive, or until you fall unconscious, whichever comes first. You can't voluntarily stop raging. While you are raging:
+You deal 2 additional damage with melee weapons and unarmed attacks. This additional damage is halved if your weapon or unarmed attack is agile.
+You take a -1 penalty to AC.
+You can't use actions with the concentrate trait unless they also have the rage trait. You can Seek while raging.
+After you stop raging, you lose any remaining temporary Hit Points from Rage, and you can't Rage again for 1 minute.</t>
   </si>
 </sst>
 </file>
@@ -5401,10 +5408,10 @@
   <dimension ref="A1:MT154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="MK2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="BJ25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="MT3" sqref="MT3"/>
+      <selection pane="bottomRight" activeCell="BO25" sqref="BO25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12731,7 +12738,7 @@
         <v>284</v>
       </c>
       <c r="BO25" s="1" t="s">
-        <v>288</v>
+        <v>1327</v>
       </c>
       <c r="BP25" s="1" t="s">
         <v>291</v>

--- a/activities.xlsx
+++ b/activities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eb76e5660c890129/Personal/Projects/Design/PECS/work assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2186" documentId="13_ncr:40009_{E3EB266C-7612-416D-8781-7A2BED99FA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1703CB57-A930-4F96-B7EE-0B346AE7B212}"/>
+  <xr:revisionPtr revIDLastSave="2198" documentId="13_ncr:40009_{E3EB266C-7612-416D-8781-7A2BED99FA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89BEE23D-1C36-437E-82BE-1DCD5C989EDE}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="43200" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1635" yWindow="1245" windowWidth="57600" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Work" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6527" uniqueCount="1328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6532" uniqueCount="1331">
   <si>
     <t>name</t>
   </si>
@@ -4152,6 +4152,16 @@
 You take a -1 penalty to AC.
 You can't use actions with the concentrate trait unless they also have the rage trait. You can Seek while raging.
 After you stop raging, you lose any remaining temporary Hit Points from Rage, and you can't Rage again for 1 minute.</t>
+  </si>
+  <si>
+    <t>Sun Wheel: Fire Damage</t>
+  </si>
+  <si>
+    <t>When you use the shield spell granted by the sun wheel to prevent damage, if the attacker is adjacent to you, you can choose to deal |dice=2d6 Fire| 2d6 fire damage to it, which it gets a DC 21 basic Reflex save to resist.
+If you choose to deal the fire damage, you can't Activate the sun wheel again until the next morning.</t>
+  </si>
+  <si>
+    <t>Sun Wheel Cooldown</t>
   </si>
 </sst>
 </file>
@@ -5405,23 +5415,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:MT154"/>
+  <dimension ref="A1:MU154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="BJ25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="MM17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BO25" sqref="BO25"/>
+      <selection pane="bottomRight" activeCell="MU42" sqref="MU42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="358" width="27.42578125" style="1" customWidth="1"/>
-    <col min="359" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="359" width="27.42578125" style="1" customWidth="1"/>
+    <col min="360" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:358" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:359" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6496,8 +6506,11 @@
       <c r="MT1" t="s">
         <v>1323</v>
       </c>
+      <c r="MU1" t="s">
+        <v>1328</v>
+      </c>
     </row>
-    <row r="2" spans="1:358" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -7543,7 +7556,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:358" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -7770,7 +7783,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="4" spans="1:358" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:359" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -8780,7 +8793,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="5" spans="1:358" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:359" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -9481,7 +9494,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:358" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:359" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -9849,7 +9862,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="7" spans="1:358" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:359" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -10088,7 +10101,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="8" spans="1:358" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:359" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -10234,7 +10247,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="9" spans="1:358" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:359" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>34</v>
       </c>
@@ -10260,7 +10273,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="10" spans="1:358" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:359" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>37</v>
       </c>
@@ -10274,7 +10287,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="11" spans="1:358" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -10579,7 +10592,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="12" spans="1:358" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -10812,7 +10825,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="13" spans="1:358" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -10967,12 +10980,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:358" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="15" spans="1:358" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>46</v>
       </c>
@@ -10986,7 +10999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:358" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -10997,7 +11010,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="17" spans="1:358" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -11120,7 +11133,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="18" spans="1:358" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -11254,7 +11267,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:358" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -11265,7 +11278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:358" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -11315,7 +11328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:358" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1014</v>
       </c>
@@ -11335,7 +11348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:358" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>1012</v>
       </c>
@@ -12410,8 +12423,11 @@
       <c r="MT22" s="1" t="s">
         <v>995</v>
       </c>
+      <c r="MU22" s="1" t="s">
+        <v>994</v>
+      </c>
     </row>
-    <row r="23" spans="1:358" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>1028</v>
       </c>
@@ -12443,7 +12459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:358" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>1184</v>
       </c>
@@ -12538,7 +12554,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="25" spans="1:358" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>2</v>
       </c>
@@ -13613,8 +13629,11 @@
       <c r="MT25" t="s">
         <v>1322</v>
       </c>
+      <c r="MU25" s="1" t="s">
+        <v>1329</v>
+      </c>
     </row>
-    <row r="26" spans="1:358" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
@@ -13631,7 +13650,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="27" spans="1:358" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:359" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>14</v>
       </c>
@@ -13684,7 +13703,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="28" spans="1:358" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:359" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>15</v>
       </c>
@@ -13746,7 +13765,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="29" spans="1:358" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:359" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>16</v>
       </c>
@@ -13814,7 +13833,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="30" spans="1:358" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:359" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>17</v>
       </c>
@@ -13867,7 +13886,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="31" spans="1:358" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:359" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>1002</v>
       </c>
@@ -13887,7 +13906,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:358" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:359" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>1293</v>
       </c>
@@ -13895,7 +13914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:358" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:359" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>1294</v>
       </c>
@@ -13903,7 +13922,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="34" spans="1:358" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:359" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>25</v>
       </c>
@@ -13914,7 +13933,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="35" spans="1:358" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:359" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>22</v>
       </c>
@@ -13928,7 +13947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:358" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:359" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>1326</v>
       </c>
@@ -13936,12 +13955,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:358" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:359" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="38" spans="1:358" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:359" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>993</v>
       </c>
@@ -13949,12 +13968,12 @@
         <v>991</v>
       </c>
     </row>
-    <row r="39" spans="1:358" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:359" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="40" spans="1:358" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:359" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>7</v>
       </c>
@@ -14330,8 +14349,11 @@
       <c r="MT40" s="4">
         <v>0</v>
       </c>
+      <c r="MU40" s="4">
+        <v>-2</v>
+      </c>
     </row>
-    <row r="41" spans="1:358" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:359" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>992</v>
       </c>
@@ -14339,7 +14361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:358" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:359" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>8</v>
       </c>
@@ -14739,8 +14761,11 @@
       <c r="MT42" s="4" t="s">
         <v>1325</v>
       </c>
+      <c r="MU42" s="4" t="s">
+        <v>1330</v>
+      </c>
     </row>
-    <row r="43" spans="1:358" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:359" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>1010</v>
       </c>
@@ -14837,8 +14862,11 @@
       <c r="MH43" s="4" t="s">
         <v>1011</v>
       </c>
+      <c r="MU43" s="4" t="s">
+        <v>1011</v>
+      </c>
     </row>
-    <row r="44" spans="1:358" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:359" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>989</v>
       </c>
@@ -14846,7 +14874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:358" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:359" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>29</v>
       </c>
@@ -14854,17 +14882,17 @@
         <v>189</v>
       </c>
     </row>
-    <row r="46" spans="1:358" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:359" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="47" spans="1:358" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:359" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="48" spans="1:358" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:359" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>1017</v>
       </c>
@@ -15201,7 +15229,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="65" spans="1:358" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:359" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>42</v>
       </c>
@@ -15209,7 +15237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:358" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:359" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>41</v>
       </c>
@@ -15217,7 +15245,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="67" spans="1:358" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>47</v>
       </c>
@@ -15225,7 +15253,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="68" spans="1:358" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>44</v>
       </c>
@@ -15251,7 +15279,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:358" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>43</v>
       </c>
@@ -15277,7 +15305,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="70" spans="1:358" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>1255</v>
       </c>
@@ -15285,7 +15313,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:358" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>1256</v>
       </c>
@@ -15293,7 +15321,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="72" spans="1:358" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>1257</v>
       </c>
@@ -15301,7 +15329,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:358" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>1258</v>
       </c>
@@ -15309,7 +15337,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="74" spans="1:358" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>1259</v>
       </c>
@@ -15317,7 +15345,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:358" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>1260</v>
       </c>
@@ -15325,7 +15353,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="76" spans="1:358" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>1262</v>
       </c>
@@ -15333,7 +15361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:358" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>1263</v>
       </c>
@@ -15341,7 +15369,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="78" spans="1:358" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>1264</v>
       </c>
@@ -15349,7 +15377,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:358" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:359" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>1265</v>
       </c>
@@ -15357,7 +15385,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="80" spans="1:358" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:359" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
         <v>1041</v>
       </c>
@@ -15381,8 +15409,9 @@
       <c r="MT80" s="10">
         <v>4</v>
       </c>
+      <c r="MU80" s="10"/>
     </row>
-    <row r="81" spans="1:358" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:359" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
         <v>1042</v>
       </c>
@@ -15406,8 +15435,9 @@
       <c r="MT81" s="11">
         <v>4</v>
       </c>
+      <c r="MU81" s="11"/>
     </row>
-    <row r="82" spans="1:358" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:359" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
         <v>1043</v>
       </c>
@@ -15431,8 +15461,9 @@
       <c r="MT82" s="11" t="s">
         <v>1092</v>
       </c>
+      <c r="MU82" s="11"/>
     </row>
-    <row r="83" spans="1:358" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:359" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
         <v>1044</v>
       </c>
@@ -15446,8 +15477,9 @@
       <c r="MR83" s="11"/>
       <c r="MS83" s="11"/>
       <c r="MT83" s="11"/>
+      <c r="MU83" s="11"/>
     </row>
-    <row r="84" spans="1:358" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:359" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
         <v>1045</v>
       </c>
@@ -15463,8 +15495,9 @@
       <c r="MR84" s="11"/>
       <c r="MS84" s="11"/>
       <c r="MT84" s="11"/>
+      <c r="MU84" s="11"/>
     </row>
-    <row r="85" spans="1:358" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:359" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
         <v>1046</v>
       </c>
@@ -15488,8 +15521,9 @@
       <c r="MT85" s="10">
         <v>5</v>
       </c>
+      <c r="MU85" s="10"/>
     </row>
-    <row r="86" spans="1:358" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:359" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
         <v>1047</v>
       </c>
@@ -15513,8 +15547,9 @@
       <c r="MT86" s="11">
         <v>5</v>
       </c>
+      <c r="MU86" s="11"/>
     </row>
-    <row r="87" spans="1:358" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:359" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
         <v>1048</v>
       </c>
@@ -15538,8 +15573,9 @@
       <c r="MT87" s="11" t="s">
         <v>1092</v>
       </c>
+      <c r="MU87" s="11"/>
     </row>
-    <row r="88" spans="1:358" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:359" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
         <v>1049</v>
       </c>
@@ -15555,8 +15591,9 @@
       <c r="MR88" s="11"/>
       <c r="MS88" s="11"/>
       <c r="MT88" s="11"/>
+      <c r="MU88" s="11"/>
     </row>
-    <row r="89" spans="1:358" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:359" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
         <v>1050</v>
       </c>
@@ -15572,8 +15609,9 @@
       <c r="MR89" s="11"/>
       <c r="MS89" s="11"/>
       <c r="MT89" s="11"/>
+      <c r="MU89" s="11"/>
     </row>
-    <row r="90" spans="1:358" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:359" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
         <v>1051</v>
       </c>
@@ -15597,8 +15635,9 @@
       <c r="MT90" s="10">
         <v>6</v>
       </c>
+      <c r="MU90" s="10"/>
     </row>
-    <row r="91" spans="1:358" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:359" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
         <v>1052</v>
       </c>
@@ -15622,8 +15661,9 @@
       <c r="MT91" s="11">
         <v>6</v>
       </c>
+      <c r="MU91" s="11"/>
     </row>
-    <row r="92" spans="1:358" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:359" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
         <v>1053</v>
       </c>
@@ -15647,8 +15687,9 @@
       <c r="MT92" s="11" t="s">
         <v>1092</v>
       </c>
+      <c r="MU92" s="11"/>
     </row>
-    <row r="93" spans="1:358" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:359" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
         <v>1054</v>
       </c>
@@ -15664,8 +15705,9 @@
       <c r="MR93" s="11"/>
       <c r="MS93" s="11"/>
       <c r="MT93" s="11"/>
+      <c r="MU93" s="11"/>
     </row>
-    <row r="94" spans="1:358" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:359" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
         <v>1055</v>
       </c>
@@ -15681,8 +15723,9 @@
       <c r="MR94" s="11"/>
       <c r="MS94" s="11"/>
       <c r="MT94" s="11"/>
+      <c r="MU94" s="11"/>
     </row>
-    <row r="95" spans="1:358" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:359" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
         <v>1056</v>
       </c>
@@ -15702,7 +15745,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:358" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:359" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
         <v>1057</v>
       </c>
@@ -16433,7 +16476,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A63:JS69">
     <sortCondition ref="A63:A69"/>
   </sortState>
-  <conditionalFormatting sqref="A1:MN1 MQ1 MU1:XFD1">
+  <conditionalFormatting sqref="MV1:XFD1 A1:MN1 MQ1">
     <cfRule type="duplicateValues" dxfId="45" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
@@ -16501,7 +16544,7 @@
   <conditionalFormatting sqref="MS1">
     <cfRule type="duplicateValues" dxfId="24" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="MT1">
+  <conditionalFormatting sqref="MT1:MU1">
     <cfRule type="duplicateValues" dxfId="23" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/activities.xlsx
+++ b/activities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eb76e5660c890129/Personal/Projects/Design/PECS/work assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2198" documentId="13_ncr:40009_{E3EB266C-7612-416D-8781-7A2BED99FA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89BEE23D-1C36-437E-82BE-1DCD5C989EDE}"/>
+  <xr:revisionPtr revIDLastSave="2199" documentId="13_ncr:40009_{E3EB266C-7612-416D-8781-7A2BED99FA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD98EE0A-4250-47B7-8D61-08BFA29FDC52}"/>
   <bookViews>
-    <workbookView xWindow="1635" yWindow="1245" windowWidth="57600" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="705" yWindow="2295" windowWidth="15000" windowHeight="8850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Work" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6532" uniqueCount="1331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6532" uniqueCount="1332">
   <si>
     <t>name</t>
   </si>
@@ -4162,6 +4162,9 @@
   </si>
   <si>
     <t>Sun Wheel Cooldown</t>
+  </si>
+  <si>
+    <t>Has_Condition('Shield') ? 1 : 0</t>
   </si>
 </sst>
 </file>
@@ -5418,10 +5421,10 @@
   <dimension ref="A1:MU154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="MM17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AU14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="MU42" sqref="MU42"/>
+      <selection pane="bottomRight" activeCell="AZ34" sqref="AZ34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13930,7 +13933,7 @@
         <v>188</v>
       </c>
       <c r="AZ34" s="7" t="s">
-        <v>230</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="35" spans="1:359" s="4" customFormat="1" x14ac:dyDescent="0.25">

--- a/activities.xlsx
+++ b/activities.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="2199" documentId="13_ncr:40009_{E3EB266C-7612-416D-8781-7A2BED99FA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD98EE0A-4250-47B7-8D61-08BFA29FDC52}"/>
   <bookViews>
-    <workbookView xWindow="705" yWindow="2295" windowWidth="15000" windowHeight="8850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="4935" windowWidth="15015" windowHeight="6210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Work" sheetId="2" r:id="rId1"/>
@@ -5421,10 +5421,10 @@
   <dimension ref="A1:MU154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AU14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="DP28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AZ34" sqref="AZ34"/>
+      <selection pane="bottomRight" activeCell="DS49" sqref="DS49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/activities.xlsx
+++ b/activities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OneDrive\Personal\Projects\Design\PECS\work assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A65CF8-03D3-4266-9083-11FAB3DB817C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75AE77F-DDAF-4A39-906D-E528291017AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3135" yWindow="3210" windowWidth="33420" windowHeight="16485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3825" yWindow="3900" windowWidth="33420" windowHeight="16485" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Work" sheetId="2" r:id="rId1"/>
@@ -4672,7 +4672,207 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="46">
+  <dxfs count="69">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5385,11 +5585,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:MU154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="MO73" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="MM116" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="MQ85" sqref="MQ85"/>
+      <selection pane="bottomRight" sqref="A1:MU154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16439,75 +16639,75 @@
     <sortCondition ref="A63:A69"/>
   </sortState>
   <conditionalFormatting sqref="MV1:XFD1 A1:MN1 MQ1">
-    <cfRule type="duplicateValues" dxfId="45" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="expression" dxfId="44" priority="53">
+    <cfRule type="expression" dxfId="67" priority="53">
       <formula>(COUNTA(21:21)=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A80:A129">
-    <cfRule type="expression" dxfId="43" priority="76">
+    <cfRule type="expression" dxfId="66" priority="76">
       <formula>(COUNTA(80:80)=1)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="42" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A133:A134">
-    <cfRule type="expression" dxfId="41" priority="47">
+    <cfRule type="expression" dxfId="64" priority="47">
       <formula>(COUNTA(133:133)=1)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="40" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A138:A139">
-    <cfRule type="expression" dxfId="39" priority="45">
+    <cfRule type="expression" dxfId="62" priority="45">
       <formula>(COUNTA(138:138)=1)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="38" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A143:A144">
-    <cfRule type="expression" dxfId="37" priority="43">
+    <cfRule type="expression" dxfId="60" priority="43">
       <formula>(COUNTA(143:143)=1)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="36" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A148:A149">
-    <cfRule type="expression" dxfId="35" priority="41">
+    <cfRule type="expression" dxfId="58" priority="41">
       <formula>(COUNTA(148:148)=1)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="34" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A153:A154">
-    <cfRule type="expression" dxfId="33" priority="39">
+    <cfRule type="expression" dxfId="56" priority="39">
       <formula>(COUNTA(153:153)=1)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="32" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="MO1">
-    <cfRule type="duplicateValues" dxfId="31" priority="5"/>
-    <cfRule type="expression" dxfId="30" priority="6">
+    <cfRule type="duplicateValues" dxfId="54" priority="5"/>
+    <cfRule type="expression" dxfId="53" priority="6">
       <formula>NOT(ISERROR(FIND("(Caster)",MO1)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="7">
+    <cfRule type="expression" dxfId="52" priority="7">
       <formula>ISBLANK(MO2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="MP1">
-    <cfRule type="duplicateValues" dxfId="28" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="expression" dxfId="27" priority="90">
+    <cfRule type="expression" dxfId="50" priority="90">
       <formula>(COUNTA(1:1)=1)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="26" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="MR1">
-    <cfRule type="duplicateValues" dxfId="25" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="MS1">
-    <cfRule type="duplicateValues" dxfId="24" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="MT1:MU1">
-    <cfRule type="duplicateValues" dxfId="23" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16518,7 +16718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EX359"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:EX359"/>
     </sheetView>
   </sheetViews>
@@ -69391,7 +69591,7 @@
         <v>7</v>
       </c>
       <c r="CH355" s="11">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="CI355" s="11" t="s">
         <v>1083</v>
@@ -69403,7 +69603,7 @@
         <v>1133</v>
       </c>
       <c r="CL355" s="10">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="CM355" s="11">
         <v>20</v>
